--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/25/Output_3_18.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/25/Output_3_18.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>735929.0900951142</v>
+        <v>634261.8877404341</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>372414.8796289765</v>
+        <v>372414.8796289768</v>
       </c>
     </row>
     <row r="8">
@@ -1369,28 +1369,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>274.3489689505702</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>241.6465718516621</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>274.3489689505702</v>
       </c>
       <c r="F11" t="n">
-        <v>274.3489689505703</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>274.3489689505703</v>
+        <v>274.3489689505702</v>
       </c>
       <c r="H11" t="n">
-        <v>274.3489689505703</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>206.1329861685091</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1417,7 +1417,7 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>35.51358568315315</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -1448,10 +1448,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>176.7504943976657</v>
+        <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>187.5181515243659</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
         <v>159.1723150765785</v>
@@ -1460,7 +1460,7 @@
         <v>171.8275718397997</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G12" t="n">
         <v>0</v>
@@ -1499,22 +1499,22 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>132.228720715771</v>
+        <v>0</v>
       </c>
       <c r="T12" t="n">
         <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>237.1962251491922</v>
+        <v>116.9083173121932</v>
       </c>
       <c r="V12" t="n">
-        <v>0</v>
+        <v>240.6489209154022</v>
       </c>
       <c r="W12" t="n">
         <v>0</v>
       </c>
       <c r="X12" t="n">
-        <v>0</v>
+        <v>217.3129144394706</v>
       </c>
       <c r="Y12" t="n">
         <v>0</v>
@@ -1551,10 +1551,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>6.882703596063047</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>19.88364031691903</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -1569,13 +1569,13 @@
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>9.399185363825353</v>
+        <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>93.23694401510254</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>129.4024732919099</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -1606,7 +1606,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>274.3489689505702</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -1618,16 +1618,16 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>274.3489689505703</v>
+        <v>274.3489689505702</v>
       </c>
       <c r="G14" t="n">
-        <v>274.3489689505703</v>
+        <v>274.3489689505702</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>206.1329861685091</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1654,7 +1654,7 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>138.0543947935843</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -1669,13 +1669,13 @@
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>171.8081598401391</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>241.6465718516621</v>
       </c>
     </row>
     <row r="15">
@@ -1685,7 +1685,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C15" t="n">
         <v>187.5181515243659</v>
@@ -1694,7 +1694,7 @@
         <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F15" t="n">
         <v>0</v>
@@ -1733,25 +1733,25 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>104.6672283897153</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>0</v>
+        <v>64.56405389211336</v>
       </c>
       <c r="U15" t="n">
-        <v>237.1962251491922</v>
+        <v>0</v>
       </c>
       <c r="V15" t="n">
-        <v>0</v>
+        <v>240.6489209154022</v>
       </c>
       <c r="W15" t="n">
-        <v>94.61467306660344</v>
+        <v>0</v>
       </c>
       <c r="X15" t="n">
-        <v>217.3129144394706</v>
+        <v>0</v>
       </c>
       <c r="Y15" t="n">
         <v>223.3842861340256</v>
@@ -1782,16 +1782,16 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>129.4024732919099</v>
       </c>
       <c r="I16" t="n">
-        <v>17.96913813056408</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>91.54969484442685</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>19.88364031691903</v>
+        <v>0</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -1846,7 +1846,7 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>274.3489689505702</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
         <v>274.3489689505702</v>
@@ -1858,7 +1858,7 @@
         <v>274.3489689505702</v>
       </c>
       <c r="G17" t="n">
-        <v>241.6465718516622</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1903,10 +1903,10 @@
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>241.6465718516621</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>274.3489689505702</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
@@ -1922,22 +1922,22 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C18" t="n">
-        <v>187.5181515243659</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
         <v>159.1723150765785</v>
       </c>
       <c r="E18" t="n">
-        <v>171.8275718397997</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
         <v>158.8234391199283</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>120.6425760451383</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1973,7 +1973,7 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>182.6000704870501</v>
       </c>
       <c r="T18" t="n">
         <v>0</v>
@@ -1985,13 +1985,13 @@
         <v>0</v>
       </c>
       <c r="W18" t="n">
-        <v>0</v>
+        <v>266.7045835770116</v>
       </c>
       <c r="X18" t="n">
-        <v>163.9677150086747</v>
+        <v>0</v>
       </c>
       <c r="Y18" t="n">
-        <v>223.3842861340256</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -2058,19 +2058,19 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
+        <v>0</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="n">
+        <v>0</v>
+      </c>
+      <c r="X19" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y19" t="n">
         <v>129.4024732919099</v>
-      </c>
-      <c r="V19" t="n">
-        <v>0</v>
-      </c>
-      <c r="W19" t="n">
-        <v>0</v>
-      </c>
-      <c r="X19" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y19" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2083,16 +2083,16 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>274.3489689505702</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>274.3489689505702</v>
       </c>
       <c r="E20" t="n">
-        <v>274.3489689505702</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>59.78438568873604</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
@@ -2101,7 +2101,7 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>206.1329861685091</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2128,10 +2128,10 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>138.0543947935843</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>127.8629770636607</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
@@ -2140,7 +2140,7 @@
         <v>250.0781689449873</v>
       </c>
       <c r="V20" t="n">
-        <v>274.3489689505702</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
@@ -2159,22 +2159,22 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C21" t="n">
-        <v>187.5181515243659</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F21" t="n">
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>72.92559937284676</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -2210,7 +2210,7 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>169.7735430284992</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
         <v>0</v>
@@ -2228,7 +2228,7 @@
         <v>217.3129144394706</v>
       </c>
       <c r="Y21" t="n">
-        <v>223.3842861340256</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -2244,7 +2244,7 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>37.85277844748305</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -2262,7 +2262,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>91.54969484442687</v>
+        <v>0</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -2283,13 +2283,13 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>0</v>
+        <v>93.23694401510255</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>36.16552927680734</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -2317,28 +2317,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>374.0872403778333</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>350.2054973811788</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>371.4789120616362</v>
       </c>
       <c r="F23" t="n">
-        <v>403.1992496400135</v>
+        <v>120.9807102323218</v>
       </c>
       <c r="G23" t="n">
-        <v>201.8792388887373</v>
+        <v>416.9852966124832</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>169.5767537257256</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2365,28 +2365,28 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>78.49080135129145</v>
+        <v>78.49080135129142</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>185.2945747290548</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>214.3549151769703</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>250.0023113846365</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>320.879783609152</v>
       </c>
       <c r="W23" t="n">
-        <v>337.8964638257669</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>382.2855674184499</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2405,13 +2405,13 @@
         <v>159.1723150765785</v>
       </c>
       <c r="E24" t="n">
-        <v>171.8275718397997</v>
+        <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>58.17055637784136</v>
+        <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>19.02314659086095</v>
       </c>
       <c r="H24" t="n">
         <v>116.1609171460363</v>
@@ -2450,7 +2450,7 @@
         <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>210.9749816267804</v>
       </c>
       <c r="U24" t="n">
         <v>237.1628473753645</v>
@@ -2535,16 +2535,16 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>159.28521285796</v>
       </c>
       <c r="W25" t="n">
-        <v>10.53519172488418</v>
+        <v>290.3107070893353</v>
       </c>
       <c r="X25" t="n">
-        <v>221.9194554082425</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>217.1412728141684</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2560,19 +2560,19 @@
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>337.7721596422273</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>208.2159810519796</v>
       </c>
       <c r="F26" t="n">
         <v>403.1992496400135</v>
       </c>
       <c r="G26" t="n">
-        <v>416.9852966124832</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>328.0456286874195</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>169.5767537257256</v>
@@ -2602,25 +2602,25 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>78.49080135129142</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>151.5851869662497</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>250.0023113846365</v>
       </c>
       <c r="V26" t="n">
         <v>320.879783609152</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>337.8964638257669</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>359.7827142947061</v>
       </c>
       <c r="Y26" t="n">
         <v>0</v>
@@ -2639,19 +2639,19 @@
         <v>187.5181515243659</v>
       </c>
       <c r="D27" t="n">
-        <v>159.1723150765785</v>
+        <v>147.8092356161247</v>
       </c>
       <c r="E27" t="n">
-        <v>171.8275718397997</v>
+        <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>158.8234391199283</v>
+        <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>88.73853448365801</v>
+        <v>147.7532282274605</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>116.1609171460363</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -2684,10 +2684,10 @@
         <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>0</v>
+        <v>173.1764123430336</v>
       </c>
       <c r="T27" t="n">
-        <v>0</v>
+        <v>210.9749816267804</v>
       </c>
       <c r="U27" t="n">
         <v>237.1628473753645</v>
@@ -2699,7 +2699,7 @@
         <v>266.7045835770116</v>
       </c>
       <c r="X27" t="n">
-        <v>217.3129144394706</v>
+        <v>0</v>
       </c>
       <c r="Y27" t="n">
         <v>223.3842861340256</v>
@@ -2730,10 +2730,10 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>158.4348382074968</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>139.8584254797875</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2757,10 +2757,10 @@
         <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>57.62063415604025</v>
+        <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>93.6820221039705</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -2775,13 +2775,13 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>232.4546471331269</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>217.1412728141684</v>
       </c>
     </row>
     <row r="29">
@@ -2791,28 +2791,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>374.0872403778333</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>350.2054973811788</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>337.7721596422273</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>277.8569002292829</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>403.1992496400135</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>416.9852966124832</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>169.5767537257256</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2839,13 +2839,13 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>78.49080135129142</v>
       </c>
       <c r="S29" t="n">
         <v>185.2945747290548</v>
       </c>
       <c r="T29" t="n">
-        <v>138.6163050398205</v>
+        <v>214.3549151769703</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
@@ -2857,7 +2857,7 @@
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>359.7827142947061</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
         <v>382.2855674184499</v>
@@ -2870,13 +2870,13 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>176.7504943976657</v>
+        <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>187.5181515243659</v>
+        <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>159.1723150765785</v>
+        <v>0</v>
       </c>
       <c r="E30" t="n">
         <v>171.8275718397997</v>
@@ -2885,7 +2885,7 @@
         <v>158.8234391199283</v>
       </c>
       <c r="G30" t="n">
-        <v>147.7532282274605</v>
+        <v>38.63668428670958</v>
       </c>
       <c r="H30" t="n">
         <v>116.1609171460363</v>
@@ -2921,16 +2921,16 @@
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>0</v>
+        <v>173.1764123430336</v>
       </c>
       <c r="T30" t="n">
-        <v>0</v>
+        <v>210.9749816267804</v>
       </c>
       <c r="U30" t="n">
-        <v>229.4056573212194</v>
+        <v>237.1628473753645</v>
       </c>
       <c r="V30" t="n">
-        <v>0</v>
+        <v>240.6489209154022</v>
       </c>
       <c r="W30" t="n">
         <v>266.7045835770116</v>
@@ -2949,13 +2949,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>177.6169206649681</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>166.4571809719723</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>105.5218183103548</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -2973,7 +2973,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>0</v>
+        <v>8.431980116879952</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
@@ -3000,10 +3000,10 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>220.9536011553171</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>220.2103386750983</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -3028,25 +3028,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>374.0872403778333</v>
       </c>
       <c r="C32" t="n">
-        <v>350.2054973811788</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
         <v>337.7721596422273</v>
       </c>
       <c r="E32" t="n">
-        <v>371.4789120616362</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>98.0031933856183</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>78.45165300805628</v>
+        <v>328.0456286874195</v>
       </c>
       <c r="I32" t="n">
         <v>169.5767537257256</v>
@@ -3076,7 +3076,7 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>78.49080135129145</v>
+        <v>78.49080135129142</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -3116,13 +3116,13 @@
         <v>159.1723150765785</v>
       </c>
       <c r="E33" t="n">
-        <v>171.8275718397997</v>
+        <v>151.0565021773269</v>
       </c>
       <c r="F33" t="n">
         <v>158.8234391199283</v>
       </c>
       <c r="G33" t="n">
-        <v>147.7532282274605</v>
+        <v>0</v>
       </c>
       <c r="H33" t="n">
         <v>116.1609171460363</v>
@@ -3155,16 +3155,16 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>73.16751063606758</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>156.2381466851521</v>
+        <v>173.1764123430336</v>
       </c>
       <c r="T33" t="n">
-        <v>0</v>
+        <v>210.9749816267804</v>
       </c>
       <c r="U33" t="n">
-        <v>0</v>
+        <v>237.1628473753645</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -3176,7 +3176,7 @@
         <v>217.3129144394706</v>
       </c>
       <c r="Y33" t="n">
-        <v>223.3842861340256</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -3201,13 +3201,13 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>167.8696383840148</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>141.8678560834929</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>139.8584254797875</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3231,7 +3231,7 @@
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>0</v>
+        <v>57.62063415604023</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -3249,13 +3249,13 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>290.3107070893353</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>101.6645787019198</v>
       </c>
     </row>
     <row r="35">
@@ -3271,7 +3271,7 @@
         <v>350.2054973811788</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>337.7721596422273</v>
       </c>
       <c r="E35" t="n">
         <v>371.4789120616362</v>
@@ -3280,13 +3280,13 @@
         <v>403.1992496400135</v>
       </c>
       <c r="G35" t="n">
-        <v>292.8292036945735</v>
+        <v>416.9852966124832</v>
       </c>
       <c r="H35" t="n">
-        <v>328.0456286874195</v>
+        <v>78.82618982000702</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>169.5767537257256</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3334,7 +3334,7 @@
         <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>382.2855674184499</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -3344,13 +3344,13 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>176.7504943976657</v>
+        <v>0</v>
       </c>
       <c r="C36" t="n">
         <v>187.5181515243659</v>
       </c>
       <c r="D36" t="n">
-        <v>159.1723150765785</v>
+        <v>0</v>
       </c>
       <c r="E36" t="n">
         <v>171.8275718397997</v>
@@ -3365,7 +3365,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>40.50994998808866</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3395,10 +3395,10 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>173.1764123430336</v>
       </c>
       <c r="T36" t="n">
-        <v>88.73853448365847</v>
+        <v>210.9749816267804</v>
       </c>
       <c r="U36" t="n">
         <v>237.1628473753645</v>
@@ -3477,16 +3477,16 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>160.9846976992645</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>288.6112222480308</v>
+        <v>159.28521285796</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>290.3107070893353</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -3502,7 +3502,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>374.0872403778333</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -3514,16 +3514,16 @@
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>403.1992496400135</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>416.9852966124832</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>169.5767537257256</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3562,16 +3562,16 @@
         <v>250.0023113846365</v>
       </c>
       <c r="V38" t="n">
-        <v>320.879783609152</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>337.8964638257669</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>359.7827142947061</v>
+        <v>106.3453901959378</v>
       </c>
       <c r="Y38" t="n">
-        <v>85.74605548515143</v>
+        <v>382.2855674184499</v>
       </c>
     </row>
     <row r="39">
@@ -3581,16 +3581,16 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C39" t="n">
         <v>187.5181515243659</v>
       </c>
       <c r="D39" t="n">
-        <v>159.1723150765785</v>
+        <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>171.8275718397997</v>
+        <v>0</v>
       </c>
       <c r="F39" t="n">
         <v>158.8234391199283</v>
@@ -3599,10 +3599,10 @@
         <v>147.7532282274605</v>
       </c>
       <c r="H39" t="n">
-        <v>116.1609171460363</v>
+        <v>55.31520948209658</v>
       </c>
       <c r="I39" t="n">
-        <v>73.23050007970866</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3629,7 +3629,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>73.16751063606758</v>
+        <v>73.16751063606756</v>
       </c>
       <c r="S39" t="n">
         <v>173.1764123430336</v>
@@ -3638,19 +3638,19 @@
         <v>210.9749816267804</v>
       </c>
       <c r="U39" t="n">
-        <v>148.885526771098</v>
+        <v>237.1628473753645</v>
       </c>
       <c r="V39" t="n">
-        <v>240.6489209154022</v>
+        <v>0</v>
       </c>
       <c r="W39" t="n">
         <v>266.7045835770116</v>
       </c>
       <c r="X39" t="n">
-        <v>0</v>
+        <v>217.3129144394706</v>
       </c>
       <c r="Y39" t="n">
-        <v>0</v>
+        <v>223.3842861340256</v>
       </c>
     </row>
     <row r="40">
@@ -3711,7 +3711,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>220.9536011553171</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -3720,10 +3720,10 @@
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>245.1090151844499</v>
+        <v>228.6423187919783</v>
       </c>
       <c r="W40" t="n">
-        <v>204.4869047628453</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -3748,16 +3748,16 @@
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>106.6242951415194</v>
       </c>
       <c r="F41" t="n">
-        <v>133.4716343187203</v>
+        <v>403.1992496400135</v>
       </c>
       <c r="G41" t="n">
         <v>416.9852966124832</v>
       </c>
       <c r="H41" t="n">
-        <v>328.0456286874195</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>169.5767537257256</v>
@@ -3787,7 +3787,7 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>78.49080135129142</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -3796,16 +3796,16 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>250.0023113846365</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>320.879783609152</v>
       </c>
       <c r="W41" t="n">
-        <v>337.8964638257669</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>359.7827142947061</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
         <v>382.2855674184499</v>
@@ -3818,7 +3818,7 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>176.7504943976657</v>
+        <v>0</v>
       </c>
       <c r="C42" t="n">
         <v>187.5181515243659</v>
@@ -3830,16 +3830,16 @@
         <v>171.8275718397997</v>
       </c>
       <c r="F42" t="n">
-        <v>158.8234391199283</v>
+        <v>14.76499354499058</v>
       </c>
       <c r="G42" t="n">
-        <v>147.7532282274605</v>
+        <v>0</v>
       </c>
       <c r="H42" t="n">
         <v>116.1609171460363</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>73.23050007970866</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3866,7 +3866,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>73.16751063606756</v>
       </c>
       <c r="S42" t="n">
         <v>173.1764123430336</v>
@@ -3875,16 +3875,16 @@
         <v>210.9749816267804</v>
       </c>
       <c r="U42" t="n">
-        <v>135.7976778705851</v>
+        <v>0</v>
       </c>
       <c r="V42" t="n">
-        <v>0</v>
+        <v>240.6489209154022</v>
       </c>
       <c r="W42" t="n">
         <v>266.7045835770116</v>
       </c>
       <c r="X42" t="n">
-        <v>0</v>
+        <v>217.3129144394706</v>
       </c>
       <c r="Y42" t="n">
         <v>223.3842861340256</v>
@@ -3900,10 +3900,10 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>166.4571809719723</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>115.2691005913082</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -3912,7 +3912,7 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>167.8696383840148</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3960,10 +3960,10 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>290.3107070893353</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>159.2852128579599</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -3976,7 +3976,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>374.0872403778333</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
@@ -3994,7 +3994,7 @@
         <v>416.9852966124832</v>
       </c>
       <c r="H44" t="n">
-        <v>328.0456286874195</v>
+        <v>287.7013287541457</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4024,28 +4024,28 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>78.49080135129142</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>185.2945747290548</v>
       </c>
       <c r="T44" t="n">
-        <v>71.03532512379913</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>250.0023113846365</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>320.879783609152</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>337.8964638257669</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>382.2855674184499</v>
       </c>
     </row>
     <row r="45">
@@ -4061,13 +4061,13 @@
         <v>187.5181515243659</v>
       </c>
       <c r="D45" t="n">
-        <v>159.1723150765785</v>
+        <v>48.01245583437485</v>
       </c>
       <c r="E45" t="n">
-        <v>171.8275718397997</v>
+        <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>158.8234391199283</v>
+        <v>0</v>
       </c>
       <c r="G45" t="n">
         <v>0</v>
@@ -4076,7 +4076,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>73.23050007970866</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4103,10 +4103,10 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>73.16751063606756</v>
       </c>
       <c r="S45" t="n">
-        <v>118.4124737722797</v>
+        <v>173.1764123430336</v>
       </c>
       <c r="T45" t="n">
         <v>210.9749816267804</v>
@@ -4115,7 +4115,7 @@
         <v>237.1628473753645</v>
       </c>
       <c r="V45" t="n">
-        <v>0</v>
+        <v>240.6489209154022</v>
       </c>
       <c r="W45" t="n">
         <v>266.7045835770116</v>
@@ -4134,19 +4134,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>174.8340129770867</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>145.1826502507107</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>138.9268822184467</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -4179,7 +4179,7 @@
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>0</v>
+        <v>57.62063415604023</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
@@ -4188,7 +4188,7 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>165.4863874781377</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -4203,7 +4203,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>217.1412728141684</v>
       </c>
     </row>
   </sheetData>
@@ -5017,46 +5017,46 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1061.523567031419</v>
+        <v>820.275705145139</v>
       </c>
       <c r="C11" t="n">
-        <v>1061.523567031419</v>
+        <v>820.275705145139</v>
       </c>
       <c r="D11" t="n">
-        <v>1061.523567031419</v>
+        <v>576.1882588303288</v>
       </c>
       <c r="E11" t="n">
-        <v>1061.523567031419</v>
+        <v>299.0680881731872</v>
       </c>
       <c r="F11" t="n">
-        <v>784.4033963742777</v>
+        <v>299.0680881731872</v>
       </c>
       <c r="G11" t="n">
-        <v>507.2832257171359</v>
+        <v>21.94791751604561</v>
       </c>
       <c r="H11" t="n">
-        <v>230.1630550599942</v>
+        <v>21.94791751604561</v>
       </c>
       <c r="I11" t="n">
-        <v>21.94791751604562</v>
+        <v>21.94791751604561</v>
       </c>
       <c r="J11" t="n">
-        <v>21.94791751604562</v>
+        <v>21.94791751604561</v>
       </c>
       <c r="K11" t="n">
-        <v>129.2129831052412</v>
+        <v>129.2129831052409</v>
       </c>
       <c r="L11" t="n">
-        <v>317.26784442466</v>
+        <v>317.2678444246601</v>
       </c>
       <c r="M11" t="n">
-        <v>555.3910716196101</v>
+        <v>555.39107161961</v>
       </c>
       <c r="N11" t="n">
-        <v>790.5249455637495</v>
+        <v>790.5249455637494</v>
       </c>
       <c r="O11" t="n">
-        <v>975.6458363697332</v>
+        <v>975.6458363697329</v>
       </c>
       <c r="P11" t="n">
         <v>1089.494661134058</v>
@@ -5065,28 +5065,28 @@
         <v>1097.395875802281</v>
       </c>
       <c r="R11" t="n">
-        <v>1061.523567031419</v>
+        <v>1097.395875802281</v>
       </c>
       <c r="S11" t="n">
-        <v>1061.523567031419</v>
+        <v>1097.395875802281</v>
       </c>
       <c r="T11" t="n">
-        <v>1061.523567031419</v>
+        <v>1097.395875802281</v>
       </c>
       <c r="U11" t="n">
-        <v>1061.523567031419</v>
+        <v>1097.395875802281</v>
       </c>
       <c r="V11" t="n">
-        <v>1061.523567031419</v>
+        <v>1097.395875802281</v>
       </c>
       <c r="W11" t="n">
-        <v>1061.523567031419</v>
+        <v>1097.395875802281</v>
       </c>
       <c r="X11" t="n">
-        <v>1061.523567031419</v>
+        <v>1097.395875802281</v>
       </c>
       <c r="Y11" t="n">
-        <v>1061.523567031419</v>
+        <v>1097.395875802281</v>
       </c>
     </row>
     <row r="12">
@@ -5096,49 +5096,49 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>545.7035119006357</v>
+        <v>516.7189539163553</v>
       </c>
       <c r="C12" t="n">
-        <v>356.2912376335994</v>
+        <v>516.7189539163553</v>
       </c>
       <c r="D12" t="n">
-        <v>195.5111213946312</v>
+        <v>355.938837677387</v>
       </c>
       <c r="E12" t="n">
-        <v>21.94791751604562</v>
+        <v>182.3756337988015</v>
       </c>
       <c r="F12" t="n">
-        <v>21.94791751604562</v>
+        <v>21.94791751604561</v>
       </c>
       <c r="G12" t="n">
-        <v>21.94791751604562</v>
+        <v>21.94791751604561</v>
       </c>
       <c r="H12" t="n">
-        <v>21.94791751604562</v>
+        <v>21.94791751604561</v>
       </c>
       <c r="I12" t="n">
-        <v>21.94791751604562</v>
+        <v>21.94791751604561</v>
       </c>
       <c r="J12" t="n">
-        <v>21.94791751604562</v>
+        <v>21.94791751604561</v>
       </c>
       <c r="K12" t="n">
-        <v>137.2905245750914</v>
+        <v>137.2905245750913</v>
       </c>
       <c r="L12" t="n">
-        <v>358.6694362623894</v>
+        <v>358.6694362623893</v>
       </c>
       <c r="M12" t="n">
-        <v>630.274915523454</v>
+        <v>630.2749155234537</v>
       </c>
       <c r="N12" t="n">
-        <v>652.3024782326133</v>
+        <v>901.8803947845182</v>
       </c>
       <c r="O12" t="n">
-        <v>898.0157995978136</v>
+        <v>922.265774683754</v>
       </c>
       <c r="P12" t="n">
-        <v>1073.14590071634</v>
+        <v>1097.395875802281</v>
       </c>
       <c r="Q12" t="n">
         <v>1097.395875802281</v>
@@ -5147,25 +5147,25 @@
         <v>1097.395875802281</v>
       </c>
       <c r="S12" t="n">
-        <v>963.8315114429165</v>
+        <v>1097.395875802281</v>
       </c>
       <c r="T12" t="n">
-        <v>963.8315114429165</v>
+        <v>1097.395875802281</v>
       </c>
       <c r="U12" t="n">
-        <v>724.2393648275709</v>
+        <v>979.3066663960249</v>
       </c>
       <c r="V12" t="n">
-        <v>724.2393648275709</v>
+        <v>736.2269482996589</v>
       </c>
       <c r="W12" t="n">
-        <v>724.2393648275709</v>
+        <v>736.2269482996589</v>
       </c>
       <c r="X12" t="n">
-        <v>724.2393648275709</v>
+        <v>516.7189539163553</v>
       </c>
       <c r="Y12" t="n">
-        <v>724.2393648275709</v>
+        <v>516.7189539163553</v>
       </c>
     </row>
     <row r="13">
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>48.98462853925984</v>
+        <v>21.94791751604561</v>
       </c>
       <c r="C13" t="n">
-        <v>48.98462853925984</v>
+        <v>21.94791751604561</v>
       </c>
       <c r="D13" t="n">
-        <v>48.98462853925984</v>
+        <v>21.94791751604561</v>
       </c>
       <c r="E13" t="n">
-        <v>48.98462853925984</v>
+        <v>21.94791751604561</v>
       </c>
       <c r="F13" t="n">
-        <v>48.98462853925984</v>
+        <v>21.94791751604561</v>
       </c>
       <c r="G13" t="n">
-        <v>48.98462853925984</v>
+        <v>21.94791751604561</v>
       </c>
       <c r="H13" t="n">
-        <v>48.98462853925984</v>
+        <v>21.94791751604561</v>
       </c>
       <c r="I13" t="n">
-        <v>48.98462853925984</v>
+        <v>21.94791751604561</v>
       </c>
       <c r="J13" t="n">
-        <v>42.03240268465071</v>
+        <v>21.94791751604561</v>
       </c>
       <c r="K13" t="n">
-        <v>21.94791751604562</v>
+        <v>21.94791751604561</v>
       </c>
       <c r="L13" t="n">
-        <v>49.84539165561341</v>
+        <v>49.84539165561337</v>
       </c>
       <c r="M13" t="n">
-        <v>87.85525627063564</v>
+        <v>87.85525627063558</v>
       </c>
       <c r="N13" t="n">
         <v>132.9774675209003</v>
       </c>
       <c r="O13" t="n">
-        <v>152.6574864977729</v>
+        <v>152.6574864977728</v>
       </c>
       <c r="P13" t="n">
-        <v>143.1633598676462</v>
+        <v>152.6574864977728</v>
       </c>
       <c r="Q13" t="n">
-        <v>48.98462853925984</v>
+        <v>152.6574864977728</v>
       </c>
       <c r="R13" t="n">
-        <v>48.98462853925984</v>
+        <v>21.94791751604561</v>
       </c>
       <c r="S13" t="n">
-        <v>48.98462853925984</v>
+        <v>21.94791751604561</v>
       </c>
       <c r="T13" t="n">
-        <v>48.98462853925984</v>
+        <v>21.94791751604561</v>
       </c>
       <c r="U13" t="n">
-        <v>48.98462853925984</v>
+        <v>21.94791751604561</v>
       </c>
       <c r="V13" t="n">
-        <v>48.98462853925984</v>
+        <v>21.94791751604561</v>
       </c>
       <c r="W13" t="n">
-        <v>48.98462853925984</v>
+        <v>21.94791751604561</v>
       </c>
       <c r="X13" t="n">
-        <v>48.98462853925984</v>
+        <v>21.94791751604561</v>
       </c>
       <c r="Y13" t="n">
-        <v>48.98462853925984</v>
+        <v>21.94791751604561</v>
       </c>
     </row>
     <row r="14">
@@ -5254,46 +5254,46 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>784.4033963742777</v>
+        <v>576.1882588303288</v>
       </c>
       <c r="C14" t="n">
-        <v>784.4033963742777</v>
+        <v>576.1882588303288</v>
       </c>
       <c r="D14" t="n">
-        <v>784.4033963742777</v>
+        <v>576.1882588303288</v>
       </c>
       <c r="E14" t="n">
-        <v>784.4033963742777</v>
+        <v>576.1882588303288</v>
       </c>
       <c r="F14" t="n">
-        <v>507.2832257171359</v>
+        <v>299.0680881731872</v>
       </c>
       <c r="G14" t="n">
-        <v>230.1630550599942</v>
+        <v>21.94791751604561</v>
       </c>
       <c r="H14" t="n">
-        <v>230.1630550599942</v>
+        <v>21.94791751604561</v>
       </c>
       <c r="I14" t="n">
-        <v>21.94791751604562</v>
+        <v>21.94791751604561</v>
       </c>
       <c r="J14" t="n">
-        <v>21.94791751604562</v>
+        <v>21.9479175160456</v>
       </c>
       <c r="K14" t="n">
-        <v>129.2129831052411</v>
+        <v>129.2129831052409</v>
       </c>
       <c r="L14" t="n">
-        <v>317.2678444246601</v>
+        <v>317.2678444246599</v>
       </c>
       <c r="M14" t="n">
-        <v>555.3910716196102</v>
+        <v>555.39107161961</v>
       </c>
       <c r="N14" t="n">
-        <v>790.5249455637497</v>
+        <v>790.5249455637495</v>
       </c>
       <c r="O14" t="n">
-        <v>975.6458363697334</v>
+        <v>975.6458363697329</v>
       </c>
       <c r="P14" t="n">
         <v>1089.494661134058</v>
@@ -5302,28 +5302,28 @@
         <v>1097.395875802281</v>
       </c>
       <c r="R14" t="n">
-        <v>957.946992172398</v>
+        <v>1097.395875802281</v>
       </c>
       <c r="S14" t="n">
-        <v>957.946992172398</v>
+        <v>1097.395875802281</v>
       </c>
       <c r="T14" t="n">
-        <v>957.946992172398</v>
+        <v>1097.395875802281</v>
       </c>
       <c r="U14" t="n">
-        <v>957.946992172398</v>
+        <v>1097.395875802281</v>
       </c>
       <c r="V14" t="n">
-        <v>957.946992172398</v>
+        <v>1097.395875802281</v>
       </c>
       <c r="W14" t="n">
-        <v>784.4033963742777</v>
+        <v>1097.395875802281</v>
       </c>
       <c r="X14" t="n">
-        <v>784.4033963742777</v>
+        <v>1097.395875802281</v>
       </c>
       <c r="Y14" t="n">
-        <v>784.4033963742777</v>
+        <v>853.3084294874704</v>
       </c>
     </row>
     <row r="15">
@@ -5333,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>211.3601917830819</v>
+        <v>384.9233956616674</v>
       </c>
       <c r="C15" t="n">
-        <v>21.94791751604562</v>
+        <v>195.5111213946311</v>
       </c>
       <c r="D15" t="n">
-        <v>21.94791751604562</v>
+        <v>195.5111213946311</v>
       </c>
       <c r="E15" t="n">
-        <v>21.94791751604562</v>
+        <v>21.94791751604561</v>
       </c>
       <c r="F15" t="n">
-        <v>21.94791751604562</v>
+        <v>21.94791751604561</v>
       </c>
       <c r="G15" t="n">
-        <v>21.94791751604562</v>
+        <v>21.94791751604561</v>
       </c>
       <c r="H15" t="n">
-        <v>21.94791751604562</v>
+        <v>21.94791751604561</v>
       </c>
       <c r="I15" t="n">
-        <v>21.94791751604562</v>
+        <v>21.94791751604561</v>
       </c>
       <c r="J15" t="n">
-        <v>21.94791751604562</v>
+        <v>21.94791751604561</v>
       </c>
       <c r="K15" t="n">
-        <v>137.2905245750914</v>
+        <v>21.94791751604561</v>
       </c>
       <c r="L15" t="n">
-        <v>358.6694362623894</v>
+        <v>243.3268292033436</v>
       </c>
       <c r="M15" t="n">
-        <v>630.274915523454</v>
+        <v>514.932308464408</v>
       </c>
       <c r="N15" t="n">
-        <v>797.314654658976</v>
+        <v>786.5377877254725</v>
       </c>
       <c r="O15" t="n">
-        <v>1043.027976024176</v>
+        <v>1032.251109090673</v>
       </c>
       <c r="P15" t="n">
-        <v>1043.027976024176</v>
+        <v>1097.395875802281</v>
       </c>
       <c r="Q15" t="n">
         <v>1097.395875802281</v>
       </c>
       <c r="R15" t="n">
-        <v>991.6714026813565</v>
+        <v>1097.395875802281</v>
       </c>
       <c r="S15" t="n">
-        <v>991.6714026813565</v>
+        <v>1097.395875802281</v>
       </c>
       <c r="T15" t="n">
-        <v>991.6714026813565</v>
+        <v>1032.179659749641</v>
       </c>
       <c r="U15" t="n">
-        <v>752.0792560660109</v>
+        <v>1032.179659749641</v>
       </c>
       <c r="V15" t="n">
-        <v>752.0792560660109</v>
+        <v>789.099941653275</v>
       </c>
       <c r="W15" t="n">
-        <v>656.5088792310579</v>
+        <v>789.099941653275</v>
       </c>
       <c r="X15" t="n">
-        <v>437.0008848477543</v>
+        <v>789.099941653275</v>
       </c>
       <c r="Y15" t="n">
-        <v>211.3601917830819</v>
+        <v>563.4592485886026</v>
       </c>
     </row>
     <row r="16">
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>152.6574864977729</v>
+        <v>152.6574864977728</v>
       </c>
       <c r="C16" t="n">
-        <v>152.6574864977729</v>
+        <v>152.6574864977728</v>
       </c>
       <c r="D16" t="n">
-        <v>152.6574864977729</v>
+        <v>152.6574864977728</v>
       </c>
       <c r="E16" t="n">
-        <v>152.6574864977729</v>
+        <v>152.6574864977728</v>
       </c>
       <c r="F16" t="n">
-        <v>152.6574864977729</v>
+        <v>152.6574864977728</v>
       </c>
       <c r="G16" t="n">
-        <v>152.6574864977729</v>
+        <v>152.6574864977728</v>
       </c>
       <c r="H16" t="n">
-        <v>152.6574864977729</v>
+        <v>21.94791751604561</v>
       </c>
       <c r="I16" t="n">
-        <v>134.5068419214455</v>
+        <v>21.94791751604561</v>
       </c>
       <c r="J16" t="n">
-        <v>42.03240268465071</v>
+        <v>21.94791751604561</v>
       </c>
       <c r="K16" t="n">
-        <v>21.94791751604562</v>
+        <v>21.94791751604561</v>
       </c>
       <c r="L16" t="n">
-        <v>49.84539165561341</v>
+        <v>49.84539165561337</v>
       </c>
       <c r="M16" t="n">
-        <v>87.85525627063564</v>
+        <v>87.85525627063558</v>
       </c>
       <c r="N16" t="n">
         <v>132.9774675209003</v>
       </c>
       <c r="O16" t="n">
-        <v>152.6574864977729</v>
+        <v>152.6574864977728</v>
       </c>
       <c r="P16" t="n">
-        <v>152.6574864977729</v>
+        <v>152.6574864977728</v>
       </c>
       <c r="Q16" t="n">
-        <v>152.6574864977729</v>
+        <v>152.6574864977728</v>
       </c>
       <c r="R16" t="n">
-        <v>152.6574864977729</v>
+        <v>152.6574864977728</v>
       </c>
       <c r="S16" t="n">
-        <v>152.6574864977729</v>
+        <v>152.6574864977728</v>
       </c>
       <c r="T16" t="n">
-        <v>152.6574864977729</v>
+        <v>152.6574864977728</v>
       </c>
       <c r="U16" t="n">
-        <v>152.6574864977729</v>
+        <v>152.6574864977728</v>
       </c>
       <c r="V16" t="n">
-        <v>152.6574864977729</v>
+        <v>152.6574864977728</v>
       </c>
       <c r="W16" t="n">
-        <v>152.6574864977729</v>
+        <v>152.6574864977728</v>
       </c>
       <c r="X16" t="n">
-        <v>152.6574864977729</v>
+        <v>152.6574864977728</v>
       </c>
       <c r="Y16" t="n">
-        <v>152.6574864977729</v>
+        <v>152.6574864977728</v>
       </c>
     </row>
     <row r="17">
@@ -5491,46 +5491,46 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1097.395875802281</v>
+        <v>576.1882588303288</v>
       </c>
       <c r="C17" t="n">
-        <v>820.2757051451392</v>
+        <v>576.1882588303288</v>
       </c>
       <c r="D17" t="n">
-        <v>543.1555344879976</v>
+        <v>299.0680881731872</v>
       </c>
       <c r="E17" t="n">
-        <v>543.1555344879976</v>
+        <v>299.0680881731872</v>
       </c>
       <c r="F17" t="n">
-        <v>266.0353638308559</v>
+        <v>21.94791751604561</v>
       </c>
       <c r="G17" t="n">
-        <v>21.94791751604562</v>
+        <v>21.94791751604561</v>
       </c>
       <c r="H17" t="n">
-        <v>21.94791751604562</v>
+        <v>21.94791751604561</v>
       </c>
       <c r="I17" t="n">
-        <v>21.94791751604562</v>
+        <v>21.94791751604561</v>
       </c>
       <c r="J17" t="n">
-        <v>21.94791751604562</v>
+        <v>21.94791751604555</v>
       </c>
       <c r="K17" t="n">
-        <v>129.2129831052409</v>
+        <v>129.2129831052408</v>
       </c>
       <c r="L17" t="n">
-        <v>317.2678444246599</v>
+        <v>317.2678444246598</v>
       </c>
       <c r="M17" t="n">
-        <v>555.3910716196104</v>
+        <v>555.3910716196099</v>
       </c>
       <c r="N17" t="n">
-        <v>790.5249455637497</v>
+        <v>790.5249455637494</v>
       </c>
       <c r="O17" t="n">
-        <v>975.6458363697333</v>
+        <v>975.6458363697329</v>
       </c>
       <c r="P17" t="n">
         <v>1089.494661134058</v>
@@ -5551,16 +5551,16 @@
         <v>1097.395875802281</v>
       </c>
       <c r="V17" t="n">
-        <v>1097.395875802281</v>
+        <v>853.3084294874704</v>
       </c>
       <c r="W17" t="n">
-        <v>1097.395875802281</v>
+        <v>576.1882588303288</v>
       </c>
       <c r="X17" t="n">
-        <v>1097.395875802281</v>
+        <v>576.1882588303288</v>
       </c>
       <c r="Y17" t="n">
-        <v>1097.395875802281</v>
+        <v>576.1882588303288</v>
       </c>
     </row>
     <row r="18">
@@ -5570,46 +5570,46 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>706.1312281833916</v>
+        <v>465.0169379621519</v>
       </c>
       <c r="C18" t="n">
-        <v>516.7189539163553</v>
+        <v>465.0169379621519</v>
       </c>
       <c r="D18" t="n">
-        <v>355.938837677387</v>
+        <v>304.2368217231837</v>
       </c>
       <c r="E18" t="n">
-        <v>182.3756337988015</v>
+        <v>304.2368217231837</v>
       </c>
       <c r="F18" t="n">
-        <v>21.94791751604562</v>
+        <v>143.8091054404277</v>
       </c>
       <c r="G18" t="n">
-        <v>21.94791751604562</v>
+        <v>21.94791751604561</v>
       </c>
       <c r="H18" t="n">
-        <v>21.94791751604562</v>
+        <v>21.94791751604561</v>
       </c>
       <c r="I18" t="n">
-        <v>21.94791751604562</v>
+        <v>21.94791751604561</v>
       </c>
       <c r="J18" t="n">
-        <v>21.94791751604562</v>
+        <v>21.94791751604561</v>
       </c>
       <c r="K18" t="n">
-        <v>21.94791751604562</v>
+        <v>137.2905245750913</v>
       </c>
       <c r="L18" t="n">
-        <v>243.3268292033436</v>
+        <v>358.6694362623893</v>
       </c>
       <c r="M18" t="n">
-        <v>404.9469740574894</v>
+        <v>630.2749155234537</v>
       </c>
       <c r="N18" t="n">
-        <v>676.5524533185539</v>
+        <v>676.5524533185537</v>
       </c>
       <c r="O18" t="n">
-        <v>922.2657746837542</v>
+        <v>922.265774683754</v>
       </c>
       <c r="P18" t="n">
         <v>1097.395875802281</v>
@@ -5621,25 +5621,25 @@
         <v>1097.395875802281</v>
       </c>
       <c r="S18" t="n">
-        <v>1097.395875802281</v>
+        <v>912.9513601587956</v>
       </c>
       <c r="T18" t="n">
-        <v>1097.395875802281</v>
+        <v>912.9513601587956</v>
       </c>
       <c r="U18" t="n">
-        <v>1097.395875802281</v>
+        <v>912.9513601587956</v>
       </c>
       <c r="V18" t="n">
-        <v>1097.395875802281</v>
+        <v>912.9513601587956</v>
       </c>
       <c r="W18" t="n">
-        <v>1097.395875802281</v>
+        <v>643.552790889087</v>
       </c>
       <c r="X18" t="n">
-        <v>931.771921248064</v>
+        <v>643.552790889087</v>
       </c>
       <c r="Y18" t="n">
-        <v>706.1312281833916</v>
+        <v>643.552790889087</v>
       </c>
     </row>
     <row r="19">
@@ -5649,34 +5649,34 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>21.94791751604562</v>
+        <v>21.94791751604561</v>
       </c>
       <c r="C19" t="n">
-        <v>21.94791751604562</v>
+        <v>21.94791751604561</v>
       </c>
       <c r="D19" t="n">
-        <v>21.94791751604562</v>
+        <v>21.94791751604561</v>
       </c>
       <c r="E19" t="n">
-        <v>21.94791751604562</v>
+        <v>21.94791751604561</v>
       </c>
       <c r="F19" t="n">
-        <v>21.94791751604562</v>
+        <v>21.94791751604561</v>
       </c>
       <c r="G19" t="n">
-        <v>21.94791751604562</v>
+        <v>21.94791751604561</v>
       </c>
       <c r="H19" t="n">
-        <v>21.94791751604562</v>
+        <v>21.94791751604561</v>
       </c>
       <c r="I19" t="n">
-        <v>21.94791751604562</v>
+        <v>21.94791751604561</v>
       </c>
       <c r="J19" t="n">
-        <v>21.94791751604562</v>
+        <v>21.94791751604561</v>
       </c>
       <c r="K19" t="n">
-        <v>21.94791751604562</v>
+        <v>21.94791751604561</v>
       </c>
       <c r="L19" t="n">
         <v>49.84539165561337</v>
@@ -5706,19 +5706,19 @@
         <v>152.6574864977728</v>
       </c>
       <c r="U19" t="n">
-        <v>21.94791751604562</v>
+        <v>152.6574864977728</v>
       </c>
       <c r="V19" t="n">
-        <v>21.94791751604562</v>
+        <v>152.6574864977728</v>
       </c>
       <c r="W19" t="n">
-        <v>21.94791751604562</v>
+        <v>152.6574864977728</v>
       </c>
       <c r="X19" t="n">
-        <v>21.94791751604562</v>
+        <v>152.6574864977728</v>
       </c>
       <c r="Y19" t="n">
-        <v>21.94791751604562</v>
+        <v>21.94791751604561</v>
       </c>
     </row>
     <row r="20">
@@ -5728,46 +5728,46 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>299.0680881731873</v>
+        <v>844.7916647467382</v>
       </c>
       <c r="C20" t="n">
-        <v>299.0680881731873</v>
+        <v>567.6714940895965</v>
       </c>
       <c r="D20" t="n">
-        <v>299.0680881731873</v>
+        <v>290.5513234324549</v>
       </c>
       <c r="E20" t="n">
-        <v>21.94791751604562</v>
+        <v>290.5513234324549</v>
       </c>
       <c r="F20" t="n">
-        <v>21.94791751604562</v>
+        <v>230.1630550599942</v>
       </c>
       <c r="G20" t="n">
-        <v>21.94791751604562</v>
+        <v>230.1630550599942</v>
       </c>
       <c r="H20" t="n">
-        <v>21.94791751604562</v>
+        <v>230.1630550599942</v>
       </c>
       <c r="I20" t="n">
         <v>21.94791751604562</v>
       </c>
       <c r="J20" t="n">
-        <v>21.94791751604555</v>
+        <v>21.94791751604589</v>
       </c>
       <c r="K20" t="n">
-        <v>129.2129831052408</v>
+        <v>129.2129831052414</v>
       </c>
       <c r="L20" t="n">
-        <v>317.2678444246598</v>
+        <v>317.2678444246604</v>
       </c>
       <c r="M20" t="n">
-        <v>555.3910716196099</v>
+        <v>555.3910716196106</v>
       </c>
       <c r="N20" t="n">
-        <v>790.5249455637493</v>
+        <v>790.5249455637498</v>
       </c>
       <c r="O20" t="n">
-        <v>975.6458363697329</v>
+        <v>975.6458363697333</v>
       </c>
       <c r="P20" t="n">
         <v>1089.494661134058</v>
@@ -5776,28 +5776,28 @@
         <v>1097.395875802281</v>
       </c>
       <c r="R20" t="n">
-        <v>957.9469921723977</v>
+        <v>1097.395875802281</v>
       </c>
       <c r="S20" t="n">
-        <v>828.7924698858717</v>
+        <v>1097.395875802281</v>
       </c>
       <c r="T20" t="n">
-        <v>828.7924698858717</v>
+        <v>1097.395875802281</v>
       </c>
       <c r="U20" t="n">
-        <v>576.188258830329</v>
+        <v>844.7916647467382</v>
       </c>
       <c r="V20" t="n">
-        <v>299.0680881731873</v>
+        <v>844.7916647467382</v>
       </c>
       <c r="W20" t="n">
-        <v>299.0680881731873</v>
+        <v>844.7916647467382</v>
       </c>
       <c r="X20" t="n">
-        <v>299.0680881731873</v>
+        <v>844.7916647467382</v>
       </c>
       <c r="Y20" t="n">
-        <v>299.0680881731873</v>
+        <v>844.7916647467382</v>
       </c>
     </row>
     <row r="21">
@@ -5807,19 +5807,19 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>211.3601917830819</v>
+        <v>429.9534592223335</v>
       </c>
       <c r="C21" t="n">
-        <v>21.94791751604562</v>
+        <v>429.9534592223335</v>
       </c>
       <c r="D21" t="n">
-        <v>21.94791751604562</v>
+        <v>269.1733429833653</v>
       </c>
       <c r="E21" t="n">
-        <v>21.94791751604562</v>
+        <v>95.61013910477973</v>
       </c>
       <c r="F21" t="n">
-        <v>21.94791751604562</v>
+        <v>95.61013910477973</v>
       </c>
       <c r="G21" t="n">
         <v>21.94791751604562</v>
@@ -5834,22 +5834,22 @@
         <v>21.94791751604562</v>
       </c>
       <c r="K21" t="n">
-        <v>137.2905245750914</v>
+        <v>137.2905245750913</v>
       </c>
       <c r="L21" t="n">
-        <v>358.6694362623894</v>
+        <v>358.6694362623893</v>
       </c>
       <c r="M21" t="n">
-        <v>630.274915523454</v>
+        <v>600.1569908312897</v>
       </c>
       <c r="N21" t="n">
-        <v>851.6825544370806</v>
+        <v>622.1845535404491</v>
       </c>
       <c r="O21" t="n">
-        <v>1097.395875802281</v>
+        <v>867.8978749056494</v>
       </c>
       <c r="P21" t="n">
-        <v>1097.395875802281</v>
+        <v>1043.027976024176</v>
       </c>
       <c r="Q21" t="n">
         <v>1097.395875802281</v>
@@ -5858,25 +5858,25 @@
         <v>1097.395875802281</v>
       </c>
       <c r="S21" t="n">
-        <v>925.9074485007666</v>
+        <v>1097.395875802281</v>
       </c>
       <c r="T21" t="n">
-        <v>925.9074485007666</v>
+        <v>1097.395875802281</v>
       </c>
       <c r="U21" t="n">
-        <v>925.9074485007666</v>
+        <v>1097.395875802281</v>
       </c>
       <c r="V21" t="n">
-        <v>925.9074485007666</v>
+        <v>1097.395875802281</v>
       </c>
       <c r="W21" t="n">
-        <v>656.5088792310579</v>
+        <v>827.9973065325722</v>
       </c>
       <c r="X21" t="n">
-        <v>437.0008848477543</v>
+        <v>608.4893121492686</v>
       </c>
       <c r="Y21" t="n">
-        <v>211.3601917830819</v>
+        <v>608.4893121492686</v>
       </c>
     </row>
     <row r="22">
@@ -5886,28 +5886,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>152.6574864977728</v>
+        <v>21.94791751604562</v>
       </c>
       <c r="C22" t="n">
-        <v>152.6574864977728</v>
+        <v>21.94791751604562</v>
       </c>
       <c r="D22" t="n">
-        <v>114.4223567528404</v>
+        <v>21.94791751604562</v>
       </c>
       <c r="E22" t="n">
-        <v>114.4223567528404</v>
+        <v>21.94791751604562</v>
       </c>
       <c r="F22" t="n">
-        <v>114.4223567528404</v>
+        <v>21.94791751604562</v>
       </c>
       <c r="G22" t="n">
-        <v>114.4223567528404</v>
+        <v>21.94791751604562</v>
       </c>
       <c r="H22" t="n">
-        <v>114.4223567528404</v>
+        <v>21.94791751604562</v>
       </c>
       <c r="I22" t="n">
-        <v>114.4223567528404</v>
+        <v>21.94791751604562</v>
       </c>
       <c r="J22" t="n">
         <v>21.94791751604562</v>
@@ -5916,10 +5916,10 @@
         <v>21.94791751604562</v>
       </c>
       <c r="L22" t="n">
-        <v>49.84539165561338</v>
+        <v>49.84539165561337</v>
       </c>
       <c r="M22" t="n">
-        <v>87.85525627063561</v>
+        <v>87.85525627063558</v>
       </c>
       <c r="N22" t="n">
         <v>132.9774675209003</v>
@@ -5931,31 +5931,31 @@
         <v>152.6574864977728</v>
       </c>
       <c r="Q22" t="n">
-        <v>152.6574864977728</v>
+        <v>58.47875516938637</v>
       </c>
       <c r="R22" t="n">
-        <v>152.6574864977728</v>
+        <v>58.47875516938637</v>
       </c>
       <c r="S22" t="n">
-        <v>152.6574864977728</v>
+        <v>21.94791751604562</v>
       </c>
       <c r="T22" t="n">
-        <v>152.6574864977728</v>
+        <v>21.94791751604562</v>
       </c>
       <c r="U22" t="n">
-        <v>152.6574864977728</v>
+        <v>21.94791751604562</v>
       </c>
       <c r="V22" t="n">
-        <v>152.6574864977728</v>
+        <v>21.94791751604562</v>
       </c>
       <c r="W22" t="n">
-        <v>152.6574864977728</v>
+        <v>21.94791751604562</v>
       </c>
       <c r="X22" t="n">
-        <v>152.6574864977728</v>
+        <v>21.94791751604562</v>
       </c>
       <c r="Y22" t="n">
-        <v>152.6574864977728</v>
+        <v>21.94791751604562</v>
       </c>
     </row>
     <row r="23">
@@ -5965,46 +5965,46 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1008.801471211499</v>
+        <v>1133.789033557193</v>
       </c>
       <c r="C23" t="n">
-        <v>655.0585445638438</v>
+        <v>1133.789033557193</v>
       </c>
       <c r="D23" t="n">
-        <v>655.0585445638438</v>
+        <v>1133.789033557193</v>
       </c>
       <c r="E23" t="n">
-        <v>655.0585445638438</v>
+        <v>758.5578092525103</v>
       </c>
       <c r="F23" t="n">
-        <v>247.7865752304969</v>
+        <v>636.3550716441044</v>
       </c>
       <c r="G23" t="n">
-        <v>43.86815211056011</v>
+        <v>215.1578023385658</v>
       </c>
       <c r="H23" t="n">
-        <v>43.86815211056011</v>
+        <v>215.1578023385658</v>
       </c>
       <c r="I23" t="n">
-        <v>43.86815211056011</v>
+        <v>43.86815211056012</v>
       </c>
       <c r="J23" t="n">
         <v>123.5423078192116</v>
       </c>
       <c r="K23" t="n">
-        <v>350.2182794214482</v>
+        <v>350.2182794214483</v>
       </c>
       <c r="L23" t="n">
-        <v>686.4129286846428</v>
+        <v>686.4129286846429</v>
       </c>
       <c r="M23" t="n">
         <v>1089.370213448355</v>
       </c>
       <c r="N23" t="n">
-        <v>1492.00533234142</v>
+        <v>1492.005332341421</v>
       </c>
       <c r="O23" t="n">
-        <v>1835.292898976574</v>
+        <v>1835.292898976575</v>
       </c>
       <c r="P23" t="n">
         <v>2084.133322245722</v>
@@ -6016,25 +6016,25 @@
         <v>2114.123967799429</v>
       </c>
       <c r="S23" t="n">
-        <v>2114.123967799429</v>
+        <v>1926.957730699374</v>
       </c>
       <c r="T23" t="n">
-        <v>2114.123967799429</v>
+        <v>1710.437614359</v>
       </c>
       <c r="U23" t="n">
-        <v>2114.123967799429</v>
+        <v>1457.910027101791</v>
       </c>
       <c r="V23" t="n">
-        <v>2114.123967799429</v>
+        <v>1133.789033557193</v>
       </c>
       <c r="W23" t="n">
-        <v>1772.814408379462</v>
+        <v>1133.789033557193</v>
       </c>
       <c r="X23" t="n">
-        <v>1772.814408379462</v>
+        <v>1133.789033557193</v>
       </c>
       <c r="Y23" t="n">
-        <v>1386.667370583048</v>
+        <v>1133.789033557193</v>
       </c>
     </row>
     <row r="24">
@@ -6044,19 +6044,19 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>817.6863460947325</v>
+        <v>604.5803040474798</v>
       </c>
       <c r="C24" t="n">
-        <v>628.2740718276962</v>
+        <v>415.1680297804435</v>
       </c>
       <c r="D24" t="n">
-        <v>467.4939555887279</v>
+        <v>254.3879135414752</v>
       </c>
       <c r="E24" t="n">
-        <v>293.9307517101423</v>
+        <v>254.3879135414752</v>
       </c>
       <c r="F24" t="n">
-        <v>235.172613954747</v>
+        <v>254.3879135414752</v>
       </c>
       <c r="G24" t="n">
         <v>235.172613954747</v>
@@ -6065,28 +6065,28 @@
         <v>117.8383542112759</v>
       </c>
       <c r="I24" t="n">
-        <v>43.86815211056011</v>
+        <v>43.86815211056012</v>
       </c>
       <c r="J24" t="n">
-        <v>84.64441493403778</v>
+        <v>43.86815211056012</v>
       </c>
       <c r="K24" t="n">
-        <v>281.0924089280008</v>
+        <v>240.3161461045231</v>
       </c>
       <c r="L24" t="n">
-        <v>611.5275223757105</v>
+        <v>570.7512595522329</v>
       </c>
       <c r="M24" t="n">
-        <v>1041.884378369233</v>
+        <v>1001.108115545755</v>
       </c>
       <c r="N24" t="n">
-        <v>1502.051389340991</v>
+        <v>1461.275126517514</v>
       </c>
       <c r="O24" t="n">
-        <v>1867.267221097002</v>
+        <v>1826.490958273524</v>
       </c>
       <c r="P24" t="n">
-        <v>2138.308622331574</v>
+        <v>2074.925541604158</v>
       </c>
       <c r="Q24" t="n">
         <v>2193.407605528006</v>
@@ -6098,22 +6098,22 @@
         <v>2193.407605528006</v>
       </c>
       <c r="T24" t="n">
-        <v>2193.407605528006</v>
+        <v>1980.301563480753</v>
       </c>
       <c r="U24" t="n">
-        <v>1953.849173835718</v>
+        <v>1740.743131788466</v>
       </c>
       <c r="V24" t="n">
-        <v>1710.769455739352</v>
+        <v>1497.6634136921</v>
       </c>
       <c r="W24" t="n">
-        <v>1441.370886469644</v>
+        <v>1228.264844422391</v>
       </c>
       <c r="X24" t="n">
-        <v>1221.86289208634</v>
+        <v>1008.756850039087</v>
       </c>
       <c r="Y24" t="n">
-        <v>996.2221990216676</v>
+        <v>783.1161569744149</v>
       </c>
     </row>
     <row r="25">
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>43.86815211056011</v>
+        <v>43.86815211056012</v>
       </c>
       <c r="C25" t="n">
-        <v>43.86815211056011</v>
+        <v>43.86815211056012</v>
       </c>
       <c r="D25" t="n">
-        <v>43.86815211056011</v>
+        <v>43.86815211056012</v>
       </c>
       <c r="E25" t="n">
-        <v>43.86815211056011</v>
+        <v>43.86815211056012</v>
       </c>
       <c r="F25" t="n">
-        <v>43.86815211056011</v>
+        <v>43.86815211056012</v>
       </c>
       <c r="G25" t="n">
-        <v>43.86815211056011</v>
+        <v>43.86815211056012</v>
       </c>
       <c r="H25" t="n">
-        <v>43.86815211056011</v>
+        <v>43.86815211056012</v>
       </c>
       <c r="I25" t="n">
-        <v>43.86815211056011</v>
+        <v>43.86815211056012</v>
       </c>
       <c r="J25" t="n">
-        <v>43.86815211056011</v>
+        <v>43.86815211056012</v>
       </c>
       <c r="K25" t="n">
-        <v>73.10579696446067</v>
+        <v>73.10579696446071</v>
       </c>
       <c r="L25" t="n">
-        <v>163.6071621170296</v>
+        <v>163.6071621170297</v>
       </c>
       <c r="M25" t="n">
-        <v>267.6240520920359</v>
+        <v>267.624052092036</v>
       </c>
       <c r="N25" t="n">
-        <v>377.1837891721801</v>
+        <v>377.1837891721802</v>
       </c>
       <c r="O25" t="n">
-        <v>456.3822927687262</v>
+        <v>456.3822927687264</v>
       </c>
       <c r="P25" t="n">
-        <v>498.0054449866158</v>
+        <v>498.0054449866161</v>
       </c>
       <c r="Q25" t="n">
-        <v>498.0054449866158</v>
+        <v>498.0054449866161</v>
       </c>
       <c r="R25" t="n">
-        <v>498.0054449866158</v>
+        <v>498.0054449866161</v>
       </c>
       <c r="S25" t="n">
-        <v>498.0054449866158</v>
+        <v>498.0054449866161</v>
       </c>
       <c r="T25" t="n">
-        <v>498.0054449866158</v>
+        <v>498.0054449866161</v>
       </c>
       <c r="U25" t="n">
-        <v>498.0054449866158</v>
+        <v>498.0054449866161</v>
       </c>
       <c r="V25" t="n">
-        <v>498.0054449866158</v>
+        <v>337.1112905846362</v>
       </c>
       <c r="W25" t="n">
-        <v>487.3638371837025</v>
+        <v>43.86815211056012</v>
       </c>
       <c r="X25" t="n">
-        <v>263.2027711147707</v>
+        <v>43.86815211056012</v>
       </c>
       <c r="Y25" t="n">
-        <v>43.86815211056011</v>
+        <v>43.86815211056012</v>
       </c>
     </row>
     <row r="26">
@@ -6202,37 +6202,37 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1716.170261512448</v>
+        <v>832.7489444516902</v>
       </c>
       <c r="C26" t="n">
-        <v>1716.170261512448</v>
+        <v>832.7489444516902</v>
       </c>
       <c r="D26" t="n">
-        <v>1374.986261873835</v>
+        <v>832.7489444516902</v>
       </c>
       <c r="E26" t="n">
-        <v>1374.986261873835</v>
+        <v>622.4297716719128</v>
       </c>
       <c r="F26" t="n">
-        <v>967.7142925404878</v>
+        <v>215.1578023385658</v>
       </c>
       <c r="G26" t="n">
-        <v>546.5170232349492</v>
+        <v>215.1578023385658</v>
       </c>
       <c r="H26" t="n">
         <v>215.1578023385658</v>
       </c>
       <c r="I26" t="n">
-        <v>43.86815211056011</v>
+        <v>43.86815211056012</v>
       </c>
       <c r="J26" t="n">
-        <v>123.5423078192116</v>
+        <v>123.5423078192117</v>
       </c>
       <c r="K26" t="n">
-        <v>350.2182794214482</v>
+        <v>350.2182794214485</v>
       </c>
       <c r="L26" t="n">
-        <v>686.4129286846426</v>
+        <v>686.412928684643</v>
       </c>
       <c r="M26" t="n">
         <v>1089.370213448355</v>
@@ -6250,28 +6250,28 @@
         <v>2193.407605528006</v>
       </c>
       <c r="R26" t="n">
-        <v>2193.407605528006</v>
+        <v>2114.123967799429</v>
       </c>
       <c r="S26" t="n">
-        <v>2193.407605528006</v>
+        <v>2114.123967799429</v>
       </c>
       <c r="T26" t="n">
-        <v>2040.291255057046</v>
+        <v>2114.123967799429</v>
       </c>
       <c r="U26" t="n">
-        <v>2040.291255057046</v>
+        <v>1861.59638054222</v>
       </c>
       <c r="V26" t="n">
-        <v>1716.170261512448</v>
+        <v>1537.475386997623</v>
       </c>
       <c r="W26" t="n">
-        <v>1716.170261512448</v>
+        <v>1196.165827577656</v>
       </c>
       <c r="X26" t="n">
-        <v>1716.170261512448</v>
+        <v>832.7489444516902</v>
       </c>
       <c r="Y26" t="n">
-        <v>1716.170261512448</v>
+        <v>832.7489444516902</v>
       </c>
     </row>
     <row r="27">
@@ -6281,49 +6281,49 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>817.6863460947325</v>
+        <v>649.1626293974161</v>
       </c>
       <c r="C27" t="n">
-        <v>628.2740718276962</v>
+        <v>459.7503551303798</v>
       </c>
       <c r="D27" t="n">
-        <v>467.4939555887279</v>
+        <v>310.4480969322741</v>
       </c>
       <c r="E27" t="n">
-        <v>293.9307517101423</v>
+        <v>310.4480969322741</v>
       </c>
       <c r="F27" t="n">
-        <v>133.5030354273864</v>
+        <v>310.4480969322741</v>
       </c>
       <c r="G27" t="n">
-        <v>43.86815211056011</v>
+        <v>161.2024118540312</v>
       </c>
       <c r="H27" t="n">
-        <v>43.86815211056011</v>
+        <v>43.86815211056012</v>
       </c>
       <c r="I27" t="n">
-        <v>43.86815211056011</v>
+        <v>43.86815211056012</v>
       </c>
       <c r="J27" t="n">
-        <v>84.64441493403778</v>
+        <v>84.64441493403783</v>
       </c>
       <c r="K27" t="n">
-        <v>217.7093282005848</v>
+        <v>281.0924089280009</v>
       </c>
       <c r="L27" t="n">
-        <v>548.1444416482946</v>
+        <v>611.5275223757105</v>
       </c>
       <c r="M27" t="n">
-        <v>978.5012976418166</v>
+        <v>1041.884378369233</v>
       </c>
       <c r="N27" t="n">
-        <v>1438.668308613575</v>
+        <v>1502.051389340991</v>
       </c>
       <c r="O27" t="n">
-        <v>1803.884140369586</v>
+        <v>1867.267221097002</v>
       </c>
       <c r="P27" t="n">
-        <v>2074.925541604157</v>
+        <v>2138.308622331574</v>
       </c>
       <c r="Q27" t="n">
         <v>2193.407605528006</v>
@@ -6332,25 +6332,25 @@
         <v>2193.407605528006</v>
       </c>
       <c r="S27" t="n">
-        <v>2193.407605528006</v>
+        <v>2018.481936494639</v>
       </c>
       <c r="T27" t="n">
-        <v>2193.407605528006</v>
+        <v>1805.375894447386</v>
       </c>
       <c r="U27" t="n">
-        <v>1953.849173835718</v>
+        <v>1565.817462755098</v>
       </c>
       <c r="V27" t="n">
-        <v>1710.769455739352</v>
+        <v>1322.737744658732</v>
       </c>
       <c r="W27" t="n">
-        <v>1441.370886469644</v>
+        <v>1053.339175389024</v>
       </c>
       <c r="X27" t="n">
-        <v>1221.86289208634</v>
+        <v>1053.339175389024</v>
       </c>
       <c r="Y27" t="n">
-        <v>996.2221990216676</v>
+        <v>827.6984823243513</v>
       </c>
     </row>
     <row r="28">
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>345.174479067413</v>
+        <v>43.86815211056012</v>
       </c>
       <c r="C28" t="n">
-        <v>345.174479067413</v>
+        <v>43.86815211056012</v>
       </c>
       <c r="D28" t="n">
-        <v>345.174479067413</v>
+        <v>43.86815211056012</v>
       </c>
       <c r="E28" t="n">
-        <v>345.174479067413</v>
+        <v>43.86815211056012</v>
       </c>
       <c r="F28" t="n">
-        <v>345.174479067413</v>
+        <v>43.86815211056012</v>
       </c>
       <c r="G28" t="n">
-        <v>345.174479067413</v>
+        <v>43.86815211056012</v>
       </c>
       <c r="H28" t="n">
-        <v>185.1392889588304</v>
+        <v>43.86815211056012</v>
       </c>
       <c r="I28" t="n">
-        <v>43.86815211056011</v>
+        <v>43.86815211056012</v>
       </c>
       <c r="J28" t="n">
-        <v>43.86815211056011</v>
+        <v>43.86815211056012</v>
       </c>
       <c r="K28" t="n">
-        <v>73.10579696446067</v>
+        <v>73.10579696446071</v>
       </c>
       <c r="L28" t="n">
-        <v>163.6071621170296</v>
+        <v>163.6071621170297</v>
       </c>
       <c r="M28" t="n">
-        <v>267.6240520920359</v>
+        <v>267.624052092036</v>
       </c>
       <c r="N28" t="n">
-        <v>377.1837891721801</v>
+        <v>377.1837891721802</v>
       </c>
       <c r="O28" t="n">
-        <v>456.3822927687262</v>
+        <v>456.3822927687264</v>
       </c>
       <c r="P28" t="n">
-        <v>498.0054449866158</v>
+        <v>498.0054449866161</v>
       </c>
       <c r="Q28" t="n">
-        <v>439.8027842229388</v>
+        <v>498.0054449866161</v>
       </c>
       <c r="R28" t="n">
-        <v>345.174479067413</v>
+        <v>498.0054449866161</v>
       </c>
       <c r="S28" t="n">
-        <v>345.174479067413</v>
+        <v>498.0054449866161</v>
       </c>
       <c r="T28" t="n">
-        <v>345.174479067413</v>
+        <v>498.0054449866161</v>
       </c>
       <c r="U28" t="n">
-        <v>345.174479067413</v>
+        <v>498.0054449866161</v>
       </c>
       <c r="V28" t="n">
-        <v>345.174479067413</v>
+        <v>498.0054449866161</v>
       </c>
       <c r="W28" t="n">
-        <v>345.174479067413</v>
+        <v>263.2027711147707</v>
       </c>
       <c r="X28" t="n">
-        <v>345.174479067413</v>
+        <v>263.2027711147707</v>
       </c>
       <c r="Y28" t="n">
-        <v>345.174479067413</v>
+        <v>43.86815211056012</v>
       </c>
     </row>
     <row r="29">
@@ -6439,46 +6439,46 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>738.795078396829</v>
+        <v>1324.290576562586</v>
       </c>
       <c r="C29" t="n">
-        <v>385.0521517491736</v>
+        <v>1324.290576562586</v>
       </c>
       <c r="D29" t="n">
-        <v>43.86815211056011</v>
+        <v>1324.290576562586</v>
       </c>
       <c r="E29" t="n">
-        <v>43.86815211056011</v>
+        <v>1043.627040977452</v>
       </c>
       <c r="F29" t="n">
-        <v>43.86815211056011</v>
+        <v>636.3550716441044</v>
       </c>
       <c r="G29" t="n">
-        <v>43.86815211056011</v>
+        <v>215.1578023385658</v>
       </c>
       <c r="H29" t="n">
-        <v>43.86815211056011</v>
+        <v>215.1578023385658</v>
       </c>
       <c r="I29" t="n">
-        <v>43.86815211056011</v>
+        <v>43.86815211056012</v>
       </c>
       <c r="J29" t="n">
-        <v>123.5423078192111</v>
+        <v>123.5423078192117</v>
       </c>
       <c r="K29" t="n">
-        <v>350.2182794214478</v>
+        <v>350.2182794214485</v>
       </c>
       <c r="L29" t="n">
-        <v>686.4129286846422</v>
+        <v>686.412928684643</v>
       </c>
       <c r="M29" t="n">
         <v>1089.370213448355</v>
       </c>
       <c r="N29" t="n">
-        <v>1492.00533234142</v>
+        <v>1492.005332341421</v>
       </c>
       <c r="O29" t="n">
-        <v>1835.292898976574</v>
+        <v>1835.292898976575</v>
       </c>
       <c r="P29" t="n">
         <v>2084.133322245722</v>
@@ -6487,28 +6487,28 @@
         <v>2193.407605528006</v>
       </c>
       <c r="R29" t="n">
-        <v>2193.407605528006</v>
+        <v>2114.123967799429</v>
       </c>
       <c r="S29" t="n">
-        <v>2006.24136842795</v>
+        <v>1926.957730699374</v>
       </c>
       <c r="T29" t="n">
-        <v>1866.224898690758</v>
+        <v>1710.437614359</v>
       </c>
       <c r="U29" t="n">
-        <v>1866.224898690758</v>
+        <v>1710.437614359</v>
       </c>
       <c r="V29" t="n">
-        <v>1866.224898690758</v>
+        <v>1710.437614359</v>
       </c>
       <c r="W29" t="n">
-        <v>1866.224898690758</v>
+        <v>1710.437614359</v>
       </c>
       <c r="X29" t="n">
-        <v>1502.808015564792</v>
+        <v>1710.437614359</v>
       </c>
       <c r="Y29" t="n">
-        <v>1116.660977768378</v>
+        <v>1324.290576562586</v>
       </c>
     </row>
     <row r="30">
@@ -6518,19 +6518,19 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>1068.601609700336</v>
+        <v>608.1904879410476</v>
       </c>
       <c r="C30" t="n">
-        <v>879.1893354332997</v>
+        <v>608.1904879410476</v>
       </c>
       <c r="D30" t="n">
-        <v>718.4092191943314</v>
+        <v>608.1904879410476</v>
       </c>
       <c r="E30" t="n">
-        <v>544.8460153157458</v>
+        <v>434.6272840624621</v>
       </c>
       <c r="F30" t="n">
-        <v>384.4182990329899</v>
+        <v>274.1995677797062</v>
       </c>
       <c r="G30" t="n">
         <v>235.172613954747</v>
@@ -6539,28 +6539,28 @@
         <v>117.8383542112759</v>
       </c>
       <c r="I30" t="n">
-        <v>43.86815211056011</v>
+        <v>43.86815211056012</v>
       </c>
       <c r="J30" t="n">
-        <v>84.64441493403778</v>
+        <v>84.64441493403783</v>
       </c>
       <c r="K30" t="n">
-        <v>281.0924089280008</v>
+        <v>281.0924089280009</v>
       </c>
       <c r="L30" t="n">
-        <v>611.5275223757105</v>
+        <v>548.1444416482946</v>
       </c>
       <c r="M30" t="n">
-        <v>1041.884378369233</v>
+        <v>978.5012976418166</v>
       </c>
       <c r="N30" t="n">
-        <v>1502.051389340991</v>
+        <v>1438.668308613575</v>
       </c>
       <c r="O30" t="n">
-        <v>1867.267221097002</v>
+        <v>1803.884140369586</v>
       </c>
       <c r="P30" t="n">
-        <v>2138.308622331574</v>
+        <v>2074.925541604158</v>
       </c>
       <c r="Q30" t="n">
         <v>2193.407605528006</v>
@@ -6569,25 +6569,25 @@
         <v>2193.407605528006</v>
       </c>
       <c r="S30" t="n">
-        <v>2193.407605528006</v>
+        <v>2018.481936494639</v>
       </c>
       <c r="T30" t="n">
-        <v>2193.407605528006</v>
+        <v>1805.375894447386</v>
       </c>
       <c r="U30" t="n">
-        <v>1961.684719344956</v>
+        <v>1565.817462755098</v>
       </c>
       <c r="V30" t="n">
-        <v>1961.684719344956</v>
+        <v>1322.737744658732</v>
       </c>
       <c r="W30" t="n">
-        <v>1692.286150075247</v>
+        <v>1053.339175389024</v>
       </c>
       <c r="X30" t="n">
-        <v>1472.778155691944</v>
+        <v>833.8311810057201</v>
       </c>
       <c r="Y30" t="n">
-        <v>1247.137462627271</v>
+        <v>608.1904879410476</v>
       </c>
     </row>
     <row r="31">
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>2013.99657455329</v>
+        <v>52.3853037437722</v>
       </c>
       <c r="C31" t="n">
-        <v>1845.858007914934</v>
+        <v>52.3853037437722</v>
       </c>
       <c r="D31" t="n">
-        <v>1739.27031265195</v>
+        <v>52.3853037437722</v>
       </c>
       <c r="E31" t="n">
-        <v>1739.27031265195</v>
+        <v>52.3853037437722</v>
       </c>
       <c r="F31" t="n">
-        <v>1739.27031265195</v>
+        <v>52.3853037437722</v>
       </c>
       <c r="G31" t="n">
-        <v>1739.27031265195</v>
+        <v>52.3853037437722</v>
       </c>
       <c r="H31" t="n">
-        <v>1739.27031265195</v>
+        <v>52.3853037437722</v>
       </c>
       <c r="I31" t="n">
-        <v>1739.27031265195</v>
+        <v>52.3853037437722</v>
       </c>
       <c r="J31" t="n">
-        <v>1739.27031265195</v>
+        <v>43.86815211056012</v>
       </c>
       <c r="K31" t="n">
-        <v>1768.50795750585</v>
+        <v>73.10579696446071</v>
       </c>
       <c r="L31" t="n">
-        <v>1859.009322658419</v>
+        <v>163.6071621170297</v>
       </c>
       <c r="M31" t="n">
-        <v>1963.026212633426</v>
+        <v>267.624052092036</v>
       </c>
       <c r="N31" t="n">
-        <v>2072.58594971357</v>
+        <v>377.1837891721802</v>
       </c>
       <c r="O31" t="n">
-        <v>2151.784453310116</v>
+        <v>456.3822927687264</v>
       </c>
       <c r="P31" t="n">
-        <v>2193.407605528006</v>
+        <v>498.0054449866161</v>
       </c>
       <c r="Q31" t="n">
-        <v>2193.407605528006</v>
+        <v>498.0054449866161</v>
       </c>
       <c r="R31" t="n">
-        <v>2193.407605528006</v>
+        <v>498.0054449866161</v>
       </c>
       <c r="S31" t="n">
-        <v>2193.407605528006</v>
+        <v>274.8199892741745</v>
       </c>
       <c r="T31" t="n">
-        <v>2193.407605528006</v>
+        <v>52.3853037437722</v>
       </c>
       <c r="U31" t="n">
-        <v>2193.407605528006</v>
+        <v>52.3853037437722</v>
       </c>
       <c r="V31" t="n">
-        <v>2193.407605528006</v>
+        <v>52.3853037437722</v>
       </c>
       <c r="W31" t="n">
-        <v>2193.407605528006</v>
+        <v>52.3853037437722</v>
       </c>
       <c r="X31" t="n">
-        <v>2193.407605528006</v>
+        <v>52.3853037437722</v>
       </c>
       <c r="Y31" t="n">
-        <v>2193.407605528006</v>
+        <v>52.3853037437722</v>
       </c>
     </row>
     <row r="32">
@@ -6676,22 +6676,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1364.560046877049</v>
+        <v>986.6941475055004</v>
       </c>
       <c r="C32" t="n">
-        <v>1010.817120229394</v>
+        <v>986.6941475055004</v>
       </c>
       <c r="D32" t="n">
-        <v>669.6331205907804</v>
+        <v>645.5101478668869</v>
       </c>
       <c r="E32" t="n">
-        <v>294.4018962860974</v>
+        <v>645.5101478668869</v>
       </c>
       <c r="F32" t="n">
-        <v>294.4018962860974</v>
+        <v>546.5170232349492</v>
       </c>
       <c r="G32" t="n">
-        <v>294.4018962860974</v>
+        <v>546.5170232349492</v>
       </c>
       <c r="H32" t="n">
         <v>215.1578023385658</v>
@@ -6706,10 +6706,10 @@
         <v>350.2182794214484</v>
       </c>
       <c r="L32" t="n">
-        <v>686.4129286846428</v>
+        <v>686.4129286846431</v>
       </c>
       <c r="M32" t="n">
-        <v>1089.370213448355</v>
+        <v>1089.370213448356</v>
       </c>
       <c r="N32" t="n">
         <v>1492.005332341421</v>
@@ -6755,19 +6755,19 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>1068.601609700336</v>
+        <v>898.3750461751508</v>
       </c>
       <c r="C33" t="n">
-        <v>879.1893354332997</v>
+        <v>708.9627719081145</v>
       </c>
       <c r="D33" t="n">
-        <v>718.4092191943314</v>
+        <v>548.1826556691462</v>
       </c>
       <c r="E33" t="n">
-        <v>544.8460153157458</v>
+        <v>395.6003302375029</v>
       </c>
       <c r="F33" t="n">
-        <v>384.4182990329899</v>
+        <v>235.172613954747</v>
       </c>
       <c r="G33" t="n">
         <v>235.172613954747</v>
@@ -6779,52 +6779,52 @@
         <v>43.86815211056012</v>
       </c>
       <c r="J33" t="n">
-        <v>84.6444149340378</v>
+        <v>84.64441493403783</v>
       </c>
       <c r="K33" t="n">
-        <v>281.0924089280008</v>
+        <v>281.0924089280009</v>
       </c>
       <c r="L33" t="n">
         <v>611.5275223757105</v>
       </c>
       <c r="M33" t="n">
-        <v>978.501297641817</v>
+        <v>1041.884378369233</v>
       </c>
       <c r="N33" t="n">
-        <v>1438.668308613576</v>
+        <v>1502.051389340991</v>
       </c>
       <c r="O33" t="n">
-        <v>1803.884140369586</v>
+        <v>1867.267221097002</v>
       </c>
       <c r="P33" t="n">
-        <v>2074.925541604158</v>
+        <v>2138.308622331574</v>
       </c>
       <c r="Q33" t="n">
         <v>2193.407605528006</v>
       </c>
       <c r="R33" t="n">
-        <v>2119.501029127938</v>
+        <v>2193.407605528006</v>
       </c>
       <c r="S33" t="n">
-        <v>1961.684719344956</v>
+        <v>2018.481936494639</v>
       </c>
       <c r="T33" t="n">
-        <v>1961.684719344956</v>
+        <v>1805.375894447386</v>
       </c>
       <c r="U33" t="n">
-        <v>1961.684719344956</v>
+        <v>1565.817462755098</v>
       </c>
       <c r="V33" t="n">
-        <v>1961.684719344956</v>
+        <v>1565.817462755098</v>
       </c>
       <c r="W33" t="n">
-        <v>1692.286150075247</v>
+        <v>1296.41889348539</v>
       </c>
       <c r="X33" t="n">
-        <v>1472.778155691944</v>
+        <v>1076.910899102086</v>
       </c>
       <c r="Y33" t="n">
-        <v>1247.137462627271</v>
+        <v>1076.910899102086</v>
       </c>
     </row>
     <row r="34">
@@ -6834,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>498.0054449866159</v>
+        <v>43.86815211056012</v>
       </c>
       <c r="C34" t="n">
-        <v>498.0054449866159</v>
+        <v>43.86815211056012</v>
       </c>
       <c r="D34" t="n">
-        <v>498.0054449866159</v>
+        <v>43.86815211056012</v>
       </c>
       <c r="E34" t="n">
-        <v>498.0054449866159</v>
+        <v>43.86815211056012</v>
       </c>
       <c r="F34" t="n">
-        <v>498.0054449866159</v>
+        <v>43.86815211056012</v>
       </c>
       <c r="G34" t="n">
-        <v>328.4401536896313</v>
+        <v>43.86815211056012</v>
       </c>
       <c r="H34" t="n">
-        <v>185.1392889588304</v>
+        <v>43.86815211056012</v>
       </c>
       <c r="I34" t="n">
         <v>43.86815211056012</v>
@@ -6861,49 +6861,49 @@
         <v>43.86815211056012</v>
       </c>
       <c r="K34" t="n">
-        <v>73.10579696446068</v>
+        <v>73.10579696446071</v>
       </c>
       <c r="L34" t="n">
-        <v>163.6071621170296</v>
+        <v>163.6071621170297</v>
       </c>
       <c r="M34" t="n">
-        <v>267.6240520920359</v>
+        <v>267.624052092036</v>
       </c>
       <c r="N34" t="n">
-        <v>377.1837891721801</v>
+        <v>377.1837891721802</v>
       </c>
       <c r="O34" t="n">
-        <v>456.3822927687262</v>
+        <v>456.3822927687264</v>
       </c>
       <c r="P34" t="n">
-        <v>498.0054449866159</v>
+        <v>498.0054449866161</v>
       </c>
       <c r="Q34" t="n">
-        <v>498.0054449866159</v>
+        <v>439.8027842229391</v>
       </c>
       <c r="R34" t="n">
-        <v>498.0054449866159</v>
+        <v>439.8027842229391</v>
       </c>
       <c r="S34" t="n">
-        <v>498.0054449866159</v>
+        <v>439.8027842229391</v>
       </c>
       <c r="T34" t="n">
-        <v>498.0054449866159</v>
+        <v>439.8027842229391</v>
       </c>
       <c r="U34" t="n">
-        <v>498.0054449866159</v>
+        <v>439.8027842229391</v>
       </c>
       <c r="V34" t="n">
-        <v>498.0054449866159</v>
+        <v>439.8027842229391</v>
       </c>
       <c r="W34" t="n">
-        <v>498.0054449866159</v>
+        <v>146.559645748863</v>
       </c>
       <c r="X34" t="n">
-        <v>498.0054449866159</v>
+        <v>146.559645748863</v>
       </c>
       <c r="Y34" t="n">
-        <v>498.0054449866159</v>
+        <v>43.86815211056012</v>
       </c>
     </row>
     <row r="35">
@@ -6913,25 +6913,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1807.260567731592</v>
+        <v>2193.407605528006</v>
       </c>
       <c r="C35" t="n">
-        <v>1453.517641083937</v>
+        <v>1839.664678880351</v>
       </c>
       <c r="D35" t="n">
-        <v>1453.517641083937</v>
+        <v>1498.480679241737</v>
       </c>
       <c r="E35" t="n">
-        <v>1078.286416779254</v>
+        <v>1123.249454937054</v>
       </c>
       <c r="F35" t="n">
-        <v>671.0144474459066</v>
+        <v>715.9774856037075</v>
       </c>
       <c r="G35" t="n">
-        <v>375.2273730069435</v>
+        <v>294.7802162981689</v>
       </c>
       <c r="H35" t="n">
-        <v>43.86815211056012</v>
+        <v>215.1578023385658</v>
       </c>
       <c r="I35" t="n">
         <v>43.86815211056012</v>
@@ -6940,10 +6940,10 @@
         <v>123.5423078192116</v>
       </c>
       <c r="K35" t="n">
-        <v>350.2182794214482</v>
+        <v>350.2182794214483</v>
       </c>
       <c r="L35" t="n">
-        <v>686.4129286846427</v>
+        <v>686.4129286846426</v>
       </c>
       <c r="M35" t="n">
         <v>1089.370213448355</v>
@@ -6982,7 +6982,7 @@
         <v>2193.407605528006</v>
       </c>
       <c r="Y35" t="n">
-        <v>1807.260567731592</v>
+        <v>2193.407605528006</v>
       </c>
     </row>
     <row r="36">
@@ -6992,43 +6992,43 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>728.0514627779062</v>
+        <v>608.1904879410476</v>
       </c>
       <c r="C36" t="n">
-        <v>538.6391885108699</v>
+        <v>418.7782136740113</v>
       </c>
       <c r="D36" t="n">
-        <v>377.8590722719016</v>
+        <v>418.7782136740113</v>
       </c>
       <c r="E36" t="n">
-        <v>204.295868393316</v>
+        <v>245.2150097954258</v>
       </c>
       <c r="F36" t="n">
-        <v>43.86815211056012</v>
+        <v>84.78729351266989</v>
       </c>
       <c r="G36" t="n">
-        <v>43.86815211056012</v>
+        <v>84.78729351266989</v>
       </c>
       <c r="H36" t="n">
-        <v>43.86815211056012</v>
+        <v>84.78729351266989</v>
       </c>
       <c r="I36" t="n">
         <v>43.86815211056012</v>
       </c>
       <c r="J36" t="n">
-        <v>84.6444149340378</v>
+        <v>43.86815211056012</v>
       </c>
       <c r="K36" t="n">
-        <v>217.7093282005853</v>
+        <v>240.3161461045231</v>
       </c>
       <c r="L36" t="n">
-        <v>548.144441648295</v>
+        <v>570.7512595522329</v>
       </c>
       <c r="M36" t="n">
-        <v>978.501297641817</v>
+        <v>1001.108115545755</v>
       </c>
       <c r="N36" t="n">
-        <v>1438.668308613576</v>
+        <v>1438.668308613575</v>
       </c>
       <c r="O36" t="n">
         <v>1803.884140369586</v>
@@ -7043,25 +7043,25 @@
         <v>2193.407605528006</v>
       </c>
       <c r="S36" t="n">
-        <v>2193.407605528006</v>
+        <v>2018.481936494639</v>
       </c>
       <c r="T36" t="n">
-        <v>2103.772722211179</v>
+        <v>1805.375894447386</v>
       </c>
       <c r="U36" t="n">
-        <v>1864.214290518892</v>
+        <v>1565.817462755098</v>
       </c>
       <c r="V36" t="n">
-        <v>1621.134572422526</v>
+        <v>1322.737744658732</v>
       </c>
       <c r="W36" t="n">
-        <v>1351.736003152817</v>
+        <v>1053.339175389024</v>
       </c>
       <c r="X36" t="n">
-        <v>1132.228008769514</v>
+        <v>833.8311810057201</v>
       </c>
       <c r="Y36" t="n">
-        <v>906.5873157048413</v>
+        <v>608.1904879410476</v>
       </c>
     </row>
     <row r="37">
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1739.27031265195</v>
+        <v>43.86815211056012</v>
       </c>
       <c r="C37" t="n">
-        <v>1739.27031265195</v>
+        <v>43.86815211056012</v>
       </c>
       <c r="D37" t="n">
-        <v>1739.27031265195</v>
+        <v>43.86815211056012</v>
       </c>
       <c r="E37" t="n">
-        <v>1739.27031265195</v>
+        <v>43.86815211056012</v>
       </c>
       <c r="F37" t="n">
-        <v>1739.27031265195</v>
+        <v>43.86815211056012</v>
       </c>
       <c r="G37" t="n">
-        <v>1739.27031265195</v>
+        <v>43.86815211056012</v>
       </c>
       <c r="H37" t="n">
-        <v>1739.27031265195</v>
+        <v>43.86815211056012</v>
       </c>
       <c r="I37" t="n">
-        <v>1739.27031265195</v>
+        <v>43.86815211056012</v>
       </c>
       <c r="J37" t="n">
-        <v>1739.27031265195</v>
+        <v>43.86815211056012</v>
       </c>
       <c r="K37" t="n">
-        <v>1768.507957505851</v>
+        <v>73.10579696446071</v>
       </c>
       <c r="L37" t="n">
-        <v>1859.00932265842</v>
+        <v>163.6071621170297</v>
       </c>
       <c r="M37" t="n">
-        <v>1963.026212633426</v>
+        <v>267.624052092036</v>
       </c>
       <c r="N37" t="n">
-        <v>2072.58594971357</v>
+        <v>377.1837891721802</v>
       </c>
       <c r="O37" t="n">
-        <v>2151.784453310117</v>
+        <v>456.3822927687264</v>
       </c>
       <c r="P37" t="n">
-        <v>2193.407605528006</v>
+        <v>498.0054449866161</v>
       </c>
       <c r="Q37" t="n">
-        <v>2193.407605528006</v>
+        <v>498.0054449866161</v>
       </c>
       <c r="R37" t="n">
-        <v>2193.407605528006</v>
+        <v>498.0054449866161</v>
       </c>
       <c r="S37" t="n">
-        <v>2193.407605528006</v>
+        <v>498.0054449866161</v>
       </c>
       <c r="T37" t="n">
-        <v>2030.796799771173</v>
+        <v>498.0054449866161</v>
       </c>
       <c r="U37" t="n">
-        <v>1739.27031265195</v>
+        <v>337.1112905846362</v>
       </c>
       <c r="V37" t="n">
-        <v>1739.27031265195</v>
+        <v>337.1112905846362</v>
       </c>
       <c r="W37" t="n">
-        <v>1739.27031265195</v>
+        <v>43.86815211056012</v>
       </c>
       <c r="X37" t="n">
-        <v>1739.27031265195</v>
+        <v>43.86815211056012</v>
       </c>
       <c r="Y37" t="n">
-        <v>1739.27031265195</v>
+        <v>43.86815211056012</v>
       </c>
     </row>
     <row r="38">
@@ -7150,37 +7150,37 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>43.86815211056012</v>
+        <v>1043.627040977452</v>
       </c>
       <c r="C38" t="n">
-        <v>43.86815211056012</v>
+        <v>1043.627040977452</v>
       </c>
       <c r="D38" t="n">
-        <v>43.86815211056012</v>
+        <v>1043.627040977452</v>
       </c>
       <c r="E38" t="n">
-        <v>43.86815211056012</v>
+        <v>1043.627040977452</v>
       </c>
       <c r="F38" t="n">
-        <v>43.86815211056012</v>
+        <v>636.3550716441044</v>
       </c>
       <c r="G38" t="n">
-        <v>43.86815211056012</v>
+        <v>215.1578023385658</v>
       </c>
       <c r="H38" t="n">
-        <v>43.86815211056012</v>
+        <v>215.1578023385658</v>
       </c>
       <c r="I38" t="n">
         <v>43.86815211056012</v>
       </c>
       <c r="J38" t="n">
-        <v>123.5423078192116</v>
+        <v>123.5423078192117</v>
       </c>
       <c r="K38" t="n">
-        <v>350.2182794214482</v>
+        <v>350.2182794214485</v>
       </c>
       <c r="L38" t="n">
-        <v>686.4129286846426</v>
+        <v>686.412928684643</v>
       </c>
       <c r="M38" t="n">
         <v>1089.370213448355</v>
@@ -7204,22 +7204,22 @@
         <v>2006.241368427951</v>
       </c>
       <c r="T38" t="n">
-        <v>1789.721252087576</v>
+        <v>1789.721252087577</v>
       </c>
       <c r="U38" t="n">
         <v>1537.193664830368</v>
       </c>
       <c r="V38" t="n">
-        <v>1213.07267128577</v>
+        <v>1537.193664830368</v>
       </c>
       <c r="W38" t="n">
-        <v>871.7631118658035</v>
+        <v>1537.193664830368</v>
       </c>
       <c r="X38" t="n">
-        <v>508.3462287398377</v>
+        <v>1429.774078773866</v>
       </c>
       <c r="Y38" t="n">
-        <v>421.734051482109</v>
+        <v>1043.627040977452</v>
       </c>
     </row>
     <row r="39">
@@ -7229,49 +7229,49 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>1068.601609700336</v>
+        <v>598.82777671041</v>
       </c>
       <c r="C39" t="n">
-        <v>879.1893354332997</v>
+        <v>409.4155024433737</v>
       </c>
       <c r="D39" t="n">
-        <v>718.4092191943314</v>
+        <v>409.4155024433737</v>
       </c>
       <c r="E39" t="n">
-        <v>544.8460153157458</v>
+        <v>409.4155024433737</v>
       </c>
       <c r="F39" t="n">
-        <v>384.4182990329899</v>
+        <v>248.9877861606178</v>
       </c>
       <c r="G39" t="n">
-        <v>235.172613954747</v>
+        <v>99.74210108237486</v>
       </c>
       <c r="H39" t="n">
-        <v>117.8383542112759</v>
+        <v>43.86815211056012</v>
       </c>
       <c r="I39" t="n">
         <v>43.86815211056012</v>
       </c>
       <c r="J39" t="n">
-        <v>84.6444149340378</v>
+        <v>43.86815211056012</v>
       </c>
       <c r="K39" t="n">
-        <v>281.0924089280008</v>
+        <v>240.3161461045231</v>
       </c>
       <c r="L39" t="n">
-        <v>611.5275223757105</v>
+        <v>570.7512595522329</v>
       </c>
       <c r="M39" t="n">
-        <v>1041.884378369233</v>
+        <v>1001.108115545755</v>
       </c>
       <c r="N39" t="n">
-        <v>1502.051389340991</v>
+        <v>1461.275126517514</v>
       </c>
       <c r="O39" t="n">
-        <v>1867.267221097002</v>
+        <v>1826.490958273524</v>
       </c>
       <c r="P39" t="n">
-        <v>2138.308622331574</v>
+        <v>2097.532359508096</v>
       </c>
       <c r="Q39" t="n">
         <v>2193.407605528006</v>
@@ -7286,19 +7286,19 @@
         <v>1731.469318047318</v>
       </c>
       <c r="U39" t="n">
-        <v>1581.07989706641</v>
+        <v>1491.91088635503</v>
       </c>
       <c r="V39" t="n">
-        <v>1338.000178970045</v>
+        <v>1491.91088635503</v>
       </c>
       <c r="W39" t="n">
-        <v>1068.601609700336</v>
+        <v>1222.512317085321</v>
       </c>
       <c r="X39" t="n">
-        <v>1068.601609700336</v>
+        <v>1003.004322702018</v>
       </c>
       <c r="Y39" t="n">
-        <v>1068.601609700336</v>
+        <v>777.3636296373452</v>
       </c>
     </row>
     <row r="40">
@@ -7335,40 +7335,40 @@
         <v>43.86815211056012</v>
       </c>
       <c r="K40" t="n">
-        <v>73.10579696446068</v>
+        <v>73.10579696446071</v>
       </c>
       <c r="L40" t="n">
-        <v>163.6071621170296</v>
+        <v>163.6071621170297</v>
       </c>
       <c r="M40" t="n">
-        <v>267.6240520920359</v>
+        <v>267.624052092036</v>
       </c>
       <c r="N40" t="n">
-        <v>377.1837891721801</v>
+        <v>377.1837891721802</v>
       </c>
       <c r="O40" t="n">
-        <v>456.3822927687262</v>
+        <v>456.3822927687264</v>
       </c>
       <c r="P40" t="n">
-        <v>498.0054449866159</v>
+        <v>498.0054449866161</v>
       </c>
       <c r="Q40" t="n">
-        <v>498.0054449866159</v>
+        <v>498.0054449866161</v>
       </c>
       <c r="R40" t="n">
-        <v>498.0054449866159</v>
+        <v>498.0054449866161</v>
       </c>
       <c r="S40" t="n">
-        <v>498.0054449866159</v>
+        <v>274.8199892741745</v>
       </c>
       <c r="T40" t="n">
-        <v>498.0054449866159</v>
+        <v>274.8199892741745</v>
       </c>
       <c r="U40" t="n">
-        <v>498.0054449866159</v>
+        <v>274.8199892741745</v>
       </c>
       <c r="V40" t="n">
-        <v>250.4205811639392</v>
+        <v>43.86815211056012</v>
       </c>
       <c r="W40" t="n">
         <v>43.86815211056012</v>
@@ -7387,22 +7387,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1102.53412518566</v>
+        <v>1151.328349201209</v>
       </c>
       <c r="C41" t="n">
-        <v>1102.53412518566</v>
+        <v>1151.328349201209</v>
       </c>
       <c r="D41" t="n">
-        <v>1102.53412518566</v>
+        <v>1151.328349201209</v>
       </c>
       <c r="E41" t="n">
-        <v>1102.53412518566</v>
+        <v>1043.627040977452</v>
       </c>
       <c r="F41" t="n">
-        <v>967.7142925404878</v>
+        <v>636.3550716441044</v>
       </c>
       <c r="G41" t="n">
-        <v>546.5170232349492</v>
+        <v>215.1578023385658</v>
       </c>
       <c r="H41" t="n">
         <v>215.1578023385658</v>
@@ -7411,13 +7411,13 @@
         <v>43.86815211056012</v>
       </c>
       <c r="J41" t="n">
-        <v>123.5423078192114</v>
+        <v>123.5423078192115</v>
       </c>
       <c r="K41" t="n">
-        <v>350.218279421448</v>
+        <v>350.2182794214483</v>
       </c>
       <c r="L41" t="n">
-        <v>686.4129286846423</v>
+        <v>686.4129286846428</v>
       </c>
       <c r="M41" t="n">
         <v>1089.370213448355</v>
@@ -7426,7 +7426,7 @@
         <v>1492.005332341421</v>
       </c>
       <c r="O41" t="n">
-        <v>1835.292898976575</v>
+        <v>1835.292898976574</v>
       </c>
       <c r="P41" t="n">
         <v>2084.133322245722</v>
@@ -7435,28 +7435,28 @@
         <v>2193.407605528006</v>
       </c>
       <c r="R41" t="n">
-        <v>2193.407605528006</v>
+        <v>2114.123967799429</v>
       </c>
       <c r="S41" t="n">
-        <v>2193.407605528006</v>
+        <v>2114.123967799429</v>
       </c>
       <c r="T41" t="n">
-        <v>2193.407605528006</v>
+        <v>2114.123967799429</v>
       </c>
       <c r="U41" t="n">
-        <v>2193.407605528006</v>
+        <v>1861.59638054222</v>
       </c>
       <c r="V41" t="n">
-        <v>2193.407605528006</v>
+        <v>1537.475386997623</v>
       </c>
       <c r="W41" t="n">
-        <v>1852.09804610804</v>
+        <v>1537.475386997623</v>
       </c>
       <c r="X41" t="n">
-        <v>1488.681162982074</v>
+        <v>1537.475386997623</v>
       </c>
       <c r="Y41" t="n">
-        <v>1102.53412518566</v>
+        <v>1151.328349201209</v>
       </c>
     </row>
     <row r="42">
@@ -7466,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>994.6314075996202</v>
+        <v>773.842343233267</v>
       </c>
       <c r="C42" t="n">
-        <v>805.2191333325839</v>
+        <v>584.4300689662307</v>
       </c>
       <c r="D42" t="n">
-        <v>644.4390170936156</v>
+        <v>423.6499527272624</v>
       </c>
       <c r="E42" t="n">
-        <v>470.87581321503</v>
+        <v>250.0867488486769</v>
       </c>
       <c r="F42" t="n">
-        <v>310.4480969322741</v>
+        <v>235.172613954747</v>
       </c>
       <c r="G42" t="n">
-        <v>161.2024118540312</v>
+        <v>235.172613954747</v>
       </c>
       <c r="H42" t="n">
-        <v>43.86815211056012</v>
+        <v>117.8383542112759</v>
       </c>
       <c r="I42" t="n">
         <v>43.86815211056012</v>
       </c>
       <c r="J42" t="n">
-        <v>84.6444149340378</v>
+        <v>43.86815211056012</v>
       </c>
       <c r="K42" t="n">
-        <v>281.0924089280008</v>
+        <v>240.3161461045231</v>
       </c>
       <c r="L42" t="n">
-        <v>611.5275223757105</v>
+        <v>570.7512595522329</v>
       </c>
       <c r="M42" t="n">
-        <v>1041.884378369233</v>
+        <v>1001.108115545755</v>
       </c>
       <c r="N42" t="n">
-        <v>1502.051389340991</v>
+        <v>1461.275126517514</v>
       </c>
       <c r="O42" t="n">
-        <v>1867.267221097002</v>
+        <v>1826.490958273524</v>
       </c>
       <c r="P42" t="n">
-        <v>2074.925541604158</v>
+        <v>2097.532359508096</v>
       </c>
       <c r="Q42" t="n">
         <v>2193.407605528006</v>
       </c>
       <c r="R42" t="n">
-        <v>2193.407605528006</v>
+        <v>2119.501029127938</v>
       </c>
       <c r="S42" t="n">
-        <v>2018.481936494639</v>
+        <v>1944.57536009457</v>
       </c>
       <c r="T42" t="n">
-        <v>1805.375894447386</v>
+        <v>1731.469318047318</v>
       </c>
       <c r="U42" t="n">
-        <v>1668.206522860936</v>
+        <v>1731.469318047318</v>
       </c>
       <c r="V42" t="n">
-        <v>1668.206522860936</v>
+        <v>1488.389599950952</v>
       </c>
       <c r="W42" t="n">
-        <v>1398.807953591228</v>
+        <v>1218.991030681243</v>
       </c>
       <c r="X42" t="n">
-        <v>1398.807953591228</v>
+        <v>999.4830362979394</v>
       </c>
       <c r="Y42" t="n">
-        <v>1173.167260526555</v>
+        <v>773.842343233267</v>
       </c>
     </row>
     <row r="43">
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1739.27031265195</v>
+        <v>498.0054449866161</v>
       </c>
       <c r="C43" t="n">
-        <v>1739.27031265195</v>
+        <v>329.8668783482601</v>
       </c>
       <c r="D43" t="n">
-        <v>1739.27031265195</v>
+        <v>213.4334434075447</v>
       </c>
       <c r="E43" t="n">
-        <v>1739.27031265195</v>
+        <v>213.4334434075447</v>
       </c>
       <c r="F43" t="n">
-        <v>1739.27031265195</v>
+        <v>213.4334434075447</v>
       </c>
       <c r="G43" t="n">
-        <v>1739.27031265195</v>
+        <v>43.86815211056012</v>
       </c>
       <c r="H43" t="n">
-        <v>1739.27031265195</v>
+        <v>43.86815211056012</v>
       </c>
       <c r="I43" t="n">
-        <v>1739.27031265195</v>
+        <v>43.86815211056012</v>
       </c>
       <c r="J43" t="n">
-        <v>1739.27031265195</v>
+        <v>43.86815211056012</v>
       </c>
       <c r="K43" t="n">
-        <v>1768.507957505851</v>
+        <v>73.10579696446071</v>
       </c>
       <c r="L43" t="n">
-        <v>1859.00932265842</v>
+        <v>163.6071621170297</v>
       </c>
       <c r="M43" t="n">
-        <v>1963.026212633426</v>
+        <v>267.624052092036</v>
       </c>
       <c r="N43" t="n">
-        <v>2072.58594971357</v>
+        <v>377.1837891721802</v>
       </c>
       <c r="O43" t="n">
-        <v>2151.784453310117</v>
+        <v>456.3822927687264</v>
       </c>
       <c r="P43" t="n">
-        <v>2193.407605528006</v>
+        <v>498.0054449866161</v>
       </c>
       <c r="Q43" t="n">
-        <v>2193.407605528006</v>
+        <v>498.0054449866161</v>
       </c>
       <c r="R43" t="n">
-        <v>2193.407605528006</v>
+        <v>498.0054449866161</v>
       </c>
       <c r="S43" t="n">
-        <v>2193.407605528006</v>
+        <v>498.0054449866161</v>
       </c>
       <c r="T43" t="n">
-        <v>2193.407605528006</v>
+        <v>498.0054449866161</v>
       </c>
       <c r="U43" t="n">
-        <v>2193.407605528006</v>
+        <v>498.0054449866161</v>
       </c>
       <c r="V43" t="n">
-        <v>2193.407605528006</v>
+        <v>498.0054449866161</v>
       </c>
       <c r="W43" t="n">
-        <v>1900.16446705393</v>
+        <v>498.0054449866161</v>
       </c>
       <c r="X43" t="n">
-        <v>1739.27031265195</v>
+        <v>498.0054449866161</v>
       </c>
       <c r="Y43" t="n">
-        <v>1739.27031265195</v>
+        <v>498.0054449866161</v>
       </c>
     </row>
     <row r="44">
@@ -7624,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1203.696611645829</v>
+        <v>1162.944793531411</v>
       </c>
       <c r="C44" t="n">
-        <v>1203.696611645829</v>
+        <v>1162.944793531411</v>
       </c>
       <c r="D44" t="n">
-        <v>1203.696611645829</v>
+        <v>1162.944793531411</v>
       </c>
       <c r="E44" t="n">
-        <v>1203.696611645829</v>
+        <v>1162.944793531411</v>
       </c>
       <c r="F44" t="n">
-        <v>796.4246423124821</v>
+        <v>755.6728241980641</v>
       </c>
       <c r="G44" t="n">
-        <v>375.2273730069435</v>
+        <v>334.4755548925255</v>
       </c>
       <c r="H44" t="n">
-        <v>43.86815211056011</v>
+        <v>43.86815211056012</v>
       </c>
       <c r="I44" t="n">
-        <v>43.86815211056011</v>
+        <v>43.86815211056012</v>
       </c>
       <c r="J44" t="n">
         <v>123.5423078192116</v>
       </c>
       <c r="K44" t="n">
-        <v>350.2182794214482</v>
+        <v>350.2182794214483</v>
       </c>
       <c r="L44" t="n">
-        <v>686.4129286846426</v>
+        <v>686.4129286846428</v>
       </c>
       <c r="M44" t="n">
         <v>1089.370213448355</v>
       </c>
       <c r="N44" t="n">
-        <v>1492.00533234142</v>
+        <v>1492.005332341421</v>
       </c>
       <c r="O44" t="n">
-        <v>1835.292898976574</v>
+        <v>1835.292898976575</v>
       </c>
       <c r="P44" t="n">
-        <v>2084.133322245722</v>
+        <v>2084.133322245723</v>
       </c>
       <c r="Q44" t="n">
         <v>2193.407605528006</v>
       </c>
       <c r="R44" t="n">
-        <v>2193.407605528006</v>
+        <v>2114.123967799429</v>
       </c>
       <c r="S44" t="n">
-        <v>2193.407605528006</v>
+        <v>1926.957730699374</v>
       </c>
       <c r="T44" t="n">
-        <v>2121.654751867602</v>
+        <v>1926.957730699374</v>
       </c>
       <c r="U44" t="n">
-        <v>1869.127164610394</v>
+        <v>1926.957730699374</v>
       </c>
       <c r="V44" t="n">
-        <v>1545.006171065796</v>
+        <v>1926.957730699374</v>
       </c>
       <c r="W44" t="n">
-        <v>1203.696611645829</v>
+        <v>1926.957730699374</v>
       </c>
       <c r="X44" t="n">
-        <v>1203.696611645829</v>
+        <v>1926.957730699374</v>
       </c>
       <c r="Y44" t="n">
-        <v>1203.696611645829</v>
+        <v>1540.81069290296</v>
       </c>
     </row>
     <row r="45">
@@ -7703,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>728.0514627779062</v>
+        <v>355.7480586140444</v>
       </c>
       <c r="C45" t="n">
-        <v>538.6391885108699</v>
+        <v>166.3357843470081</v>
       </c>
       <c r="D45" t="n">
-        <v>377.8590722719016</v>
+        <v>117.8383542112759</v>
       </c>
       <c r="E45" t="n">
-        <v>204.295868393316</v>
+        <v>117.8383542112759</v>
       </c>
       <c r="F45" t="n">
-        <v>43.86815211056011</v>
+        <v>117.8383542112759</v>
       </c>
       <c r="G45" t="n">
-        <v>43.86815211056011</v>
+        <v>117.8383542112759</v>
       </c>
       <c r="H45" t="n">
-        <v>43.86815211056011</v>
+        <v>117.8383542112759</v>
       </c>
       <c r="I45" t="n">
-        <v>43.86815211056011</v>
+        <v>43.86815211056012</v>
       </c>
       <c r="J45" t="n">
-        <v>43.86815211056011</v>
+        <v>43.86815211056012</v>
       </c>
       <c r="K45" t="n">
-        <v>217.7093282005848</v>
+        <v>240.3161461045231</v>
       </c>
       <c r="L45" t="n">
-        <v>548.1444416482946</v>
+        <v>570.7512595522329</v>
       </c>
       <c r="M45" t="n">
-        <v>978.5012976418166</v>
+        <v>1001.108115545755</v>
       </c>
       <c r="N45" t="n">
-        <v>1438.668308613575</v>
+        <v>1461.275126517514</v>
       </c>
       <c r="O45" t="n">
-        <v>1803.884140369586</v>
+        <v>1826.490958273524</v>
       </c>
       <c r="P45" t="n">
-        <v>2074.925541604157</v>
+        <v>2097.532359508096</v>
       </c>
       <c r="Q45" t="n">
         <v>2193.407605528006</v>
       </c>
       <c r="R45" t="n">
-        <v>2193.407605528006</v>
+        <v>2119.501029127938</v>
       </c>
       <c r="S45" t="n">
-        <v>2073.799046162067</v>
+        <v>1944.57536009457</v>
       </c>
       <c r="T45" t="n">
-        <v>1860.693004114813</v>
+        <v>1731.469318047318</v>
       </c>
       <c r="U45" t="n">
-        <v>1621.134572422526</v>
+        <v>1491.91088635503</v>
       </c>
       <c r="V45" t="n">
-        <v>1621.134572422526</v>
+        <v>1248.831168258664</v>
       </c>
       <c r="W45" t="n">
-        <v>1351.736003152817</v>
+        <v>979.4325989889554</v>
       </c>
       <c r="X45" t="n">
-        <v>1132.228008769514</v>
+        <v>759.9246046056518</v>
       </c>
       <c r="Y45" t="n">
-        <v>906.5873157048413</v>
+        <v>534.2839115409795</v>
       </c>
     </row>
     <row r="46">
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>330.8474778369817</v>
+        <v>43.86815211056012</v>
       </c>
       <c r="C46" t="n">
-        <v>330.8474778369817</v>
+        <v>43.86815211056012</v>
       </c>
       <c r="D46" t="n">
-        <v>184.1983361695972</v>
+        <v>43.86815211056012</v>
       </c>
       <c r="E46" t="n">
-        <v>184.1983361695972</v>
+        <v>43.86815211056012</v>
       </c>
       <c r="F46" t="n">
-        <v>43.86815211056011</v>
+        <v>43.86815211056012</v>
       </c>
       <c r="G46" t="n">
-        <v>43.86815211056011</v>
+        <v>43.86815211056012</v>
       </c>
       <c r="H46" t="n">
-        <v>43.86815211056011</v>
+        <v>43.86815211056012</v>
       </c>
       <c r="I46" t="n">
-        <v>43.86815211056011</v>
+        <v>43.86815211056012</v>
       </c>
       <c r="J46" t="n">
-        <v>43.86815211056011</v>
+        <v>43.86815211056012</v>
       </c>
       <c r="K46" t="n">
-        <v>73.10579696446067</v>
+        <v>73.10579696446071</v>
       </c>
       <c r="L46" t="n">
-        <v>163.6071621170296</v>
+        <v>163.6071621170297</v>
       </c>
       <c r="M46" t="n">
-        <v>267.6240520920359</v>
+        <v>267.624052092036</v>
       </c>
       <c r="N46" t="n">
-        <v>377.1837891721801</v>
+        <v>377.1837891721802</v>
       </c>
       <c r="O46" t="n">
-        <v>456.3822927687262</v>
+        <v>456.3822927687264</v>
       </c>
       <c r="P46" t="n">
-        <v>498.0054449866158</v>
+        <v>498.0054449866161</v>
       </c>
       <c r="Q46" t="n">
-        <v>498.0054449866158</v>
+        <v>439.8027842229391</v>
       </c>
       <c r="R46" t="n">
-        <v>498.0054449866158</v>
+        <v>439.8027842229391</v>
       </c>
       <c r="S46" t="n">
-        <v>498.0054449866158</v>
+        <v>439.8027842229391</v>
       </c>
       <c r="T46" t="n">
-        <v>330.8474778369817</v>
+        <v>439.8027842229391</v>
       </c>
       <c r="U46" t="n">
-        <v>330.8474778369817</v>
+        <v>439.8027842229391</v>
       </c>
       <c r="V46" t="n">
-        <v>330.8474778369817</v>
+        <v>439.8027842229391</v>
       </c>
       <c r="W46" t="n">
-        <v>330.8474778369817</v>
+        <v>439.8027842229391</v>
       </c>
       <c r="X46" t="n">
-        <v>330.8474778369817</v>
+        <v>439.8027842229391</v>
       </c>
       <c r="Y46" t="n">
-        <v>330.8474778369817</v>
+        <v>220.4681652187285</v>
       </c>
     </row>
   </sheetData>
@@ -8777,19 +8777,19 @@
         <v>240.3045437566416</v>
       </c>
       <c r="M12" t="n">
-        <v>269.9708882526449</v>
+        <v>269.9708882526448</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>252.098905607985</v>
       </c>
       <c r="O12" t="n">
-        <v>255.2227828913207</v>
+        <v>27.61880161256873</v>
       </c>
       <c r="P12" t="n">
         <v>206.3638740786793</v>
       </c>
       <c r="Q12" t="n">
-        <v>105.7079362991291</v>
+        <v>81.213011969896</v>
       </c>
       <c r="R12" t="n">
         <v>29.49804203773589</v>
@@ -9008,25 +9008,25 @@
         <v>81.70699090058493</v>
       </c>
       <c r="K15" t="n">
-        <v>171.373473584151</v>
+        <v>54.865789686125</v>
       </c>
       <c r="L15" t="n">
         <v>240.3045437566416</v>
       </c>
       <c r="M15" t="n">
-        <v>269.9708882526449</v>
+        <v>269.9708882526448</v>
       </c>
       <c r="N15" t="n">
-        <v>146.4769458852148</v>
+        <v>252.098905607985</v>
       </c>
       <c r="O15" t="n">
         <v>255.2227828913207</v>
       </c>
       <c r="P15" t="n">
-        <v>29.46478203976343</v>
+        <v>95.26757669795323</v>
       </c>
       <c r="Q15" t="n">
-        <v>136.1300824528302</v>
+        <v>81.213011969896</v>
       </c>
       <c r="R15" t="n">
         <v>29.49804203773589</v>
@@ -9245,16 +9245,16 @@
         <v>81.70699090058493</v>
       </c>
       <c r="K18" t="n">
-        <v>54.865789686125</v>
+        <v>171.373473584151</v>
       </c>
       <c r="L18" t="n">
         <v>240.3045437566416</v>
       </c>
       <c r="M18" t="n">
-        <v>158.874590871919</v>
+        <v>269.9708882526448</v>
       </c>
       <c r="N18" t="n">
-        <v>252.0989056079851</v>
+        <v>24.49492432923299</v>
       </c>
       <c r="O18" t="n">
         <v>255.2227828913207</v>
@@ -9488,19 +9488,19 @@
         <v>240.3045437566416</v>
       </c>
       <c r="M21" t="n">
-        <v>269.9708882526448</v>
+        <v>239.5487420989438</v>
       </c>
       <c r="N21" t="n">
-        <v>201.3940163681488</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
         <v>255.2227828913207</v>
       </c>
       <c r="P21" t="n">
-        <v>29.46478203976343</v>
+        <v>206.3638740786793</v>
       </c>
       <c r="Q21" t="n">
-        <v>81.21301196989599</v>
+        <v>136.1300824528302</v>
       </c>
       <c r="R21" t="n">
         <v>29.49804203773589</v>
@@ -9716,7 +9716,7 @@
         <v>6.561484152283033</v>
       </c>
       <c r="J24" t="n">
-        <v>81.70699090058493</v>
+        <v>40.51884663444584</v>
       </c>
       <c r="K24" t="n">
         <v>171.373473584151</v>
@@ -9734,10 +9734,10 @@
         <v>255.2227828913207</v>
       </c>
       <c r="P24" t="n">
-        <v>206.3638740786793</v>
+        <v>183.528704478742</v>
       </c>
       <c r="Q24" t="n">
-        <v>72.1067685867533</v>
+        <v>136.1300824528302</v>
       </c>
       <c r="R24" t="n">
         <v>29.49804203773589</v>
@@ -9956,7 +9956,7 @@
         <v>81.70699090058493</v>
       </c>
       <c r="K27" t="n">
-        <v>107.3501597180742</v>
+        <v>171.373473584151</v>
       </c>
       <c r="L27" t="n">
         <v>240.3045437566416</v>
@@ -9974,7 +9974,7 @@
         <v>206.3638740786793</v>
       </c>
       <c r="Q27" t="n">
-        <v>136.1300824528302</v>
+        <v>72.10676858675373</v>
       </c>
       <c r="R27" t="n">
         <v>29.49804203773589</v>
@@ -10196,7 +10196,7 @@
         <v>171.373473584151</v>
       </c>
       <c r="L30" t="n">
-        <v>240.3045437566416</v>
+        <v>176.2812298905647</v>
       </c>
       <c r="M30" t="n">
         <v>301.77688131</v>
@@ -10211,7 +10211,7 @@
         <v>206.3638740786793</v>
       </c>
       <c r="Q30" t="n">
-        <v>72.1067685867533</v>
+        <v>136.1300824528302</v>
       </c>
       <c r="R30" t="n">
         <v>29.49804203773589</v>
@@ -10436,7 +10436,7 @@
         <v>240.3045437566416</v>
       </c>
       <c r="M33" t="n">
-        <v>237.7535674439237</v>
+        <v>301.77688131</v>
       </c>
       <c r="N33" t="n">
         <v>310.6138585746227</v>
@@ -10448,7 +10448,7 @@
         <v>206.3638740786793</v>
       </c>
       <c r="Q33" t="n">
-        <v>136.1300824528302</v>
+        <v>72.10676858675373</v>
       </c>
       <c r="R33" t="n">
         <v>29.49804203773589</v>
@@ -10664,10 +10664,10 @@
         <v>6.561484152283033</v>
       </c>
       <c r="J36" t="n">
-        <v>81.70699090058493</v>
+        <v>40.51884663444584</v>
       </c>
       <c r="K36" t="n">
-        <v>107.3501597180747</v>
+        <v>171.373473584151</v>
       </c>
       <c r="L36" t="n">
         <v>240.3045437566416</v>
@@ -10676,7 +10676,7 @@
         <v>301.77688131</v>
       </c>
       <c r="N36" t="n">
-        <v>310.6138585746227</v>
+        <v>287.778688974685</v>
       </c>
       <c r="O36" t="n">
         <v>255.2227828913207</v>
@@ -10901,7 +10901,7 @@
         <v>6.561484152283033</v>
       </c>
       <c r="J39" t="n">
-        <v>81.70699090058493</v>
+        <v>40.51884663444584</v>
       </c>
       <c r="K39" t="n">
         <v>171.373473584151</v>
@@ -10922,7 +10922,7 @@
         <v>206.3638740786793</v>
       </c>
       <c r="Q39" t="n">
-        <v>72.10676858675376</v>
+        <v>113.2949128528929</v>
       </c>
       <c r="R39" t="n">
         <v>29.49804203773589</v>
@@ -11138,7 +11138,7 @@
         <v>6.561484152283033</v>
       </c>
       <c r="J42" t="n">
-        <v>81.70699090058493</v>
+        <v>40.51884663444584</v>
       </c>
       <c r="K42" t="n">
         <v>171.373473584151</v>
@@ -11156,10 +11156,10 @@
         <v>255.2227828913207</v>
       </c>
       <c r="P42" t="n">
-        <v>142.340560212603</v>
+        <v>206.3638740786793</v>
       </c>
       <c r="Q42" t="n">
-        <v>136.1300824528302</v>
+        <v>113.2949128528929</v>
       </c>
       <c r="R42" t="n">
         <v>29.49804203773589</v>
@@ -11317,7 +11317,7 @@
         <v>208.5255628951208</v>
       </c>
       <c r="Q44" t="n">
-        <v>137.5801139476182</v>
+        <v>137.5801139476174</v>
       </c>
       <c r="R44" t="n">
         <v>42.58424007769262</v>
@@ -11375,10 +11375,10 @@
         <v>6.561484152283033</v>
       </c>
       <c r="J45" t="n">
-        <v>40.51884663444586</v>
+        <v>40.51884663444584</v>
       </c>
       <c r="K45" t="n">
-        <v>148.5383039842133</v>
+        <v>171.373473584151</v>
       </c>
       <c r="L45" t="n">
         <v>240.3045437566416</v>
@@ -11396,7 +11396,7 @@
         <v>206.3638740786793</v>
       </c>
       <c r="Q45" t="n">
-        <v>136.1300824528302</v>
+        <v>113.2949128528929</v>
       </c>
       <c r="R45" t="n">
         <v>29.49804203773589</v>
@@ -23257,28 +23257,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>374.0872403778333</v>
+        <v>99.73827142726316</v>
       </c>
       <c r="C11" t="n">
         <v>350.2054973811788</v>
       </c>
       <c r="D11" t="n">
-        <v>337.7721596422273</v>
+        <v>96.12558779056516</v>
       </c>
       <c r="E11" t="n">
-        <v>371.4789120616362</v>
+        <v>97.12994311106598</v>
       </c>
       <c r="F11" t="n">
-        <v>128.8502806894432</v>
+        <v>403.1992496400135</v>
       </c>
       <c r="G11" t="n">
-        <v>143.5845471662974</v>
+        <v>143.5845471662975</v>
       </c>
       <c r="H11" t="n">
-        <v>63.40761273612697</v>
+        <v>337.7565816866972</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>206.1329861685091</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23305,7 +23305,7 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>102.5408091104312</v>
+        <v>138.0543947935843</v>
       </c>
       <c r="S11" t="n">
         <v>206.9021266852166</v>
@@ -23336,10 +23336,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D12" t="n">
         <v>0</v>
@@ -23348,7 +23348,7 @@
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>158.8234391199283</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
         <v>148.2605703896413</v>
@@ -23357,10 +23357,10 @@
         <v>121.0607743439406</v>
       </c>
       <c r="I12" t="n">
-        <v>90.69820171619742</v>
+        <v>90.69820171619743</v>
       </c>
       <c r="J12" t="n">
-        <v>6.744564135339189</v>
+        <v>6.744564135339218</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -23387,22 +23387,22 @@
         <v>104.6672283897153</v>
       </c>
       <c r="S12" t="n">
-        <v>50.37134977127916</v>
+        <v>182.6000704870501</v>
       </c>
       <c r="T12" t="n">
         <v>213.0199265699567</v>
       </c>
       <c r="U12" t="n">
-        <v>0</v>
+        <v>120.287907836999</v>
       </c>
       <c r="V12" t="n">
-        <v>240.6489209154022</v>
+        <v>0</v>
       </c>
       <c r="W12" t="n">
         <v>266.7045835770116</v>
       </c>
       <c r="X12" t="n">
-        <v>217.3129144394706</v>
+        <v>0</v>
       </c>
       <c r="Y12" t="n">
         <v>223.3842861340256</v>
@@ -23439,10 +23439,10 @@
         <v>152.6495179793835</v>
       </c>
       <c r="J13" t="n">
-        <v>84.66699124836381</v>
+        <v>91.54969484442688</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>19.88364031691906</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -23457,13 +23457,13 @@
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>0</v>
+        <v>9.399185363825382</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>93.23694401510255</v>
       </c>
       <c r="R13" t="n">
-        <v>185.183811174339</v>
+        <v>55.78133788242909</v>
       </c>
       <c r="S13" t="n">
         <v>228.3660933928399</v>
@@ -23494,7 +23494,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>374.0872403778333</v>
+        <v>99.73827142726316</v>
       </c>
       <c r="C14" t="n">
         <v>350.2054973811788</v>
@@ -23506,16 +23506,16 @@
         <v>371.4789120616362</v>
       </c>
       <c r="F14" t="n">
-        <v>128.8502806894432</v>
+        <v>128.8502806894433</v>
       </c>
       <c r="G14" t="n">
-        <v>143.5845471662974</v>
+        <v>143.5845471662975</v>
       </c>
       <c r="H14" t="n">
         <v>337.7565816866972</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>206.1329861685091</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23542,7 +23542,7 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>138.0543947935843</v>
       </c>
       <c r="S14" t="n">
         <v>206.9021266852166</v>
@@ -23557,13 +23557,13 @@
         <v>320.879783609152</v>
       </c>
       <c r="W14" t="n">
-        <v>166.0883039856278</v>
+        <v>337.8964638257669</v>
       </c>
       <c r="X14" t="n">
         <v>359.7827142947061</v>
       </c>
       <c r="Y14" t="n">
-        <v>382.2855674184499</v>
+        <v>140.6389955667878</v>
       </c>
     </row>
     <row r="15">
@@ -23573,7 +23573,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>176.7504943976657</v>
+        <v>0</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
@@ -23582,7 +23582,7 @@
         <v>159.1723150765785</v>
       </c>
       <c r="E15" t="n">
-        <v>171.8275718397997</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
         <v>158.8234391199283</v>
@@ -23594,10 +23594,10 @@
         <v>121.0607743439406</v>
       </c>
       <c r="I15" t="n">
-        <v>90.69820171619742</v>
+        <v>90.69820171619743</v>
       </c>
       <c r="J15" t="n">
-        <v>6.744564135339189</v>
+        <v>6.744564135339218</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -23621,25 +23621,25 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>104.6672283897153</v>
       </c>
       <c r="S15" t="n">
         <v>182.6000704870501</v>
       </c>
       <c r="T15" t="n">
-        <v>213.0199265699567</v>
+        <v>148.4558726778433</v>
       </c>
       <c r="U15" t="n">
-        <v>0</v>
+        <v>237.1962251491922</v>
       </c>
       <c r="V15" t="n">
-        <v>240.6489209154022</v>
+        <v>0</v>
       </c>
       <c r="W15" t="n">
-        <v>172.0899105104081</v>
+        <v>266.7045835770116</v>
       </c>
       <c r="X15" t="n">
-        <v>0</v>
+        <v>217.3129144394706</v>
       </c>
       <c r="Y15" t="n">
         <v>0</v>
@@ -23670,16 +23670,16 @@
         <v>168.2949770100594</v>
       </c>
       <c r="H16" t="n">
-        <v>162.2164852645116</v>
+        <v>32.81401197260166</v>
       </c>
       <c r="I16" t="n">
-        <v>134.6803798488194</v>
+        <v>152.6495179793835</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>91.54969484442688</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>19.88364031691906</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -23694,10 +23694,10 @@
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>9.399185363825353</v>
+        <v>9.399185363825382</v>
       </c>
       <c r="Q16" t="n">
-        <v>93.23694401510254</v>
+        <v>93.23694401510255</v>
       </c>
       <c r="R16" t="n">
         <v>185.183811174339</v>
@@ -23734,10 +23734,10 @@
         <v>374.0872403778333</v>
       </c>
       <c r="C17" t="n">
-        <v>75.85652843060859</v>
+        <v>350.2054973811788</v>
       </c>
       <c r="D17" t="n">
-        <v>63.42319069165706</v>
+        <v>63.42319069165711</v>
       </c>
       <c r="E17" t="n">
         <v>371.4789120616362</v>
@@ -23746,7 +23746,7 @@
         <v>128.8502806894433</v>
       </c>
       <c r="G17" t="n">
-        <v>176.2869442652055</v>
+        <v>417.9335161168677</v>
       </c>
       <c r="H17" t="n">
         <v>337.7565816866972</v>
@@ -23791,10 +23791,10 @@
         <v>250.0781689449873</v>
       </c>
       <c r="V17" t="n">
-        <v>320.879783609152</v>
+        <v>79.2332117574899</v>
       </c>
       <c r="W17" t="n">
-        <v>337.8964638257669</v>
+        <v>63.54749487519672</v>
       </c>
       <c r="X17" t="n">
         <v>359.7827142947061</v>
@@ -23810,22 +23810,22 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>176.7504943976657</v>
+        <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D18" t="n">
         <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F18" t="n">
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>148.2605703896413</v>
+        <v>27.61799434450303</v>
       </c>
       <c r="H18" t="n">
         <v>121.0607743439406</v>
@@ -23861,7 +23861,7 @@
         <v>104.6672283897153</v>
       </c>
       <c r="S18" t="n">
-        <v>182.6000704870501</v>
+        <v>0</v>
       </c>
       <c r="T18" t="n">
         <v>213.0199265699567</v>
@@ -23873,13 +23873,13 @@
         <v>240.6489209154022</v>
       </c>
       <c r="W18" t="n">
-        <v>266.7045835770116</v>
+        <v>0</v>
       </c>
       <c r="X18" t="n">
-        <v>53.3451994307959</v>
+        <v>217.3129144394706</v>
       </c>
       <c r="Y18" t="n">
-        <v>0</v>
+        <v>223.3842861340256</v>
       </c>
     </row>
     <row r="19">
@@ -23946,7 +23946,7 @@
         <v>222.0276946227434</v>
       </c>
       <c r="U19" t="n">
-        <v>159.2319492448143</v>
+        <v>288.6344225367242</v>
       </c>
       <c r="V19" t="n">
         <v>245.1090151844499</v>
@@ -23958,7 +23958,7 @@
         <v>221.9194554082425</v>
       </c>
       <c r="Y19" t="n">
-        <v>217.1412728141684</v>
+        <v>87.73879952225852</v>
       </c>
     </row>
     <row r="20">
@@ -23971,16 +23971,16 @@
         <v>374.0872403778333</v>
       </c>
       <c r="C20" t="n">
-        <v>350.2054973811788</v>
+        <v>75.85652843060859</v>
       </c>
       <c r="D20" t="n">
-        <v>337.7721596422273</v>
+        <v>63.42319069165706</v>
       </c>
       <c r="E20" t="n">
-        <v>97.12994311106593</v>
+        <v>371.4789120616362</v>
       </c>
       <c r="F20" t="n">
-        <v>403.1992496400135</v>
+        <v>343.4148639512774</v>
       </c>
       <c r="G20" t="n">
         <v>417.9335161168677</v>
@@ -23989,7 +23989,7 @@
         <v>337.7565816866972</v>
       </c>
       <c r="I20" t="n">
-        <v>206.1329861685091</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24016,10 +24016,10 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>138.0543947935843</v>
       </c>
       <c r="S20" t="n">
-        <v>79.03914962155588</v>
+        <v>206.9021266852166</v>
       </c>
       <c r="T20" t="n">
         <v>218.5057460574135</v>
@@ -24028,7 +24028,7 @@
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>46.53081465858179</v>
+        <v>320.879783609152</v>
       </c>
       <c r="W20" t="n">
         <v>337.8964638257669</v>
@@ -24047,22 +24047,22 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>176.7504943976657</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D21" t="n">
-        <v>159.1723150765785</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>171.8275718397997</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
         <v>158.8234391199283</v>
       </c>
       <c r="G21" t="n">
-        <v>148.2605703896413</v>
+        <v>75.33497101679458</v>
       </c>
       <c r="H21" t="n">
         <v>121.0607743439406</v>
@@ -24071,7 +24071,7 @@
         <v>90.69820171619743</v>
       </c>
       <c r="J21" t="n">
-        <v>6.744564135339203</v>
+        <v>6.744564135339218</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -24098,7 +24098,7 @@
         <v>104.6672283897153</v>
       </c>
       <c r="S21" t="n">
-        <v>12.82652745855096</v>
+        <v>182.6000704870501</v>
       </c>
       <c r="T21" t="n">
         <v>213.0199265699567</v>
@@ -24116,7 +24116,7 @@
         <v>0</v>
       </c>
       <c r="Y21" t="n">
-        <v>0</v>
+        <v>223.3842861340256</v>
       </c>
     </row>
     <row r="22">
@@ -24132,7 +24132,7 @@
         <v>166.4571809719723</v>
       </c>
       <c r="D22" t="n">
-        <v>107.3298718032277</v>
+        <v>145.1826502507107</v>
       </c>
       <c r="E22" t="n">
         <v>141.676141212225</v>
@@ -24150,10 +24150,10 @@
         <v>152.6495179793835</v>
       </c>
       <c r="J22" t="n">
-        <v>0</v>
+        <v>91.54969484442688</v>
       </c>
       <c r="K22" t="n">
-        <v>19.88364031691904</v>
+        <v>19.88364031691906</v>
       </c>
       <c r="L22" t="n">
         <v>0</v>
@@ -24168,16 +24168,16 @@
         <v>0</v>
       </c>
       <c r="P22" t="n">
-        <v>9.399185363825367</v>
+        <v>9.399185363825382</v>
       </c>
       <c r="Q22" t="n">
-        <v>93.23694401510255</v>
+        <v>0</v>
       </c>
       <c r="R22" t="n">
         <v>185.183811174339</v>
       </c>
       <c r="S22" t="n">
-        <v>228.3660933928399</v>
+        <v>192.2005641160326</v>
       </c>
       <c r="T22" t="n">
         <v>222.0276946227434</v>
@@ -24205,28 +24205,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>374.0872403778333</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>350.2054973811788</v>
       </c>
       <c r="D23" t="n">
         <v>337.7721596422273</v>
       </c>
       <c r="E23" t="n">
-        <v>371.4789120616362</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>282.2185394076917</v>
       </c>
       <c r="G23" t="n">
-        <v>215.1060577237458</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
         <v>328.0456286874195</v>
       </c>
       <c r="I23" t="n">
-        <v>169.5767537257256</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24256,25 +24256,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>185.2945747290548</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>214.3549151769703</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>250.0023113846365</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>320.879783609152</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>337.8964638257669</v>
       </c>
       <c r="X23" t="n">
         <v>359.7827142947061</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>382.2855674184499</v>
       </c>
     </row>
     <row r="24">
@@ -24293,13 +24293,13 @@
         <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>0</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F24" t="n">
-        <v>100.652882742087</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G24" t="n">
-        <v>147.7532282274605</v>
+        <v>128.7300816365996</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -24332,13 +24332,13 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>73.16751063606758</v>
+        <v>73.16751063606756</v>
       </c>
       <c r="S24" t="n">
         <v>173.1764123430336</v>
       </c>
       <c r="T24" t="n">
-        <v>210.9749816267804</v>
+        <v>0</v>
       </c>
       <c r="U24" t="n">
         <v>0</v>
@@ -24387,7 +24387,7 @@
         <v>139.8584254797875</v>
       </c>
       <c r="J25" t="n">
-        <v>61.47825398307333</v>
+        <v>61.47825398307332</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -24408,7 +24408,7 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>57.62063415604025</v>
+        <v>57.62063415604023</v>
       </c>
       <c r="R25" t="n">
         <v>166.0590398614607</v>
@@ -24423,16 +24423,16 @@
         <v>288.6112222480308</v>
       </c>
       <c r="V25" t="n">
-        <v>245.1090151844499</v>
+        <v>85.82380232648987</v>
       </c>
       <c r="W25" t="n">
-        <v>279.7755153644512</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>221.9194554082425</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>217.1412728141684</v>
       </c>
     </row>
     <row r="26">
@@ -24448,19 +24448,19 @@
         <v>350.2054973811788</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>337.7721596422273</v>
       </c>
       <c r="E26" t="n">
-        <v>371.4789120616362</v>
+        <v>163.2629310096565</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>416.9852966124832</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>328.0456286874195</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -24490,25 +24490,25 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>78.49080135129145</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>185.2945747290548</v>
       </c>
       <c r="T26" t="n">
-        <v>62.76972821072063</v>
+        <v>214.3549151769703</v>
       </c>
       <c r="U26" t="n">
-        <v>250.0023113846365</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>337.8964638257669</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>359.7827142947061</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
         <v>382.2855674184499</v>
@@ -24527,19 +24527,19 @@
         <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>0</v>
+        <v>11.36307946045389</v>
       </c>
       <c r="E27" t="n">
-        <v>0</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G27" t="n">
-        <v>59.0146937438025</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>116.1609171460363</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
         <v>73.23050007970866</v>
@@ -24569,13 +24569,13 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>73.16751063606758</v>
+        <v>73.16751063606756</v>
       </c>
       <c r="S27" t="n">
-        <v>173.1764123430336</v>
+        <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>210.9749816267804</v>
+        <v>0</v>
       </c>
       <c r="U27" t="n">
         <v>0</v>
@@ -24587,7 +24587,7 @@
         <v>0</v>
       </c>
       <c r="X27" t="n">
-        <v>0</v>
+        <v>217.3129144394706</v>
       </c>
       <c r="Y27" t="n">
         <v>0</v>
@@ -24618,13 +24618,13 @@
         <v>167.8696383840148</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>158.4348382074968</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>139.8584254797875</v>
       </c>
       <c r="J28" t="n">
-        <v>61.47825398307333</v>
+        <v>61.47825398307332</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
@@ -24645,10 +24645,10 @@
         <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>0</v>
+        <v>57.62063415604023</v>
       </c>
       <c r="R28" t="n">
-        <v>72.37701775749017</v>
+        <v>166.0590398614607</v>
       </c>
       <c r="S28" t="n">
         <v>220.9536011553171</v>
@@ -24663,13 +24663,13 @@
         <v>245.1090151844499</v>
       </c>
       <c r="W28" t="n">
-        <v>290.3107070893353</v>
+        <v>57.85605995620838</v>
       </c>
       <c r="X28" t="n">
         <v>221.9194554082425</v>
       </c>
       <c r="Y28" t="n">
-        <v>217.1412728141684</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24679,28 +24679,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>374.0872403778333</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>350.2054973811788</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>337.7721596422273</v>
       </c>
       <c r="E29" t="n">
-        <v>371.4789120616362</v>
+        <v>93.62201183235328</v>
       </c>
       <c r="F29" t="n">
-        <v>403.1992496400135</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>416.9852966124832</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
         <v>328.0456286874195</v>
       </c>
       <c r="I29" t="n">
-        <v>169.5767537257256</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24727,13 +24727,13 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>78.49080135129145</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>75.73861013714985</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
         <v>250.0023113846365</v>
@@ -24745,7 +24745,7 @@
         <v>337.8964638257669</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>359.7827142947061</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -24758,13 +24758,13 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C30" t="n">
-        <v>0</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D30" t="n">
-        <v>0</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E30" t="n">
         <v>0</v>
@@ -24773,7 +24773,7 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>109.1165439407509</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -24806,19 +24806,19 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>73.16751063606758</v>
+        <v>73.16751063606756</v>
       </c>
       <c r="S30" t="n">
-        <v>173.1764123430336</v>
+        <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>210.9749816267804</v>
+        <v>0</v>
       </c>
       <c r="U30" t="n">
-        <v>7.757190054145087</v>
+        <v>0</v>
       </c>
       <c r="V30" t="n">
-        <v>240.6489209154022</v>
+        <v>0</v>
       </c>
       <c r="W30" t="n">
         <v>0</v>
@@ -24837,13 +24837,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>177.6169206649681</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>166.4571809719723</v>
       </c>
       <c r="D31" t="n">
-        <v>39.66083194035591</v>
+        <v>145.1826502507107</v>
       </c>
       <c r="E31" t="n">
         <v>141.676141212225</v>
@@ -24861,7 +24861,7 @@
         <v>139.8584254797875</v>
       </c>
       <c r="J31" t="n">
-        <v>61.47825398307333</v>
+        <v>53.04627386619336</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
@@ -24882,16 +24882,16 @@
         <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>57.62063415604025</v>
+        <v>57.62063415604023</v>
       </c>
       <c r="R31" t="n">
         <v>166.0590398614607</v>
       </c>
       <c r="S31" t="n">
-        <v>220.9536011553171</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>220.2103386750983</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>288.6112222480308</v>
@@ -24916,25 +24916,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>374.0872403778333</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>350.2054973811788</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>371.4789120616362</v>
       </c>
       <c r="F32" t="n">
-        <v>403.1992496400135</v>
+        <v>305.1960562543952</v>
       </c>
       <c r="G32" t="n">
         <v>416.9852966124832</v>
       </c>
       <c r="H32" t="n">
-        <v>249.5939756793632</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -25004,13 +25004,13 @@
         <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>0</v>
+        <v>20.7710696624728</v>
       </c>
       <c r="F33" t="n">
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>147.7532282274605</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -25043,16 +25043,16 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>73.16751063606756</v>
       </c>
       <c r="S33" t="n">
-        <v>16.93826565788145</v>
+        <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>210.9749816267804</v>
+        <v>0</v>
       </c>
       <c r="U33" t="n">
-        <v>237.1628473753645</v>
+        <v>0</v>
       </c>
       <c r="V33" t="n">
         <v>240.6489209154022</v>
@@ -25064,7 +25064,7 @@
         <v>0</v>
       </c>
       <c r="Y33" t="n">
-        <v>0</v>
+        <v>223.3842861340256</v>
       </c>
     </row>
     <row r="34">
@@ -25089,16 +25089,16 @@
         <v>138.9268822184467</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>167.8696383840148</v>
       </c>
       <c r="H34" t="n">
-        <v>16.5669821240039</v>
+        <v>158.4348382074968</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>139.8584254797875</v>
       </c>
       <c r="J34" t="n">
-        <v>61.47825398307333</v>
+        <v>61.47825398307332</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
@@ -25119,7 +25119,7 @@
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>57.62063415604025</v>
+        <v>0</v>
       </c>
       <c r="R34" t="n">
         <v>166.0590398614607</v>
@@ -25137,13 +25137,13 @@
         <v>245.1090151844499</v>
       </c>
       <c r="W34" t="n">
-        <v>290.3107070893353</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>221.9194554082425</v>
       </c>
       <c r="Y34" t="n">
-        <v>217.1412728141684</v>
+        <v>115.4766941122486</v>
       </c>
     </row>
     <row r="35">
@@ -25159,7 +25159,7 @@
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>337.7721596422273</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
@@ -25168,13 +25168,13 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>124.1560929179097</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>249.2194388674125</v>
       </c>
       <c r="I35" t="n">
-        <v>169.5767537257256</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25201,7 +25201,7 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>78.49080135129145</v>
+        <v>78.49080135129142</v>
       </c>
       <c r="S35" t="n">
         <v>185.2945747290548</v>
@@ -25222,7 +25222,7 @@
         <v>359.7827142947061</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>382.2855674184499</v>
       </c>
     </row>
     <row r="36">
@@ -25232,13 +25232,13 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C36" t="n">
         <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>0</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E36" t="n">
         <v>0</v>
@@ -25253,7 +25253,7 @@
         <v>116.1609171460363</v>
       </c>
       <c r="I36" t="n">
-        <v>73.23050007970866</v>
+        <v>32.72055009162</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -25280,13 +25280,13 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>73.16751063606758</v>
+        <v>73.16751063606756</v>
       </c>
       <c r="S36" t="n">
-        <v>173.1764123430336</v>
+        <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>122.236447143122</v>
+        <v>0</v>
       </c>
       <c r="U36" t="n">
         <v>0</v>
@@ -25335,7 +25335,7 @@
         <v>139.8584254797875</v>
       </c>
       <c r="J37" t="n">
-        <v>61.47825398307333</v>
+        <v>61.47825398307332</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -25356,7 +25356,7 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>57.62063415604025</v>
+        <v>57.62063415604023</v>
       </c>
       <c r="R37" t="n">
         <v>166.0590398614607</v>
@@ -25365,16 +25365,16 @@
         <v>220.9536011553171</v>
       </c>
       <c r="T37" t="n">
-        <v>59.22564097583375</v>
+        <v>220.2103386750983</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>129.3260093900708</v>
       </c>
       <c r="V37" t="n">
         <v>245.1090151844499</v>
       </c>
       <c r="W37" t="n">
-        <v>290.3107070893353</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>221.9194554082425</v>
@@ -25390,7 +25390,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>374.0872403778333</v>
       </c>
       <c r="C38" t="n">
         <v>350.2054973811788</v>
@@ -25402,16 +25402,16 @@
         <v>371.4789120616362</v>
       </c>
       <c r="F38" t="n">
-        <v>403.1992496400135</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>416.9852966124832</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
         <v>328.0456286874195</v>
       </c>
       <c r="I38" t="n">
-        <v>169.5767537257256</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25438,7 +25438,7 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>78.49080135129145</v>
+        <v>78.49080135129142</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -25450,16 +25450,16 @@
         <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>320.879783609152</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>337.8964638257669</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>253.4373240987684</v>
       </c>
       <c r="Y38" t="n">
-        <v>296.5395119332985</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -25469,16 +25469,16 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>176.7504943976657</v>
+        <v>0</v>
       </c>
       <c r="C39" t="n">
         <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>0</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E39" t="n">
-        <v>0</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F39" t="n">
         <v>0</v>
@@ -25487,10 +25487,10 @@
         <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>60.84570766393976</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>73.23050007970866</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -25526,19 +25526,19 @@
         <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>88.27732060426654</v>
+        <v>0</v>
       </c>
       <c r="V39" t="n">
-        <v>0</v>
+        <v>240.6489209154022</v>
       </c>
       <c r="W39" t="n">
         <v>0</v>
       </c>
       <c r="X39" t="n">
-        <v>217.3129144394706</v>
+        <v>0</v>
       </c>
       <c r="Y39" t="n">
-        <v>223.3842861340256</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -25572,7 +25572,7 @@
         <v>139.8584254797875</v>
       </c>
       <c r="J40" t="n">
-        <v>61.47825398307333</v>
+        <v>61.47825398307332</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -25593,13 +25593,13 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>57.62063415604025</v>
+        <v>57.62063415604023</v>
       </c>
       <c r="R40" t="n">
         <v>166.0590398614607</v>
       </c>
       <c r="S40" t="n">
-        <v>220.9536011553171</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>220.2103386750983</v>
@@ -25608,10 +25608,10 @@
         <v>288.6112222480308</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>16.46669639247165</v>
       </c>
       <c r="W40" t="n">
-        <v>85.82380232649004</v>
+        <v>290.3107070893353</v>
       </c>
       <c r="X40" t="n">
         <v>221.9194554082425</v>
@@ -25636,16 +25636,16 @@
         <v>337.7721596422273</v>
       </c>
       <c r="E41" t="n">
-        <v>371.4789120616362</v>
+        <v>264.8546169201167</v>
       </c>
       <c r="F41" t="n">
-        <v>269.7276153212932</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>328.0456286874195</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -25675,7 +25675,7 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>78.49080135129145</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>185.2945747290548</v>
@@ -25684,16 +25684,16 @@
         <v>214.3549151769703</v>
       </c>
       <c r="U41" t="n">
-        <v>250.0023113846365</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>320.879783609152</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>337.8964638257669</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>359.7827142947061</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -25706,7 +25706,7 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C42" t="n">
         <v>0</v>
@@ -25718,16 +25718,16 @@
         <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>0</v>
+        <v>144.0584455749378</v>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>147.7532282274605</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>73.23050007970866</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -25754,7 +25754,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>73.16751063606758</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -25763,16 +25763,16 @@
         <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>101.3651695047794</v>
+        <v>237.1628473753645</v>
       </c>
       <c r="V42" t="n">
-        <v>240.6489209154022</v>
+        <v>0</v>
       </c>
       <c r="W42" t="n">
         <v>0</v>
       </c>
       <c r="X42" t="n">
-        <v>217.3129144394706</v>
+        <v>0</v>
       </c>
       <c r="Y42" t="n">
         <v>0</v>
@@ -25788,10 +25788,10 @@
         <v>177.6169206649681</v>
       </c>
       <c r="C43" t="n">
-        <v>166.4571809719723</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>145.1826502507107</v>
+        <v>29.91354965940248</v>
       </c>
       <c r="E43" t="n">
         <v>141.676141212225</v>
@@ -25800,7 +25800,7 @@
         <v>138.9268822184467</v>
       </c>
       <c r="G43" t="n">
-        <v>167.8696383840148</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>158.4348382074968</v>
@@ -25809,7 +25809,7 @@
         <v>139.8584254797875</v>
       </c>
       <c r="J43" t="n">
-        <v>61.47825398307333</v>
+        <v>61.47825398307332</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -25830,7 +25830,7 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>57.62063415604025</v>
+        <v>57.62063415604023</v>
       </c>
       <c r="R43" t="n">
         <v>166.0590398614607</v>
@@ -25848,10 +25848,10 @@
         <v>245.1090151844499</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>290.3107070893353</v>
       </c>
       <c r="X43" t="n">
-        <v>62.63424255028266</v>
+        <v>221.9194554082425</v>
       </c>
       <c r="Y43" t="n">
         <v>217.1412728141684</v>
@@ -25864,7 +25864,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>374.0872403778333</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
         <v>350.2054973811788</v>
@@ -25882,7 +25882,7 @@
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>40.34429993327382</v>
       </c>
       <c r="I44" t="n">
         <v>169.5767537257256</v>
@@ -25912,28 +25912,28 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>78.49080135129145</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>185.2945747290548</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>143.3195900531712</v>
+        <v>214.3549151769703</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>250.0023113846365</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>320.879783609152</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>337.8964638257669</v>
       </c>
       <c r="X44" t="n">
         <v>359.7827142947061</v>
       </c>
       <c r="Y44" t="n">
-        <v>382.2855674184499</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -25949,13 +25949,13 @@
         <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>0</v>
+        <v>111.1598592422037</v>
       </c>
       <c r="E45" t="n">
-        <v>0</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G45" t="n">
         <v>147.7532282274605</v>
@@ -25964,7 +25964,7 @@
         <v>116.1609171460363</v>
       </c>
       <c r="I45" t="n">
-        <v>73.23050007970866</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -25991,10 +25991,10 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>73.16751063606758</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>54.76393857075393</v>
+        <v>0</v>
       </c>
       <c r="T45" t="n">
         <v>0</v>
@@ -26003,7 +26003,7 @@
         <v>0</v>
       </c>
       <c r="V45" t="n">
-        <v>240.6489209154022</v>
+        <v>0</v>
       </c>
       <c r="W45" t="n">
         <v>0</v>
@@ -26022,19 +26022,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>177.6169206649681</v>
+        <v>2.782907687881362</v>
       </c>
       <c r="C46" t="n">
         <v>166.4571809719723</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>145.1826502507107</v>
       </c>
       <c r="E46" t="n">
         <v>141.676141212225</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>138.9268822184467</v>
       </c>
       <c r="G46" t="n">
         <v>167.8696383840148</v>
@@ -26046,7 +26046,7 @@
         <v>139.8584254797875</v>
       </c>
       <c r="J46" t="n">
-        <v>61.47825398307333</v>
+        <v>61.47825398307332</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -26067,7 +26067,7 @@
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>57.62063415604025</v>
+        <v>0</v>
       </c>
       <c r="R46" t="n">
         <v>166.0590398614607</v>
@@ -26076,7 +26076,7 @@
         <v>220.9536011553171</v>
       </c>
       <c r="T46" t="n">
-        <v>54.72395119696053</v>
+        <v>220.2103386750983</v>
       </c>
       <c r="U46" t="n">
         <v>288.6112222480308</v>
@@ -26091,7 +26091,7 @@
         <v>221.9194554082425</v>
       </c>
       <c r="Y46" t="n">
-        <v>217.1412728141684</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>554059.278557701</v>
+        <v>554059.2785577009</v>
       </c>
     </row>
     <row r="6">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>554059.278557701</v>
+        <v>554059.2785577009</v>
       </c>
     </row>
     <row r="8">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>755783.2660203619</v>
+        <v>755783.2660203621</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>755783.2660203618</v>
+        <v>755783.266020362</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>755783.266020362</v>
+        <v>755783.2660203621</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>755783.2660203619</v>
+        <v>755783.2660203621</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>755783.266020362</v>
+        <v>755783.2660203621</v>
       </c>
     </row>
     <row r="14">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>755783.2660203621</v>
+        <v>755783.266020362</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>755783.266020362</v>
+        <v>755783.2660203621</v>
       </c>
     </row>
   </sheetData>
@@ -26313,43 +26313,43 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>95193.0560451601</v>
+      </c>
+      <c r="C2" t="n">
+        <v>95193.0560451601</v>
+      </c>
+      <c r="D2" t="n">
         <v>95193.05604516009</v>
       </c>
-      <c r="C2" t="n">
-        <v>95193.05604516009</v>
-      </c>
-      <c r="D2" t="n">
-        <v>95193.0560451601</v>
-      </c>
       <c r="E2" t="n">
-        <v>186154.2781427439</v>
+        <v>186154.278142744</v>
       </c>
       <c r="F2" t="n">
-        <v>186154.2781427439</v>
+        <v>186154.278142744</v>
       </c>
       <c r="G2" t="n">
         <v>186154.278142744</v>
       </c>
       <c r="H2" t="n">
-        <v>186154.278142744</v>
+        <v>186154.2781427439</v>
       </c>
       <c r="I2" t="n">
         <v>255641.874159289</v>
       </c>
       <c r="J2" t="n">
+        <v>255641.8741592891</v>
+      </c>
+      <c r="K2" t="n">
         <v>255641.874159289</v>
-      </c>
-      <c r="K2" t="n">
-        <v>255641.8741592891</v>
       </c>
       <c r="L2" t="n">
         <v>255641.874159289</v>
       </c>
       <c r="M2" t="n">
+        <v>255641.8741592891</v>
+      </c>
+      <c r="N2" t="n">
         <v>255641.874159289</v>
-      </c>
-      <c r="N2" t="n">
-        <v>255641.8741592891</v>
       </c>
       <c r="O2" t="n">
         <v>255641.874159289</v>
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>343988.4608698884</v>
+        <v>343988.4608698883</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26386,7 +26386,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>250413.7406169482</v>
+        <v>250413.7406169483</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>68368.86045835783</v>
+        <v>68368.86045835789</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26426,16 +26426,16 @@
         <v>15865.50934086002</v>
       </c>
       <c r="E4" t="n">
-        <v>16483.80081285403</v>
+        <v>16483.80081285402</v>
       </c>
       <c r="F4" t="n">
         <v>16483.80081285402</v>
       </c>
       <c r="G4" t="n">
-        <v>16483.80081285403</v>
+        <v>16483.80081285402</v>
       </c>
       <c r="H4" t="n">
-        <v>16483.80081285403</v>
+        <v>16483.80081285402</v>
       </c>
       <c r="I4" t="n">
         <v>17676.14942132362</v>
@@ -26447,7 +26447,7 @@
         <v>17676.14942132362</v>
       </c>
       <c r="L4" t="n">
-        <v>17676.14942132363</v>
+        <v>17676.14942132362</v>
       </c>
       <c r="M4" t="n">
         <v>17676.14942132362</v>
@@ -26478,25 +26478,25 @@
         <v>33627.6</v>
       </c>
       <c r="E5" t="n">
-        <v>23791.68139550618</v>
+        <v>23791.68139550617</v>
       </c>
       <c r="F5" t="n">
-        <v>23791.68139550618</v>
+        <v>23791.68139550617</v>
       </c>
       <c r="G5" t="n">
-        <v>23791.68139550618</v>
+        <v>23791.68139550617</v>
       </c>
       <c r="H5" t="n">
         <v>23791.68139550618</v>
       </c>
       <c r="I5" t="n">
-        <v>45593.01700473824</v>
+        <v>45593.01700473825</v>
       </c>
       <c r="J5" t="n">
-        <v>45593.01700473824</v>
+        <v>45593.01700473825</v>
       </c>
       <c r="K5" t="n">
-        <v>45593.01700473824</v>
+        <v>45593.01700473825</v>
       </c>
       <c r="L5" t="n">
         <v>45593.01700473825</v>
@@ -26511,7 +26511,7 @@
         <v>45593.01700473825</v>
       </c>
       <c r="P5" t="n">
-        <v>45593.01700473824</v>
+        <v>45593.01700473825</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>45699.94670430007</v>
+        <v>28895.48609645669</v>
       </c>
       <c r="C6" t="n">
-        <v>45699.94670430007</v>
+        <v>28895.48609645669</v>
       </c>
       <c r="D6" t="n">
-        <v>45699.94670430008</v>
+        <v>28895.48609645668</v>
       </c>
       <c r="E6" t="n">
-        <v>-198109.6649355047</v>
+        <v>-209860.7243157043</v>
       </c>
       <c r="F6" t="n">
-        <v>145878.7959343837</v>
+        <v>134127.736554184</v>
       </c>
       <c r="G6" t="n">
-        <v>145878.7959343838</v>
+        <v>134127.736554184</v>
       </c>
       <c r="H6" t="n">
-        <v>145878.7959343838</v>
+        <v>134127.7365541839</v>
       </c>
       <c r="I6" t="n">
-        <v>-58041.03288372103</v>
+        <v>-65931.67026300188</v>
       </c>
       <c r="J6" t="n">
-        <v>192372.7077332271</v>
+        <v>184482.0703539466</v>
       </c>
       <c r="K6" t="n">
-        <v>192372.7077332272</v>
+        <v>184482.0703539465</v>
       </c>
       <c r="L6" t="n">
-        <v>192372.7077332272</v>
+        <v>184482.0703539465</v>
       </c>
       <c r="M6" t="n">
-        <v>124003.8472748694</v>
+        <v>116113.2098955886</v>
       </c>
       <c r="N6" t="n">
-        <v>192372.7077332272</v>
+        <v>184482.0703539464</v>
       </c>
       <c r="O6" t="n">
-        <v>192372.7077332271</v>
+        <v>184482.0703539465</v>
       </c>
       <c r="P6" t="n">
-        <v>192372.7077332271</v>
+        <v>184482.0703539464</v>
       </c>
     </row>
   </sheetData>
@@ -26746,40 +26746,40 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>326.2047744638307</v>
+        <v>326.2047744638306</v>
       </c>
       <c r="F3" t="n">
-        <v>326.2047744638307</v>
+        <v>326.2047744638306</v>
       </c>
       <c r="G3" t="n">
         <v>326.2047744638306</v>
       </c>
       <c r="H3" t="n">
-        <v>326.2047744638307</v>
+        <v>326.2047744638306</v>
       </c>
       <c r="I3" t="n">
-        <v>562.0743761794751</v>
+        <v>562.0743761794752</v>
       </c>
       <c r="J3" t="n">
-        <v>562.0743761794751</v>
+        <v>562.0743761794752</v>
       </c>
       <c r="K3" t="n">
-        <v>562.0743761794751</v>
+        <v>562.0743761794752</v>
       </c>
       <c r="L3" t="n">
-        <v>562.0743761794751</v>
+        <v>562.0743761794752</v>
       </c>
       <c r="M3" t="n">
-        <v>562.0743761794751</v>
+        <v>562.0743761794752</v>
       </c>
       <c r="N3" t="n">
-        <v>562.0743761794751</v>
+        <v>562.0743761794752</v>
       </c>
       <c r="O3" t="n">
-        <v>562.0743761794751</v>
+        <v>562.0743761794752</v>
       </c>
       <c r="P3" t="n">
-        <v>562.0743761794751</v>
+        <v>562.0743761794752</v>
       </c>
     </row>
     <row r="4">
@@ -26798,10 +26798,10 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>274.3489689505703</v>
+        <v>274.3489689505702</v>
       </c>
       <c r="F4" t="n">
-        <v>274.3489689505703</v>
+        <v>274.3489689505702</v>
       </c>
       <c r="G4" t="n">
         <v>274.3489689505702</v>
@@ -26810,13 +26810,13 @@
         <v>274.3489689505702</v>
       </c>
       <c r="I4" t="n">
-        <v>548.3519013820014</v>
+        <v>548.3519013820015</v>
       </c>
       <c r="J4" t="n">
-        <v>548.3519013820014</v>
+        <v>548.3519013820015</v>
       </c>
       <c r="K4" t="n">
-        <v>548.3519013820014</v>
+        <v>548.3519013820015</v>
       </c>
       <c r="L4" t="n">
         <v>548.3519013820015</v>
@@ -26831,7 +26831,7 @@
         <v>548.3519013820015</v>
       </c>
       <c r="P4" t="n">
-        <v>548.3519013820014</v>
+        <v>548.3519013820015</v>
       </c>
     </row>
   </sheetData>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>326.2047744638307</v>
+        <v>326.2047744638306</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26980,7 +26980,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>235.8696017156444</v>
+        <v>235.8696017156445</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>274.3489689505703</v>
+        <v>274.3489689505702</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27032,7 +27032,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>274.0029324314312</v>
+        <v>274.0029324314313</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>274.3489689505699</v>
+        <v>274.3489689505702</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>274.3489689505703</v>
+        <v>274.3489689505702</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -31755,10 +31755,10 @@
         <v>1.311375977744042</v>
       </c>
       <c r="H11" t="n">
-        <v>13.43012923207118</v>
+        <v>13.43012923207117</v>
       </c>
       <c r="I11" t="n">
-        <v>50.55682238197723</v>
+        <v>50.55682238197722</v>
       </c>
       <c r="J11" t="n">
         <v>111.3013968910535</v>
@@ -31767,34 +31767,34 @@
         <v>166.8119420289588</v>
       </c>
       <c r="L11" t="n">
-        <v>206.9449646078431</v>
+        <v>206.944964607843</v>
       </c>
       <c r="M11" t="n">
-        <v>230.2661471520487</v>
+        <v>230.2661471520486</v>
       </c>
       <c r="N11" t="n">
-        <v>233.992094148814</v>
+        <v>233.9920941488139</v>
       </c>
       <c r="O11" t="n">
-        <v>220.9520992701217</v>
+        <v>220.9520992701216</v>
       </c>
       <c r="P11" t="n">
-        <v>188.5775048195656</v>
+        <v>188.5775048195655</v>
       </c>
       <c r="Q11" t="n">
         <v>141.613852616607</v>
       </c>
       <c r="R11" t="n">
-        <v>82.37572126196426</v>
+        <v>82.37572126196423</v>
       </c>
       <c r="S11" t="n">
-        <v>29.88298009284239</v>
+        <v>29.88298009284238</v>
       </c>
       <c r="T11" t="n">
-        <v>5.740548342574548</v>
+        <v>5.740548342574546</v>
       </c>
       <c r="U11" t="n">
-        <v>0.1049100782195234</v>
+        <v>0.1049100782195233</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.7016480054505039</v>
+        <v>0.7016480054505037</v>
       </c>
       <c r="H12" t="n">
-        <v>6.776442578956184</v>
+        <v>6.776442578956181</v>
       </c>
       <c r="I12" t="n">
         <v>24.15761773151954</v>
       </c>
       <c r="J12" t="n">
-        <v>66.29034949740924</v>
+        <v>66.29034949740921</v>
       </c>
       <c r="K12" t="n">
         <v>113.300765862593</v>
       </c>
       <c r="L12" t="n">
-        <v>152.346861885207</v>
+        <v>152.3468618852069</v>
       </c>
       <c r="M12" t="n">
         <v>177.7816020827877</v>
       </c>
       <c r="N12" t="n">
-        <v>182.4869520842519</v>
+        <v>182.4869520842518</v>
       </c>
       <c r="O12" t="n">
-        <v>166.9399094371644</v>
+        <v>166.9399094371643</v>
       </c>
       <c r="P12" t="n">
-        <v>133.9839950057195</v>
+        <v>133.9839950057194</v>
       </c>
       <c r="Q12" t="n">
-        <v>89.56475241505029</v>
+        <v>89.56475241505026</v>
       </c>
       <c r="R12" t="n">
-        <v>43.56372440858481</v>
+        <v>43.5637244085848</v>
       </c>
       <c r="S12" t="n">
         <v>13.03280396088983</v>
       </c>
       <c r="T12" t="n">
-        <v>2.828133846530758</v>
+        <v>2.828133846530757</v>
       </c>
       <c r="U12" t="n">
-        <v>0.04616105299016475</v>
+        <v>0.04616105299016473</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,40 +31910,40 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.5882381178855963</v>
+        <v>0.5882381178855961</v>
       </c>
       <c r="H13" t="n">
-        <v>5.229971629928306</v>
+        <v>5.229971629928304</v>
       </c>
       <c r="I13" t="n">
-        <v>17.68992449059594</v>
+        <v>17.68992449059593</v>
       </c>
       <c r="J13" t="n">
-        <v>41.58843493451166</v>
+        <v>41.58843493451165</v>
       </c>
       <c r="K13" t="n">
-        <v>68.34257405979928</v>
+        <v>68.34257405979925</v>
       </c>
       <c r="L13" t="n">
-        <v>87.45496527182767</v>
+        <v>87.45496527182765</v>
       </c>
       <c r="M13" t="n">
-        <v>92.20899878819397</v>
+        <v>92.20899878819394</v>
       </c>
       <c r="N13" t="n">
-        <v>90.01647489425682</v>
+        <v>90.01647489425679</v>
       </c>
       <c r="O13" t="n">
-        <v>83.14478415350233</v>
+        <v>83.1447841535023</v>
       </c>
       <c r="P13" t="n">
-        <v>71.1447265486361</v>
+        <v>71.14472654863607</v>
       </c>
       <c r="Q13" t="n">
-        <v>49.25692094403844</v>
+        <v>49.25692094403843</v>
       </c>
       <c r="R13" t="n">
-        <v>26.44932482783781</v>
+        <v>26.4493248278378</v>
       </c>
       <c r="S13" t="n">
         <v>10.25138610896989</v>
@@ -31952,7 +31952,7 @@
         <v>2.513381049147547</v>
       </c>
       <c r="U13" t="n">
-        <v>0.03208571552103257</v>
+        <v>0.03208571552103256</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31992,10 +31992,10 @@
         <v>1.311375977744042</v>
       </c>
       <c r="H14" t="n">
-        <v>13.43012923207118</v>
+        <v>13.43012923207117</v>
       </c>
       <c r="I14" t="n">
-        <v>50.55682238197723</v>
+        <v>50.55682238197722</v>
       </c>
       <c r="J14" t="n">
         <v>111.3013968910535</v>
@@ -32004,34 +32004,34 @@
         <v>166.8119420289588</v>
       </c>
       <c r="L14" t="n">
-        <v>206.9449646078431</v>
+        <v>206.944964607843</v>
       </c>
       <c r="M14" t="n">
-        <v>230.2661471520487</v>
+        <v>230.2661471520486</v>
       </c>
       <c r="N14" t="n">
-        <v>233.992094148814</v>
+        <v>233.9920941488139</v>
       </c>
       <c r="O14" t="n">
-        <v>220.9520992701217</v>
+        <v>220.9520992701216</v>
       </c>
       <c r="P14" t="n">
-        <v>188.5775048195656</v>
+        <v>188.5775048195655</v>
       </c>
       <c r="Q14" t="n">
         <v>141.613852616607</v>
       </c>
       <c r="R14" t="n">
-        <v>82.37572126196426</v>
+        <v>82.37572126196423</v>
       </c>
       <c r="S14" t="n">
-        <v>29.88298009284239</v>
+        <v>29.88298009284238</v>
       </c>
       <c r="T14" t="n">
-        <v>5.740548342574548</v>
+        <v>5.740548342574546</v>
       </c>
       <c r="U14" t="n">
-        <v>0.1049100782195234</v>
+        <v>0.1049100782195233</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.7016480054505039</v>
+        <v>0.7016480054505037</v>
       </c>
       <c r="H15" t="n">
-        <v>6.776442578956184</v>
+        <v>6.776442578956181</v>
       </c>
       <c r="I15" t="n">
         <v>24.15761773151954</v>
       </c>
       <c r="J15" t="n">
-        <v>66.29034949740924</v>
+        <v>66.29034949740921</v>
       </c>
       <c r="K15" t="n">
         <v>113.300765862593</v>
       </c>
       <c r="L15" t="n">
-        <v>152.346861885207</v>
+        <v>152.3468618852069</v>
       </c>
       <c r="M15" t="n">
         <v>177.7816020827877</v>
       </c>
       <c r="N15" t="n">
-        <v>182.4869520842519</v>
+        <v>182.4869520842518</v>
       </c>
       <c r="O15" t="n">
-        <v>166.9399094371644</v>
+        <v>166.9399094371643</v>
       </c>
       <c r="P15" t="n">
-        <v>133.9839950057195</v>
+        <v>133.9839950057194</v>
       </c>
       <c r="Q15" t="n">
-        <v>89.56475241505029</v>
+        <v>89.56475241505026</v>
       </c>
       <c r="R15" t="n">
-        <v>43.56372440858481</v>
+        <v>43.5637244085848</v>
       </c>
       <c r="S15" t="n">
         <v>13.03280396088983</v>
       </c>
       <c r="T15" t="n">
-        <v>2.828133846530758</v>
+        <v>2.828133846530757</v>
       </c>
       <c r="U15" t="n">
-        <v>0.04616105299016475</v>
+        <v>0.04616105299016473</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,40 +32147,40 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.5882381178855963</v>
+        <v>0.5882381178855961</v>
       </c>
       <c r="H16" t="n">
-        <v>5.229971629928306</v>
+        <v>5.229971629928304</v>
       </c>
       <c r="I16" t="n">
-        <v>17.68992449059594</v>
+        <v>17.68992449059593</v>
       </c>
       <c r="J16" t="n">
-        <v>41.58843493451166</v>
+        <v>41.58843493451165</v>
       </c>
       <c r="K16" t="n">
-        <v>68.34257405979928</v>
+        <v>68.34257405979925</v>
       </c>
       <c r="L16" t="n">
-        <v>87.45496527182767</v>
+        <v>87.45496527182765</v>
       </c>
       <c r="M16" t="n">
-        <v>92.20899878819397</v>
+        <v>92.20899878819394</v>
       </c>
       <c r="N16" t="n">
-        <v>90.01647489425682</v>
+        <v>90.01647489425679</v>
       </c>
       <c r="O16" t="n">
-        <v>83.14478415350233</v>
+        <v>83.1447841535023</v>
       </c>
       <c r="P16" t="n">
-        <v>71.1447265486361</v>
+        <v>71.14472654863607</v>
       </c>
       <c r="Q16" t="n">
-        <v>49.25692094403844</v>
+        <v>49.25692094403843</v>
       </c>
       <c r="R16" t="n">
-        <v>26.44932482783781</v>
+        <v>26.4493248278378</v>
       </c>
       <c r="S16" t="n">
         <v>10.25138610896989</v>
@@ -32189,7 +32189,7 @@
         <v>2.513381049147547</v>
       </c>
       <c r="U16" t="n">
-        <v>0.03208571552103257</v>
+        <v>0.03208571552103256</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32469,7 +32469,7 @@
         <v>13.43012923207117</v>
       </c>
       <c r="I20" t="n">
-        <v>50.55682238197723</v>
+        <v>50.55682238197722</v>
       </c>
       <c r="J20" t="n">
         <v>111.3013968910535</v>
@@ -32478,10 +32478,10 @@
         <v>166.8119420289588</v>
       </c>
       <c r="L20" t="n">
-        <v>206.9449646078431</v>
+        <v>206.944964607843</v>
       </c>
       <c r="M20" t="n">
-        <v>230.2661471520487</v>
+        <v>230.2661471520486</v>
       </c>
       <c r="N20" t="n">
         <v>233.9920941488139</v>
@@ -32496,13 +32496,13 @@
         <v>141.613852616607</v>
       </c>
       <c r="R20" t="n">
-        <v>82.37572126196424</v>
+        <v>82.37572126196423</v>
       </c>
       <c r="S20" t="n">
-        <v>29.88298009284239</v>
+        <v>29.88298009284238</v>
       </c>
       <c r="T20" t="n">
-        <v>5.740548342574547</v>
+        <v>5.740548342574546</v>
       </c>
       <c r="U20" t="n">
         <v>0.1049100782195233</v>
@@ -32542,37 +32542,37 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.7016480054505038</v>
+        <v>0.7016480054505037</v>
       </c>
       <c r="H21" t="n">
-        <v>6.776442578956182</v>
+        <v>6.776442578956181</v>
       </c>
       <c r="I21" t="n">
         <v>24.15761773151954</v>
       </c>
       <c r="J21" t="n">
-        <v>66.29034949740922</v>
+        <v>66.29034949740921</v>
       </c>
       <c r="K21" t="n">
         <v>113.300765862593</v>
       </c>
       <c r="L21" t="n">
-        <v>152.346861885207</v>
+        <v>152.3468618852069</v>
       </c>
       <c r="M21" t="n">
         <v>177.7816020827877</v>
       </c>
       <c r="N21" t="n">
-        <v>182.4869520842519</v>
+        <v>182.4869520842518</v>
       </c>
       <c r="O21" t="n">
-        <v>166.9399094371644</v>
+        <v>166.9399094371643</v>
       </c>
       <c r="P21" t="n">
-        <v>133.9839950057195</v>
+        <v>133.9839950057194</v>
       </c>
       <c r="Q21" t="n">
-        <v>89.56475241505028</v>
+        <v>89.56475241505026</v>
       </c>
       <c r="R21" t="n">
         <v>43.5637244085848</v>
@@ -32581,10 +32581,10 @@
         <v>13.03280396088983</v>
       </c>
       <c r="T21" t="n">
-        <v>2.828133846530758</v>
+        <v>2.828133846530757</v>
       </c>
       <c r="U21" t="n">
-        <v>0.04616105299016474</v>
+        <v>0.04616105299016473</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,10 +32621,10 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.5882381178855962</v>
+        <v>0.5882381178855961</v>
       </c>
       <c r="H22" t="n">
-        <v>5.229971629928305</v>
+        <v>5.229971629928304</v>
       </c>
       <c r="I22" t="n">
         <v>17.68992449059593</v>
@@ -32633,22 +32633,22 @@
         <v>41.58843493451165</v>
       </c>
       <c r="K22" t="n">
-        <v>68.34257405979926</v>
+        <v>68.34257405979925</v>
       </c>
       <c r="L22" t="n">
-        <v>87.45496527182766</v>
+        <v>87.45496527182765</v>
       </c>
       <c r="M22" t="n">
-        <v>92.20899878819395</v>
+        <v>92.20899878819394</v>
       </c>
       <c r="N22" t="n">
-        <v>90.0164748942568</v>
+        <v>90.01647489425679</v>
       </c>
       <c r="O22" t="n">
-        <v>83.14478415350231</v>
+        <v>83.1447841535023</v>
       </c>
       <c r="P22" t="n">
-        <v>71.14472654863609</v>
+        <v>71.14472654863607</v>
       </c>
       <c r="Q22" t="n">
         <v>49.25692094403843</v>
@@ -32700,13 +32700,13 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>2.259595482128541</v>
+        <v>2.259595482128542</v>
       </c>
       <c r="H23" t="n">
         <v>23.14108223134893</v>
       </c>
       <c r="I23" t="n">
-        <v>87.11305482476067</v>
+        <v>87.11305482476068</v>
       </c>
       <c r="J23" t="n">
         <v>191.7803420513075</v>
@@ -32715,19 +32715,19 @@
         <v>287.4290188098087</v>
       </c>
       <c r="L23" t="n">
-        <v>356.5811140460001</v>
+        <v>356.5811140460002</v>
       </c>
       <c r="M23" t="n">
-        <v>396.7651952013035</v>
+        <v>396.7651952013036</v>
       </c>
       <c r="N23" t="n">
         <v>403.1852708649013</v>
       </c>
       <c r="O23" t="n">
-        <v>380.7164182894855</v>
+        <v>380.7164182894856</v>
       </c>
       <c r="P23" t="n">
-        <v>324.9326548244371</v>
+        <v>324.9326548244372</v>
       </c>
       <c r="Q23" t="n">
         <v>244.0108916207087</v>
@@ -32739,7 +32739,7 @@
         <v>51.49053204900419</v>
       </c>
       <c r="T23" t="n">
-        <v>9.891379223017694</v>
+        <v>9.891379223017696</v>
       </c>
       <c r="U23" t="n">
         <v>0.1807676385702833</v>
@@ -32785,7 +32785,7 @@
         <v>11.67629977686042</v>
       </c>
       <c r="I24" t="n">
-        <v>41.6253193680083</v>
+        <v>41.62531936800831</v>
       </c>
       <c r="J24" t="n">
         <v>114.2230578988875</v>
@@ -32800,28 +32800,28 @@
         <v>306.3305350178139</v>
       </c>
       <c r="N24" t="n">
-        <v>314.4381927647801</v>
+        <v>314.4381927647802</v>
       </c>
       <c r="O24" t="n">
-        <v>287.6495158925281</v>
+        <v>287.6495158925282</v>
       </c>
       <c r="P24" t="n">
-        <v>230.8640961330376</v>
+        <v>230.8640961330377</v>
       </c>
       <c r="Q24" t="n">
         <v>154.3265343804476</v>
       </c>
       <c r="R24" t="n">
-        <v>75.06344216223256</v>
+        <v>75.06344216223258</v>
       </c>
       <c r="S24" t="n">
-        <v>22.45646210490637</v>
+        <v>22.45646210490638</v>
       </c>
       <c r="T24" t="n">
-        <v>4.873078789706956</v>
+        <v>4.873078789706957</v>
       </c>
       <c r="U24" t="n">
-        <v>0.07953882681785028</v>
+        <v>0.07953882681785029</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32861,25 +32861,25 @@
         <v>1.013576743930201</v>
       </c>
       <c r="H25" t="n">
-        <v>9.011618686943065</v>
+        <v>9.011618686943066</v>
       </c>
       <c r="I25" t="n">
-        <v>30.48101699019186</v>
+        <v>30.48101699019187</v>
       </c>
       <c r="J25" t="n">
-        <v>71.65987579586519</v>
+        <v>71.6598757958652</v>
       </c>
       <c r="K25" t="n">
-        <v>117.7591889766178</v>
+        <v>117.7591889766179</v>
       </c>
       <c r="L25" t="n">
         <v>150.6912188203137</v>
       </c>
       <c r="M25" t="n">
-        <v>158.8827617780768</v>
+        <v>158.8827617780769</v>
       </c>
       <c r="N25" t="n">
-        <v>155.104884823428</v>
+        <v>155.1048848234281</v>
       </c>
       <c r="O25" t="n">
         <v>143.2644655875161</v>
@@ -32888,16 +32888,16 @@
         <v>122.5875000113399</v>
       </c>
       <c r="Q25" t="n">
-        <v>84.87323080310072</v>
+        <v>84.87323080310075</v>
       </c>
       <c r="R25" t="n">
-        <v>45.57409614071611</v>
+        <v>45.57409614071612</v>
       </c>
       <c r="S25" t="n">
         <v>17.66387834649268</v>
       </c>
       <c r="T25" t="n">
-        <v>4.330736996792675</v>
+        <v>4.330736996792676</v>
       </c>
       <c r="U25" t="n">
         <v>0.05528600421437466</v>
@@ -32937,13 +32937,13 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>2.259595482128541</v>
+        <v>2.259595482128542</v>
       </c>
       <c r="H26" t="n">
         <v>23.14108223134893</v>
       </c>
       <c r="I26" t="n">
-        <v>87.11305482476067</v>
+        <v>87.11305482476068</v>
       </c>
       <c r="J26" t="n">
         <v>191.7803420513075</v>
@@ -32952,19 +32952,19 @@
         <v>287.4290188098087</v>
       </c>
       <c r="L26" t="n">
-        <v>356.5811140460001</v>
+        <v>356.5811140460002</v>
       </c>
       <c r="M26" t="n">
-        <v>396.7651952013035</v>
+        <v>396.7651952013036</v>
       </c>
       <c r="N26" t="n">
         <v>403.1852708649013</v>
       </c>
       <c r="O26" t="n">
-        <v>380.7164182894855</v>
+        <v>380.7164182894856</v>
       </c>
       <c r="P26" t="n">
-        <v>324.9326548244371</v>
+        <v>324.9326548244372</v>
       </c>
       <c r="Q26" t="n">
         <v>244.0108916207087</v>
@@ -32976,7 +32976,7 @@
         <v>51.49053204900419</v>
       </c>
       <c r="T26" t="n">
-        <v>9.891379223017694</v>
+        <v>9.891379223017696</v>
       </c>
       <c r="U26" t="n">
         <v>0.1807676385702833</v>
@@ -33022,7 +33022,7 @@
         <v>11.67629977686042</v>
       </c>
       <c r="I27" t="n">
-        <v>41.6253193680083</v>
+        <v>41.62531936800831</v>
       </c>
       <c r="J27" t="n">
         <v>114.2230578988875</v>
@@ -33037,28 +33037,28 @@
         <v>306.3305350178139</v>
       </c>
       <c r="N27" t="n">
-        <v>314.4381927647801</v>
+        <v>314.4381927647802</v>
       </c>
       <c r="O27" t="n">
-        <v>287.6495158925281</v>
+        <v>287.6495158925282</v>
       </c>
       <c r="P27" t="n">
-        <v>230.8640961330376</v>
+        <v>230.8640961330377</v>
       </c>
       <c r="Q27" t="n">
         <v>154.3265343804476</v>
       </c>
       <c r="R27" t="n">
-        <v>75.06344216223256</v>
+        <v>75.06344216223258</v>
       </c>
       <c r="S27" t="n">
-        <v>22.45646210490637</v>
+        <v>22.45646210490638</v>
       </c>
       <c r="T27" t="n">
-        <v>4.873078789706956</v>
+        <v>4.873078789706957</v>
       </c>
       <c r="U27" t="n">
-        <v>0.07953882681785028</v>
+        <v>0.07953882681785029</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33098,25 +33098,25 @@
         <v>1.013576743930201</v>
       </c>
       <c r="H28" t="n">
-        <v>9.011618686943065</v>
+        <v>9.011618686943066</v>
       </c>
       <c r="I28" t="n">
-        <v>30.48101699019186</v>
+        <v>30.48101699019187</v>
       </c>
       <c r="J28" t="n">
-        <v>71.65987579586519</v>
+        <v>71.6598757958652</v>
       </c>
       <c r="K28" t="n">
-        <v>117.7591889766178</v>
+        <v>117.7591889766179</v>
       </c>
       <c r="L28" t="n">
         <v>150.6912188203137</v>
       </c>
       <c r="M28" t="n">
-        <v>158.8827617780768</v>
+        <v>158.8827617780769</v>
       </c>
       <c r="N28" t="n">
-        <v>155.104884823428</v>
+        <v>155.1048848234281</v>
       </c>
       <c r="O28" t="n">
         <v>143.2644655875161</v>
@@ -33125,16 +33125,16 @@
         <v>122.5875000113399</v>
       </c>
       <c r="Q28" t="n">
-        <v>84.87323080310072</v>
+        <v>84.87323080310075</v>
       </c>
       <c r="R28" t="n">
-        <v>45.57409614071611</v>
+        <v>45.57409614071612</v>
       </c>
       <c r="S28" t="n">
         <v>17.66387834649268</v>
       </c>
       <c r="T28" t="n">
-        <v>4.330736996792675</v>
+        <v>4.330736996792676</v>
       </c>
       <c r="U28" t="n">
         <v>0.05528600421437466</v>
@@ -33174,13 +33174,13 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>2.259595482128541</v>
+        <v>2.259595482128542</v>
       </c>
       <c r="H29" t="n">
         <v>23.14108223134893</v>
       </c>
       <c r="I29" t="n">
-        <v>87.11305482476067</v>
+        <v>87.11305482476068</v>
       </c>
       <c r="J29" t="n">
         <v>191.7803420513075</v>
@@ -33189,19 +33189,19 @@
         <v>287.4290188098087</v>
       </c>
       <c r="L29" t="n">
-        <v>356.5811140460001</v>
+        <v>356.5811140460002</v>
       </c>
       <c r="M29" t="n">
-        <v>396.7651952013035</v>
+        <v>396.7651952013036</v>
       </c>
       <c r="N29" t="n">
         <v>403.1852708649013</v>
       </c>
       <c r="O29" t="n">
-        <v>380.7164182894855</v>
+        <v>380.7164182894856</v>
       </c>
       <c r="P29" t="n">
-        <v>324.9326548244371</v>
+        <v>324.9326548244372</v>
       </c>
       <c r="Q29" t="n">
         <v>244.0108916207087</v>
@@ -33213,7 +33213,7 @@
         <v>51.49053204900419</v>
       </c>
       <c r="T29" t="n">
-        <v>9.891379223017694</v>
+        <v>9.891379223017696</v>
       </c>
       <c r="U29" t="n">
         <v>0.1807676385702833</v>
@@ -33259,7 +33259,7 @@
         <v>11.67629977686042</v>
       </c>
       <c r="I30" t="n">
-        <v>41.6253193680083</v>
+        <v>41.62531936800831</v>
       </c>
       <c r="J30" t="n">
         <v>114.2230578988875</v>
@@ -33274,28 +33274,28 @@
         <v>306.3305350178139</v>
       </c>
       <c r="N30" t="n">
-        <v>314.4381927647801</v>
+        <v>314.4381927647802</v>
       </c>
       <c r="O30" t="n">
-        <v>287.6495158925281</v>
+        <v>287.6495158925282</v>
       </c>
       <c r="P30" t="n">
-        <v>230.8640961330376</v>
+        <v>230.8640961330377</v>
       </c>
       <c r="Q30" t="n">
         <v>154.3265343804476</v>
       </c>
       <c r="R30" t="n">
-        <v>75.06344216223256</v>
+        <v>75.06344216223258</v>
       </c>
       <c r="S30" t="n">
-        <v>22.45646210490637</v>
+        <v>22.45646210490638</v>
       </c>
       <c r="T30" t="n">
-        <v>4.873078789706956</v>
+        <v>4.873078789706957</v>
       </c>
       <c r="U30" t="n">
-        <v>0.07953882681785028</v>
+        <v>0.07953882681785029</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33335,25 +33335,25 @@
         <v>1.013576743930201</v>
       </c>
       <c r="H31" t="n">
-        <v>9.011618686943065</v>
+        <v>9.011618686943066</v>
       </c>
       <c r="I31" t="n">
-        <v>30.48101699019186</v>
+        <v>30.48101699019187</v>
       </c>
       <c r="J31" t="n">
-        <v>71.65987579586519</v>
+        <v>71.6598757958652</v>
       </c>
       <c r="K31" t="n">
-        <v>117.7591889766178</v>
+        <v>117.7591889766179</v>
       </c>
       <c r="L31" t="n">
         <v>150.6912188203137</v>
       </c>
       <c r="M31" t="n">
-        <v>158.8827617780768</v>
+        <v>158.8827617780769</v>
       </c>
       <c r="N31" t="n">
-        <v>155.104884823428</v>
+        <v>155.1048848234281</v>
       </c>
       <c r="O31" t="n">
         <v>143.2644655875161</v>
@@ -33362,16 +33362,16 @@
         <v>122.5875000113399</v>
       </c>
       <c r="Q31" t="n">
-        <v>84.87323080310072</v>
+        <v>84.87323080310075</v>
       </c>
       <c r="R31" t="n">
-        <v>45.57409614071611</v>
+        <v>45.57409614071612</v>
       </c>
       <c r="S31" t="n">
         <v>17.66387834649268</v>
       </c>
       <c r="T31" t="n">
-        <v>4.330736996792675</v>
+        <v>4.330736996792676</v>
       </c>
       <c r="U31" t="n">
         <v>0.05528600421437466</v>
@@ -33411,13 +33411,13 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>2.259595482128541</v>
+        <v>2.259595482128542</v>
       </c>
       <c r="H32" t="n">
         <v>23.14108223134893</v>
       </c>
       <c r="I32" t="n">
-        <v>87.11305482476067</v>
+        <v>87.11305482476068</v>
       </c>
       <c r="J32" t="n">
         <v>191.7803420513075</v>
@@ -33426,19 +33426,19 @@
         <v>287.4290188098087</v>
       </c>
       <c r="L32" t="n">
-        <v>356.5811140460001</v>
+        <v>356.5811140460002</v>
       </c>
       <c r="M32" t="n">
-        <v>396.7651952013035</v>
+        <v>396.7651952013036</v>
       </c>
       <c r="N32" t="n">
         <v>403.1852708649013</v>
       </c>
       <c r="O32" t="n">
-        <v>380.7164182894855</v>
+        <v>380.7164182894856</v>
       </c>
       <c r="P32" t="n">
-        <v>324.9326548244371</v>
+        <v>324.9326548244372</v>
       </c>
       <c r="Q32" t="n">
         <v>244.0108916207087</v>
@@ -33450,7 +33450,7 @@
         <v>51.49053204900419</v>
       </c>
       <c r="T32" t="n">
-        <v>9.891379223017694</v>
+        <v>9.891379223017696</v>
       </c>
       <c r="U32" t="n">
         <v>0.1807676385702833</v>
@@ -33496,7 +33496,7 @@
         <v>11.67629977686042</v>
       </c>
       <c r="I33" t="n">
-        <v>41.6253193680083</v>
+        <v>41.62531936800831</v>
       </c>
       <c r="J33" t="n">
         <v>114.2230578988875</v>
@@ -33511,28 +33511,28 @@
         <v>306.3305350178139</v>
       </c>
       <c r="N33" t="n">
-        <v>314.4381927647801</v>
+        <v>314.4381927647802</v>
       </c>
       <c r="O33" t="n">
-        <v>287.6495158925281</v>
+        <v>287.6495158925282</v>
       </c>
       <c r="P33" t="n">
-        <v>230.8640961330376</v>
+        <v>230.8640961330377</v>
       </c>
       <c r="Q33" t="n">
         <v>154.3265343804476</v>
       </c>
       <c r="R33" t="n">
-        <v>75.06344216223256</v>
+        <v>75.06344216223258</v>
       </c>
       <c r="S33" t="n">
-        <v>22.45646210490637</v>
+        <v>22.45646210490638</v>
       </c>
       <c r="T33" t="n">
-        <v>4.873078789706956</v>
+        <v>4.873078789706957</v>
       </c>
       <c r="U33" t="n">
-        <v>0.07953882681785028</v>
+        <v>0.07953882681785029</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33572,25 +33572,25 @@
         <v>1.013576743930201</v>
       </c>
       <c r="H34" t="n">
-        <v>9.011618686943065</v>
+        <v>9.011618686943066</v>
       </c>
       <c r="I34" t="n">
-        <v>30.48101699019186</v>
+        <v>30.48101699019187</v>
       </c>
       <c r="J34" t="n">
-        <v>71.65987579586519</v>
+        <v>71.6598757958652</v>
       </c>
       <c r="K34" t="n">
-        <v>117.7591889766178</v>
+        <v>117.7591889766179</v>
       </c>
       <c r="L34" t="n">
         <v>150.6912188203137</v>
       </c>
       <c r="M34" t="n">
-        <v>158.8827617780768</v>
+        <v>158.8827617780769</v>
       </c>
       <c r="N34" t="n">
-        <v>155.104884823428</v>
+        <v>155.1048848234281</v>
       </c>
       <c r="O34" t="n">
         <v>143.2644655875161</v>
@@ -33599,16 +33599,16 @@
         <v>122.5875000113399</v>
       </c>
       <c r="Q34" t="n">
-        <v>84.87323080310072</v>
+        <v>84.87323080310075</v>
       </c>
       <c r="R34" t="n">
-        <v>45.57409614071611</v>
+        <v>45.57409614071612</v>
       </c>
       <c r="S34" t="n">
         <v>17.66387834649268</v>
       </c>
       <c r="T34" t="n">
-        <v>4.330736996792675</v>
+        <v>4.330736996792676</v>
       </c>
       <c r="U34" t="n">
         <v>0.05528600421437466</v>
@@ -33648,13 +33648,13 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>2.259595482128541</v>
+        <v>2.259595482128542</v>
       </c>
       <c r="H35" t="n">
         <v>23.14108223134893</v>
       </c>
       <c r="I35" t="n">
-        <v>87.11305482476067</v>
+        <v>87.11305482476068</v>
       </c>
       <c r="J35" t="n">
         <v>191.7803420513075</v>
@@ -33663,19 +33663,19 @@
         <v>287.4290188098087</v>
       </c>
       <c r="L35" t="n">
-        <v>356.5811140460001</v>
+        <v>356.5811140460002</v>
       </c>
       <c r="M35" t="n">
-        <v>396.7651952013035</v>
+        <v>396.7651952013036</v>
       </c>
       <c r="N35" t="n">
         <v>403.1852708649013</v>
       </c>
       <c r="O35" t="n">
-        <v>380.7164182894855</v>
+        <v>380.7164182894856</v>
       </c>
       <c r="P35" t="n">
-        <v>324.9326548244371</v>
+        <v>324.9326548244372</v>
       </c>
       <c r="Q35" t="n">
         <v>244.0108916207087</v>
@@ -33687,7 +33687,7 @@
         <v>51.49053204900419</v>
       </c>
       <c r="T35" t="n">
-        <v>9.891379223017694</v>
+        <v>9.891379223017696</v>
       </c>
       <c r="U35" t="n">
         <v>0.1807676385702833</v>
@@ -33733,7 +33733,7 @@
         <v>11.67629977686042</v>
       </c>
       <c r="I36" t="n">
-        <v>41.6253193680083</v>
+        <v>41.62531936800831</v>
       </c>
       <c r="J36" t="n">
         <v>114.2230578988875</v>
@@ -33748,28 +33748,28 @@
         <v>306.3305350178139</v>
       </c>
       <c r="N36" t="n">
-        <v>314.4381927647801</v>
+        <v>314.4381927647802</v>
       </c>
       <c r="O36" t="n">
-        <v>287.6495158925281</v>
+        <v>287.6495158925282</v>
       </c>
       <c r="P36" t="n">
-        <v>230.8640961330376</v>
+        <v>230.8640961330377</v>
       </c>
       <c r="Q36" t="n">
         <v>154.3265343804476</v>
       </c>
       <c r="R36" t="n">
-        <v>75.06344216223256</v>
+        <v>75.06344216223258</v>
       </c>
       <c r="S36" t="n">
-        <v>22.45646210490637</v>
+        <v>22.45646210490638</v>
       </c>
       <c r="T36" t="n">
-        <v>4.873078789706956</v>
+        <v>4.873078789706957</v>
       </c>
       <c r="U36" t="n">
-        <v>0.07953882681785028</v>
+        <v>0.07953882681785029</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33809,25 +33809,25 @@
         <v>1.013576743930201</v>
       </c>
       <c r="H37" t="n">
-        <v>9.011618686943065</v>
+        <v>9.011618686943066</v>
       </c>
       <c r="I37" t="n">
-        <v>30.48101699019186</v>
+        <v>30.48101699019187</v>
       </c>
       <c r="J37" t="n">
-        <v>71.65987579586519</v>
+        <v>71.6598757958652</v>
       </c>
       <c r="K37" t="n">
-        <v>117.7591889766178</v>
+        <v>117.7591889766179</v>
       </c>
       <c r="L37" t="n">
         <v>150.6912188203137</v>
       </c>
       <c r="M37" t="n">
-        <v>158.8827617780768</v>
+        <v>158.8827617780769</v>
       </c>
       <c r="N37" t="n">
-        <v>155.104884823428</v>
+        <v>155.1048848234281</v>
       </c>
       <c r="O37" t="n">
         <v>143.2644655875161</v>
@@ -33836,16 +33836,16 @@
         <v>122.5875000113399</v>
       </c>
       <c r="Q37" t="n">
-        <v>84.87323080310072</v>
+        <v>84.87323080310075</v>
       </c>
       <c r="R37" t="n">
-        <v>45.57409614071611</v>
+        <v>45.57409614071612</v>
       </c>
       <c r="S37" t="n">
         <v>17.66387834649268</v>
       </c>
       <c r="T37" t="n">
-        <v>4.330736996792675</v>
+        <v>4.330736996792676</v>
       </c>
       <c r="U37" t="n">
         <v>0.05528600421437466</v>
@@ -33885,13 +33885,13 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>2.259595482128541</v>
+        <v>2.259595482128542</v>
       </c>
       <c r="H38" t="n">
         <v>23.14108223134893</v>
       </c>
       <c r="I38" t="n">
-        <v>87.11305482476067</v>
+        <v>87.11305482476068</v>
       </c>
       <c r="J38" t="n">
         <v>191.7803420513075</v>
@@ -33900,19 +33900,19 @@
         <v>287.4290188098087</v>
       </c>
       <c r="L38" t="n">
-        <v>356.5811140460001</v>
+        <v>356.5811140460002</v>
       </c>
       <c r="M38" t="n">
-        <v>396.7651952013035</v>
+        <v>396.7651952013036</v>
       </c>
       <c r="N38" t="n">
         <v>403.1852708649013</v>
       </c>
       <c r="O38" t="n">
-        <v>380.7164182894855</v>
+        <v>380.7164182894856</v>
       </c>
       <c r="P38" t="n">
-        <v>324.9326548244371</v>
+        <v>324.9326548244372</v>
       </c>
       <c r="Q38" t="n">
         <v>244.0108916207087</v>
@@ -33924,7 +33924,7 @@
         <v>51.49053204900419</v>
       </c>
       <c r="T38" t="n">
-        <v>9.891379223017694</v>
+        <v>9.891379223017696</v>
       </c>
       <c r="U38" t="n">
         <v>0.1807676385702833</v>
@@ -33970,7 +33970,7 @@
         <v>11.67629977686042</v>
       </c>
       <c r="I39" t="n">
-        <v>41.6253193680083</v>
+        <v>41.62531936800831</v>
       </c>
       <c r="J39" t="n">
         <v>114.2230578988875</v>
@@ -33985,28 +33985,28 @@
         <v>306.3305350178139</v>
       </c>
       <c r="N39" t="n">
-        <v>314.4381927647801</v>
+        <v>314.4381927647802</v>
       </c>
       <c r="O39" t="n">
-        <v>287.6495158925281</v>
+        <v>287.6495158925282</v>
       </c>
       <c r="P39" t="n">
-        <v>230.8640961330376</v>
+        <v>230.8640961330377</v>
       </c>
       <c r="Q39" t="n">
         <v>154.3265343804476</v>
       </c>
       <c r="R39" t="n">
-        <v>75.06344216223256</v>
+        <v>75.06344216223258</v>
       </c>
       <c r="S39" t="n">
-        <v>22.45646210490637</v>
+        <v>22.45646210490638</v>
       </c>
       <c r="T39" t="n">
-        <v>4.873078789706956</v>
+        <v>4.873078789706957</v>
       </c>
       <c r="U39" t="n">
-        <v>0.07953882681785028</v>
+        <v>0.07953882681785029</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34046,25 +34046,25 @@
         <v>1.013576743930201</v>
       </c>
       <c r="H40" t="n">
-        <v>9.011618686943065</v>
+        <v>9.011618686943066</v>
       </c>
       <c r="I40" t="n">
-        <v>30.48101699019186</v>
+        <v>30.48101699019187</v>
       </c>
       <c r="J40" t="n">
-        <v>71.65987579586519</v>
+        <v>71.6598757958652</v>
       </c>
       <c r="K40" t="n">
-        <v>117.7591889766178</v>
+        <v>117.7591889766179</v>
       </c>
       <c r="L40" t="n">
         <v>150.6912188203137</v>
       </c>
       <c r="M40" t="n">
-        <v>158.8827617780768</v>
+        <v>158.8827617780769</v>
       </c>
       <c r="N40" t="n">
-        <v>155.104884823428</v>
+        <v>155.1048848234281</v>
       </c>
       <c r="O40" t="n">
         <v>143.2644655875161</v>
@@ -34073,16 +34073,16 @@
         <v>122.5875000113399</v>
       </c>
       <c r="Q40" t="n">
-        <v>84.87323080310072</v>
+        <v>84.87323080310075</v>
       </c>
       <c r="R40" t="n">
-        <v>45.57409614071611</v>
+        <v>45.57409614071612</v>
       </c>
       <c r="S40" t="n">
         <v>17.66387834649268</v>
       </c>
       <c r="T40" t="n">
-        <v>4.330736996792675</v>
+        <v>4.330736996792676</v>
       </c>
       <c r="U40" t="n">
         <v>0.05528600421437466</v>
@@ -34122,13 +34122,13 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>2.259595482128541</v>
+        <v>2.259595482128542</v>
       </c>
       <c r="H41" t="n">
         <v>23.14108223134893</v>
       </c>
       <c r="I41" t="n">
-        <v>87.11305482476067</v>
+        <v>87.11305482476068</v>
       </c>
       <c r="J41" t="n">
         <v>191.7803420513075</v>
@@ -34137,19 +34137,19 @@
         <v>287.4290188098087</v>
       </c>
       <c r="L41" t="n">
-        <v>356.5811140460001</v>
+        <v>356.5811140460002</v>
       </c>
       <c r="M41" t="n">
-        <v>396.7651952013035</v>
+        <v>396.7651952013036</v>
       </c>
       <c r="N41" t="n">
         <v>403.1852708649013</v>
       </c>
       <c r="O41" t="n">
-        <v>380.7164182894855</v>
+        <v>380.7164182894856</v>
       </c>
       <c r="P41" t="n">
-        <v>324.9326548244371</v>
+        <v>324.9326548244372</v>
       </c>
       <c r="Q41" t="n">
         <v>244.0108916207087</v>
@@ -34161,7 +34161,7 @@
         <v>51.49053204900419</v>
       </c>
       <c r="T41" t="n">
-        <v>9.891379223017694</v>
+        <v>9.891379223017696</v>
       </c>
       <c r="U41" t="n">
         <v>0.1807676385702833</v>
@@ -34207,7 +34207,7 @@
         <v>11.67629977686042</v>
       </c>
       <c r="I42" t="n">
-        <v>41.6253193680083</v>
+        <v>41.62531936800831</v>
       </c>
       <c r="J42" t="n">
         <v>114.2230578988875</v>
@@ -34222,28 +34222,28 @@
         <v>306.3305350178139</v>
       </c>
       <c r="N42" t="n">
-        <v>314.4381927647801</v>
+        <v>314.4381927647802</v>
       </c>
       <c r="O42" t="n">
-        <v>287.6495158925281</v>
+        <v>287.6495158925282</v>
       </c>
       <c r="P42" t="n">
-        <v>230.8640961330376</v>
+        <v>230.8640961330377</v>
       </c>
       <c r="Q42" t="n">
         <v>154.3265343804476</v>
       </c>
       <c r="R42" t="n">
-        <v>75.06344216223256</v>
+        <v>75.06344216223258</v>
       </c>
       <c r="S42" t="n">
-        <v>22.45646210490637</v>
+        <v>22.45646210490638</v>
       </c>
       <c r="T42" t="n">
-        <v>4.873078789706956</v>
+        <v>4.873078789706957</v>
       </c>
       <c r="U42" t="n">
-        <v>0.07953882681785028</v>
+        <v>0.07953882681785029</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34283,25 +34283,25 @@
         <v>1.013576743930201</v>
       </c>
       <c r="H43" t="n">
-        <v>9.011618686943065</v>
+        <v>9.011618686943066</v>
       </c>
       <c r="I43" t="n">
-        <v>30.48101699019186</v>
+        <v>30.48101699019187</v>
       </c>
       <c r="J43" t="n">
-        <v>71.65987579586519</v>
+        <v>71.6598757958652</v>
       </c>
       <c r="K43" t="n">
-        <v>117.7591889766178</v>
+        <v>117.7591889766179</v>
       </c>
       <c r="L43" t="n">
         <v>150.6912188203137</v>
       </c>
       <c r="M43" t="n">
-        <v>158.8827617780768</v>
+        <v>158.8827617780769</v>
       </c>
       <c r="N43" t="n">
-        <v>155.104884823428</v>
+        <v>155.1048848234281</v>
       </c>
       <c r="O43" t="n">
         <v>143.2644655875161</v>
@@ -34310,16 +34310,16 @@
         <v>122.5875000113399</v>
       </c>
       <c r="Q43" t="n">
-        <v>84.87323080310072</v>
+        <v>84.87323080310075</v>
       </c>
       <c r="R43" t="n">
-        <v>45.57409614071611</v>
+        <v>45.57409614071612</v>
       </c>
       <c r="S43" t="n">
         <v>17.66387834649268</v>
       </c>
       <c r="T43" t="n">
-        <v>4.330736996792675</v>
+        <v>4.330736996792676</v>
       </c>
       <c r="U43" t="n">
         <v>0.05528600421437466</v>
@@ -34359,13 +34359,13 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>2.259595482128541</v>
+        <v>2.259595482128542</v>
       </c>
       <c r="H44" t="n">
         <v>23.14108223134893</v>
       </c>
       <c r="I44" t="n">
-        <v>87.11305482476067</v>
+        <v>87.11305482476068</v>
       </c>
       <c r="J44" t="n">
         <v>191.7803420513075</v>
@@ -34374,19 +34374,19 @@
         <v>287.4290188098087</v>
       </c>
       <c r="L44" t="n">
-        <v>356.5811140460001</v>
+        <v>356.5811140460002</v>
       </c>
       <c r="M44" t="n">
-        <v>396.7651952013035</v>
+        <v>396.7651952013036</v>
       </c>
       <c r="N44" t="n">
         <v>403.1852708649013</v>
       </c>
       <c r="O44" t="n">
-        <v>380.7164182894855</v>
+        <v>380.7164182894856</v>
       </c>
       <c r="P44" t="n">
-        <v>324.9326548244371</v>
+        <v>324.9326548244372</v>
       </c>
       <c r="Q44" t="n">
         <v>244.0108916207087</v>
@@ -34398,7 +34398,7 @@
         <v>51.49053204900419</v>
       </c>
       <c r="T44" t="n">
-        <v>9.891379223017694</v>
+        <v>9.891379223017696</v>
       </c>
       <c r="U44" t="n">
         <v>0.1807676385702833</v>
@@ -34444,7 +34444,7 @@
         <v>11.67629977686042</v>
       </c>
       <c r="I45" t="n">
-        <v>41.6253193680083</v>
+        <v>41.62531936800831</v>
       </c>
       <c r="J45" t="n">
         <v>114.2230578988875</v>
@@ -34459,28 +34459,28 @@
         <v>306.3305350178139</v>
       </c>
       <c r="N45" t="n">
-        <v>314.4381927647801</v>
+        <v>314.4381927647802</v>
       </c>
       <c r="O45" t="n">
-        <v>287.6495158925281</v>
+        <v>287.6495158925282</v>
       </c>
       <c r="P45" t="n">
-        <v>230.8640961330376</v>
+        <v>230.8640961330377</v>
       </c>
       <c r="Q45" t="n">
         <v>154.3265343804476</v>
       </c>
       <c r="R45" t="n">
-        <v>75.06344216223256</v>
+        <v>75.06344216223258</v>
       </c>
       <c r="S45" t="n">
-        <v>22.45646210490637</v>
+        <v>22.45646210490638</v>
       </c>
       <c r="T45" t="n">
-        <v>4.873078789706956</v>
+        <v>4.873078789706957</v>
       </c>
       <c r="U45" t="n">
-        <v>0.07953882681785028</v>
+        <v>0.07953882681785029</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34520,25 +34520,25 @@
         <v>1.013576743930201</v>
       </c>
       <c r="H46" t="n">
-        <v>9.011618686943065</v>
+        <v>9.011618686943066</v>
       </c>
       <c r="I46" t="n">
-        <v>30.48101699019186</v>
+        <v>30.48101699019187</v>
       </c>
       <c r="J46" t="n">
-        <v>71.65987579586519</v>
+        <v>71.6598757958652</v>
       </c>
       <c r="K46" t="n">
-        <v>117.7591889766178</v>
+        <v>117.7591889766179</v>
       </c>
       <c r="L46" t="n">
         <v>150.6912188203137</v>
       </c>
       <c r="M46" t="n">
-        <v>158.8827617780768</v>
+        <v>158.8827617780769</v>
       </c>
       <c r="N46" t="n">
-        <v>155.104884823428</v>
+        <v>155.1048848234281</v>
       </c>
       <c r="O46" t="n">
         <v>143.2644655875161</v>
@@ -34547,16 +34547,16 @@
         <v>122.5875000113399</v>
       </c>
       <c r="Q46" t="n">
-        <v>84.87323080310072</v>
+        <v>84.87323080310075</v>
       </c>
       <c r="R46" t="n">
-        <v>45.57409614071611</v>
+        <v>45.57409614071612</v>
       </c>
       <c r="S46" t="n">
         <v>17.66387834649268</v>
       </c>
       <c r="T46" t="n">
-        <v>4.330736996792675</v>
+        <v>4.330736996792676</v>
       </c>
       <c r="U46" t="n">
         <v>0.05528600421437466</v>
@@ -35418,19 +35418,19 @@
         <v>189.9544053731505</v>
       </c>
       <c r="M11" t="n">
-        <v>240.5285123181315</v>
+        <v>240.5285123181314</v>
       </c>
       <c r="N11" t="n">
-        <v>237.5089635799388</v>
+        <v>237.5089635799387</v>
       </c>
       <c r="O11" t="n">
-        <v>186.9907987939228</v>
+        <v>186.9907987939227</v>
       </c>
       <c r="P11" t="n">
-        <v>114.9988128932575</v>
+        <v>114.9988128932574</v>
       </c>
       <c r="Q11" t="n">
-        <v>7.981024917396894</v>
+        <v>7.981024917396837</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35497,19 +35497,19 @@
         <v>223.615062310402</v>
       </c>
       <c r="M12" t="n">
-        <v>274.3489689505703</v>
+        <v>274.3489689505702</v>
       </c>
       <c r="N12" t="n">
-        <v>22.25006334258524</v>
+        <v>274.3489689505702</v>
       </c>
       <c r="O12" t="n">
-        <v>248.195274106263</v>
+        <v>20.59129282751088</v>
       </c>
       <c r="P12" t="n">
-        <v>176.8990920389159</v>
+        <v>176.8990920389158</v>
       </c>
       <c r="Q12" t="n">
-        <v>24.49492432923316</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35573,16 +35573,16 @@
         <v>0</v>
       </c>
       <c r="L13" t="n">
-        <v>28.17926680764423</v>
+        <v>28.1792668076442</v>
       </c>
       <c r="M13" t="n">
-        <v>38.39380264143659</v>
+        <v>38.39380264143657</v>
       </c>
       <c r="N13" t="n">
-        <v>45.57799116188356</v>
+        <v>45.57799116188353</v>
       </c>
       <c r="O13" t="n">
-        <v>19.87880704734599</v>
+        <v>19.87880704734596</v>
       </c>
       <c r="P13" t="n">
         <v>0</v>
@@ -35655,19 +35655,19 @@
         <v>189.9544053731505</v>
       </c>
       <c r="M14" t="n">
-        <v>240.5285123181315</v>
+        <v>240.5285123181314</v>
       </c>
       <c r="N14" t="n">
-        <v>237.5089635799388</v>
+        <v>237.5089635799387</v>
       </c>
       <c r="O14" t="n">
-        <v>186.9907987939228</v>
+        <v>186.9907987939227</v>
       </c>
       <c r="P14" t="n">
-        <v>114.9988128932575</v>
+        <v>114.9988128932574</v>
       </c>
       <c r="Q14" t="n">
-        <v>7.981024917396894</v>
+        <v>7.981024917396837</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35728,25 +35728,25 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>116.507683898026</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>223.615062310402</v>
       </c>
       <c r="M15" t="n">
-        <v>274.3489689505703</v>
+        <v>274.3489689505702</v>
       </c>
       <c r="N15" t="n">
-        <v>168.7270092278</v>
+        <v>274.3489689505702</v>
       </c>
       <c r="O15" t="n">
-        <v>248.195274106263</v>
+        <v>248.1952741062629</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>65.80279465818977</v>
       </c>
       <c r="Q15" t="n">
-        <v>54.91707048293424</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35810,16 +35810,16 @@
         <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>28.17926680764423</v>
+        <v>28.1792668076442</v>
       </c>
       <c r="M16" t="n">
-        <v>38.39380264143659</v>
+        <v>38.39380264143657</v>
       </c>
       <c r="N16" t="n">
-        <v>45.57799116188356</v>
+        <v>45.57799116188353</v>
       </c>
       <c r="O16" t="n">
-        <v>19.87880704734599</v>
+        <v>19.87880704734596</v>
       </c>
       <c r="P16" t="n">
         <v>0</v>
@@ -35965,16 +35965,16 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>116.507683898026</v>
       </c>
       <c r="L18" t="n">
         <v>223.615062310402</v>
       </c>
       <c r="M18" t="n">
-        <v>163.2526715698443</v>
+        <v>274.3489689505702</v>
       </c>
       <c r="N18" t="n">
-        <v>274.3489689505702</v>
+        <v>46.74498767181817</v>
       </c>
       <c r="O18" t="n">
         <v>248.1952741062629</v>
@@ -36132,16 +36132,16 @@
         <v>240.5285123181314</v>
       </c>
       <c r="N20" t="n">
-        <v>237.5089635799388</v>
+        <v>237.5089635799387</v>
       </c>
       <c r="O20" t="n">
-        <v>186.9907987939228</v>
+        <v>186.9907987939227</v>
       </c>
       <c r="P20" t="n">
-        <v>114.9988128932575</v>
+        <v>114.9988128932574</v>
       </c>
       <c r="Q20" t="n">
-        <v>7.981024917396866</v>
+        <v>7.981024917396837</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -36208,19 +36208,19 @@
         <v>223.615062310402</v>
       </c>
       <c r="M21" t="n">
-        <v>274.3489689505702</v>
+        <v>243.9268227968691</v>
       </c>
       <c r="N21" t="n">
-        <v>223.644079710734</v>
+        <v>22.25006334258518</v>
       </c>
       <c r="O21" t="n">
         <v>248.1952741062629</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>176.8990920389158</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>54.91707048293421</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36284,16 +36284,16 @@
         <v>0</v>
       </c>
       <c r="L22" t="n">
-        <v>28.17926680764421</v>
+        <v>28.1792668076442</v>
       </c>
       <c r="M22" t="n">
-        <v>38.39380264143658</v>
+        <v>38.39380264143657</v>
       </c>
       <c r="N22" t="n">
-        <v>45.57799116188355</v>
+        <v>45.57799116188353</v>
       </c>
       <c r="O22" t="n">
-        <v>19.87880704734597</v>
+        <v>19.87880704734596</v>
       </c>
       <c r="P22" t="n">
         <v>0</v>
@@ -36357,13 +36357,13 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>80.47894516025399</v>
+        <v>80.47894516025401</v>
       </c>
       <c r="K23" t="n">
-        <v>228.9656278810471</v>
+        <v>228.9656278810472</v>
       </c>
       <c r="L23" t="n">
-        <v>339.5905548113075</v>
+        <v>339.5905548113076</v>
       </c>
       <c r="M23" t="n">
         <v>407.0275603673863</v>
@@ -36372,13 +36372,13 @@
         <v>406.7021402960261</v>
       </c>
       <c r="O23" t="n">
-        <v>346.7551178132867</v>
+        <v>346.7551178132868</v>
       </c>
       <c r="P23" t="n">
-        <v>251.353962898129</v>
+        <v>251.3539628981291</v>
       </c>
       <c r="Q23" t="n">
-        <v>110.3780639214985</v>
+        <v>110.3780639214986</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -36436,7 +36436,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>41.18814426613906</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>198.4323171656192</v>
@@ -36451,13 +36451,13 @@
         <v>464.8151625977362</v>
       </c>
       <c r="O24" t="n">
-        <v>368.9048805616267</v>
+        <v>368.9048805616268</v>
       </c>
       <c r="P24" t="n">
-        <v>273.779193166234</v>
+        <v>250.9440235662968</v>
       </c>
       <c r="Q24" t="n">
-        <v>55.65553858225462</v>
+        <v>119.6788524483316</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36518,10 +36518,10 @@
         <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>29.53297459989955</v>
+        <v>29.53297459989957</v>
       </c>
       <c r="L25" t="n">
-        <v>91.41552035613026</v>
+        <v>91.41552035613029</v>
       </c>
       <c r="M25" t="n">
         <v>105.0675656313195</v>
@@ -36530,10 +36530,10 @@
         <v>110.6664010910548</v>
       </c>
       <c r="O25" t="n">
-        <v>79.99848848135973</v>
+        <v>79.99848848135976</v>
       </c>
       <c r="P25" t="n">
-        <v>42.04358809887842</v>
+        <v>42.04358809887844</v>
       </c>
       <c r="Q25" t="n">
         <v>0</v>
@@ -36594,13 +36594,13 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>80.47894516025399</v>
+        <v>80.47894516025401</v>
       </c>
       <c r="K26" t="n">
-        <v>228.9656278810471</v>
+        <v>228.9656278810472</v>
       </c>
       <c r="L26" t="n">
-        <v>339.5905548113075</v>
+        <v>339.5905548113076</v>
       </c>
       <c r="M26" t="n">
         <v>407.0275603673863</v>
@@ -36609,13 +36609,13 @@
         <v>406.7021402960261</v>
       </c>
       <c r="O26" t="n">
-        <v>346.7551178132867</v>
+        <v>346.7551178132868</v>
       </c>
       <c r="P26" t="n">
-        <v>251.353962898129</v>
+        <v>251.3539628981291</v>
       </c>
       <c r="Q26" t="n">
-        <v>110.3780639214985</v>
+        <v>110.3780639214986</v>
       </c>
       <c r="R26" t="n">
         <v>0</v>
@@ -36673,10 +36673,10 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>41.18814426613906</v>
+        <v>41.18814426613909</v>
       </c>
       <c r="K27" t="n">
-        <v>134.4090032995425</v>
+        <v>198.4323171656192</v>
       </c>
       <c r="L27" t="n">
         <v>333.7728418663735</v>
@@ -36688,13 +36688,13 @@
         <v>464.8151625977362</v>
       </c>
       <c r="O27" t="n">
-        <v>368.9048805616267</v>
+        <v>368.9048805616268</v>
       </c>
       <c r="P27" t="n">
-        <v>273.779193166234</v>
+        <v>273.7791931662341</v>
       </c>
       <c r="Q27" t="n">
-        <v>119.6788524483315</v>
+        <v>55.65553858225508</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36755,10 +36755,10 @@
         <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>29.53297459989955</v>
+        <v>29.53297459989957</v>
       </c>
       <c r="L28" t="n">
-        <v>91.41552035613026</v>
+        <v>91.41552035613029</v>
       </c>
       <c r="M28" t="n">
         <v>105.0675656313195</v>
@@ -36767,10 +36767,10 @@
         <v>110.6664010910548</v>
       </c>
       <c r="O28" t="n">
-        <v>79.99848848135973</v>
+        <v>79.99848848135976</v>
       </c>
       <c r="P28" t="n">
-        <v>42.04358809887842</v>
+        <v>42.04358809887844</v>
       </c>
       <c r="Q28" t="n">
         <v>0</v>
@@ -36831,13 +36831,13 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>80.47894516025399</v>
+        <v>80.47894516025401</v>
       </c>
       <c r="K29" t="n">
-        <v>228.9656278810471</v>
+        <v>228.9656278810472</v>
       </c>
       <c r="L29" t="n">
-        <v>339.5905548113075</v>
+        <v>339.5905548113076</v>
       </c>
       <c r="M29" t="n">
         <v>407.0275603673863</v>
@@ -36846,13 +36846,13 @@
         <v>406.7021402960261</v>
       </c>
       <c r="O29" t="n">
-        <v>346.7551178132867</v>
+        <v>346.7551178132868</v>
       </c>
       <c r="P29" t="n">
-        <v>251.353962898129</v>
+        <v>251.3539628981291</v>
       </c>
       <c r="Q29" t="n">
-        <v>110.3780639214985</v>
+        <v>110.3780639214986</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
@@ -36910,13 +36910,13 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>41.18814426613906</v>
+        <v>41.18814426613909</v>
       </c>
       <c r="K30" t="n">
         <v>198.4323171656192</v>
       </c>
       <c r="L30" t="n">
-        <v>333.7728418663735</v>
+        <v>269.7495280002967</v>
       </c>
       <c r="M30" t="n">
         <v>434.7038949429515</v>
@@ -36925,13 +36925,13 @@
         <v>464.8151625977362</v>
       </c>
       <c r="O30" t="n">
-        <v>368.9048805616267</v>
+        <v>368.9048805616268</v>
       </c>
       <c r="P30" t="n">
-        <v>273.779193166234</v>
+        <v>273.7791931662341</v>
       </c>
       <c r="Q30" t="n">
-        <v>55.65553858225462</v>
+        <v>119.6788524483316</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36992,10 +36992,10 @@
         <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>29.53297459989955</v>
+        <v>29.53297459989957</v>
       </c>
       <c r="L31" t="n">
-        <v>91.41552035613026</v>
+        <v>91.41552035613029</v>
       </c>
       <c r="M31" t="n">
         <v>105.0675656313195</v>
@@ -37004,10 +37004,10 @@
         <v>110.6664010910548</v>
       </c>
       <c r="O31" t="n">
-        <v>79.99848848135973</v>
+        <v>79.99848848135976</v>
       </c>
       <c r="P31" t="n">
-        <v>42.04358809887842</v>
+        <v>42.04358809887844</v>
       </c>
       <c r="Q31" t="n">
         <v>0</v>
@@ -37068,13 +37068,13 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>80.47894516025399</v>
+        <v>80.47894516025401</v>
       </c>
       <c r="K32" t="n">
-        <v>228.9656278810471</v>
+        <v>228.9656278810472</v>
       </c>
       <c r="L32" t="n">
-        <v>339.5905548113075</v>
+        <v>339.5905548113076</v>
       </c>
       <c r="M32" t="n">
         <v>407.0275603673863</v>
@@ -37083,13 +37083,13 @@
         <v>406.7021402960261</v>
       </c>
       <c r="O32" t="n">
-        <v>346.7551178132867</v>
+        <v>346.7551178132868</v>
       </c>
       <c r="P32" t="n">
-        <v>251.353962898129</v>
+        <v>251.3539628981291</v>
       </c>
       <c r="Q32" t="n">
-        <v>110.3780639214985</v>
+        <v>110.3780639214986</v>
       </c>
       <c r="R32" t="n">
         <v>0</v>
@@ -37147,7 +37147,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>41.18814426613906</v>
+        <v>41.18814426613909</v>
       </c>
       <c r="K33" t="n">
         <v>198.4323171656192</v>
@@ -37156,19 +37156,19 @@
         <v>333.7728418663735</v>
       </c>
       <c r="M33" t="n">
-        <v>370.6805810768752</v>
+        <v>434.7038949429515</v>
       </c>
       <c r="N33" t="n">
         <v>464.8151625977362</v>
       </c>
       <c r="O33" t="n">
-        <v>368.9048805616267</v>
+        <v>368.9048805616268</v>
       </c>
       <c r="P33" t="n">
-        <v>273.779193166234</v>
+        <v>273.7791931662341</v>
       </c>
       <c r="Q33" t="n">
-        <v>119.6788524483315</v>
+        <v>55.65553858225508</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37229,10 +37229,10 @@
         <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>29.53297459989955</v>
+        <v>29.53297459989957</v>
       </c>
       <c r="L34" t="n">
-        <v>91.41552035613026</v>
+        <v>91.41552035613029</v>
       </c>
       <c r="M34" t="n">
         <v>105.0675656313195</v>
@@ -37241,10 +37241,10 @@
         <v>110.6664010910548</v>
       </c>
       <c r="O34" t="n">
-        <v>79.99848848135973</v>
+        <v>79.99848848135976</v>
       </c>
       <c r="P34" t="n">
-        <v>42.04358809887842</v>
+        <v>42.04358809887844</v>
       </c>
       <c r="Q34" t="n">
         <v>0</v>
@@ -37305,13 +37305,13 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>80.47894516025399</v>
+        <v>80.47894516025401</v>
       </c>
       <c r="K35" t="n">
-        <v>228.9656278810471</v>
+        <v>228.9656278810472</v>
       </c>
       <c r="L35" t="n">
-        <v>339.5905548113075</v>
+        <v>339.5905548113076</v>
       </c>
       <c r="M35" t="n">
         <v>407.0275603673863</v>
@@ -37320,13 +37320,13 @@
         <v>406.7021402960261</v>
       </c>
       <c r="O35" t="n">
-        <v>346.7551178132867</v>
+        <v>346.7551178132868</v>
       </c>
       <c r="P35" t="n">
-        <v>251.353962898129</v>
+        <v>251.3539628981291</v>
       </c>
       <c r="Q35" t="n">
-        <v>110.3780639214985</v>
+        <v>110.3780639214986</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
@@ -37384,10 +37384,10 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>41.18814426613906</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>134.4090032995429</v>
+        <v>198.4323171656192</v>
       </c>
       <c r="L36" t="n">
         <v>333.7728418663735</v>
@@ -37396,16 +37396,16 @@
         <v>434.7038949429515</v>
       </c>
       <c r="N36" t="n">
-        <v>464.8151625977362</v>
+        <v>441.9799929977985</v>
       </c>
       <c r="O36" t="n">
-        <v>368.9048805616267</v>
+        <v>368.9048805616268</v>
       </c>
       <c r="P36" t="n">
-        <v>273.779193166234</v>
+        <v>273.7791931662341</v>
       </c>
       <c r="Q36" t="n">
-        <v>119.6788524483315</v>
+        <v>119.6788524483316</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37466,10 +37466,10 @@
         <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>29.53297459989955</v>
+        <v>29.53297459989957</v>
       </c>
       <c r="L37" t="n">
-        <v>91.41552035613026</v>
+        <v>91.41552035613029</v>
       </c>
       <c r="M37" t="n">
         <v>105.0675656313195</v>
@@ -37478,10 +37478,10 @@
         <v>110.6664010910548</v>
       </c>
       <c r="O37" t="n">
-        <v>79.99848848135973</v>
+        <v>79.99848848135976</v>
       </c>
       <c r="P37" t="n">
-        <v>42.04358809887842</v>
+        <v>42.04358809887844</v>
       </c>
       <c r="Q37" t="n">
         <v>0</v>
@@ -37542,13 +37542,13 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>80.47894516025399</v>
+        <v>80.47894516025401</v>
       </c>
       <c r="K38" t="n">
-        <v>228.9656278810471</v>
+        <v>228.9656278810472</v>
       </c>
       <c r="L38" t="n">
-        <v>339.5905548113075</v>
+        <v>339.5905548113076</v>
       </c>
       <c r="M38" t="n">
         <v>407.0275603673863</v>
@@ -37557,13 +37557,13 @@
         <v>406.7021402960261</v>
       </c>
       <c r="O38" t="n">
-        <v>346.7551178132867</v>
+        <v>346.7551178132868</v>
       </c>
       <c r="P38" t="n">
-        <v>251.353962898129</v>
+        <v>251.3539628981291</v>
       </c>
       <c r="Q38" t="n">
-        <v>110.3780639214985</v>
+        <v>110.3780639214986</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
@@ -37621,7 +37621,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>41.18814426613906</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>198.4323171656192</v>
@@ -37636,13 +37636,13 @@
         <v>464.8151625977362</v>
       </c>
       <c r="O39" t="n">
-        <v>368.9048805616267</v>
+        <v>368.9048805616268</v>
       </c>
       <c r="P39" t="n">
-        <v>273.779193166234</v>
+        <v>273.7791931662341</v>
       </c>
       <c r="Q39" t="n">
-        <v>55.65553858225508</v>
+        <v>96.84368284839421</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37703,10 +37703,10 @@
         <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>29.53297459989955</v>
+        <v>29.53297459989957</v>
       </c>
       <c r="L40" t="n">
-        <v>91.41552035613026</v>
+        <v>91.41552035613029</v>
       </c>
       <c r="M40" t="n">
         <v>105.0675656313195</v>
@@ -37715,10 +37715,10 @@
         <v>110.6664010910548</v>
       </c>
       <c r="O40" t="n">
-        <v>79.99848848135973</v>
+        <v>79.99848848135976</v>
       </c>
       <c r="P40" t="n">
-        <v>42.04358809887842</v>
+        <v>42.04358809887844</v>
       </c>
       <c r="Q40" t="n">
         <v>0</v>
@@ -37779,13 +37779,13 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>80.47894516025399</v>
+        <v>80.47894516025401</v>
       </c>
       <c r="K41" t="n">
-        <v>228.9656278810471</v>
+        <v>228.9656278810472</v>
       </c>
       <c r="L41" t="n">
-        <v>339.5905548113075</v>
+        <v>339.5905548113076</v>
       </c>
       <c r="M41" t="n">
         <v>407.0275603673863</v>
@@ -37794,13 +37794,13 @@
         <v>406.7021402960261</v>
       </c>
       <c r="O41" t="n">
-        <v>346.7551178132867</v>
+        <v>346.7551178132868</v>
       </c>
       <c r="P41" t="n">
-        <v>251.353962898129</v>
+        <v>251.3539628981291</v>
       </c>
       <c r="Q41" t="n">
-        <v>110.3780639214985</v>
+        <v>110.3780639214986</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -37858,7 +37858,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>41.18814426613906</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>198.4323171656192</v>
@@ -37873,13 +37873,13 @@
         <v>464.8151625977362</v>
       </c>
       <c r="O42" t="n">
-        <v>368.9048805616267</v>
+        <v>368.9048805616268</v>
       </c>
       <c r="P42" t="n">
-        <v>209.7558793001577</v>
+        <v>273.7791931662341</v>
       </c>
       <c r="Q42" t="n">
-        <v>119.6788524483315</v>
+        <v>96.84368284839421</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37940,10 +37940,10 @@
         <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>29.53297459989955</v>
+        <v>29.53297459989957</v>
       </c>
       <c r="L43" t="n">
-        <v>91.41552035613026</v>
+        <v>91.41552035613029</v>
       </c>
       <c r="M43" t="n">
         <v>105.0675656313195</v>
@@ -37952,10 +37952,10 @@
         <v>110.6664010910548</v>
       </c>
       <c r="O43" t="n">
-        <v>79.99848848135973</v>
+        <v>79.99848848135976</v>
       </c>
       <c r="P43" t="n">
-        <v>42.04358809887842</v>
+        <v>42.04358809887844</v>
       </c>
       <c r="Q43" t="n">
         <v>0</v>
@@ -38016,13 +38016,13 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>80.47894516025399</v>
+        <v>80.47894516025401</v>
       </c>
       <c r="K44" t="n">
-        <v>228.9656278810471</v>
+        <v>228.9656278810472</v>
       </c>
       <c r="L44" t="n">
-        <v>339.5905548113075</v>
+        <v>339.5905548113076</v>
       </c>
       <c r="M44" t="n">
         <v>407.0275603673863</v>
@@ -38031,13 +38031,13 @@
         <v>406.7021402960261</v>
       </c>
       <c r="O44" t="n">
-        <v>346.7551178132867</v>
+        <v>346.7551178132868</v>
       </c>
       <c r="P44" t="n">
-        <v>251.353962898129</v>
+        <v>251.3539628981291</v>
       </c>
       <c r="Q44" t="n">
-        <v>110.3780639214985</v>
+        <v>110.3780639214978</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -38098,7 +38098,7 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>175.5971475656815</v>
+        <v>198.4323171656192</v>
       </c>
       <c r="L45" t="n">
         <v>333.7728418663735</v>
@@ -38110,13 +38110,13 @@
         <v>464.8151625977362</v>
       </c>
       <c r="O45" t="n">
-        <v>368.9048805616267</v>
+        <v>368.9048805616268</v>
       </c>
       <c r="P45" t="n">
-        <v>273.779193166234</v>
+        <v>273.7791931662341</v>
       </c>
       <c r="Q45" t="n">
-        <v>119.6788524483315</v>
+        <v>96.84368284839421</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38177,10 +38177,10 @@
         <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>29.53297459989955</v>
+        <v>29.53297459989957</v>
       </c>
       <c r="L46" t="n">
-        <v>91.41552035613026</v>
+        <v>91.41552035613029</v>
       </c>
       <c r="M46" t="n">
         <v>105.0675656313195</v>
@@ -38189,10 +38189,10 @@
         <v>110.6664010910548</v>
       </c>
       <c r="O46" t="n">
-        <v>79.99848848135973</v>
+        <v>79.99848848135976</v>
       </c>
       <c r="P46" t="n">
-        <v>42.04358809887842</v>
+        <v>42.04358809887844</v>
       </c>
       <c r="Q46" t="n">
         <v>0</v>
